--- a/hasil_testing.xlsx
+++ b/hasil_testing.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\FathanAbi\tugas-akhir-model-deteksi-tumpahan-minyakl\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Asus TUF\Documents\code\TA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C737062-169C-46DD-8888-6F815EB2D95E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B9349B2-64D0-4C6F-82C6-FE0BACE82CC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{68F7C41B-67C2-46E0-B3A4-4A9E152A0B76}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="21">
   <si>
     <t>AUC</t>
   </si>
@@ -70,13 +70,40 @@
   </si>
   <si>
     <t>AA</t>
+  </si>
+  <si>
+    <t>1DCNN</t>
+  </si>
+  <si>
+    <t>AVG</t>
+  </si>
+  <si>
+    <t>St.dev</t>
+  </si>
+  <si>
+    <t>2DCNN</t>
+  </si>
+  <si>
+    <t>HybridSN</t>
+  </si>
+  <si>
+    <t>MyMethod</t>
+  </si>
+  <si>
+    <t>LR</t>
+  </si>
+  <si>
+    <t>SVM</t>
+  </si>
+  <si>
+    <t>RF</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -84,13 +111,61 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF9CDCFE"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -105,8 +180,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -421,64 +505,1469 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5DEA078-0F32-4873-B7D7-443F6BDAD598}">
-  <dimension ref="B3:G10"/>
+  <dimension ref="B3:R42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T8" sqref="T8"/>
+    <sheetView tabSelected="1" zoomScale="118" zoomScaleNormal="118" workbookViewId="0">
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.44140625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="C3" t="s">
+    <row r="3" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B3" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G3" t="s">
+      <c r="G3" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B4" t="s">
+      <c r="H3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="K3" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="R3" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B4" s="5" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B5" t="s">
+      <c r="C4">
+        <v>10</v>
+      </c>
+      <c r="D4">
+        <v>55</v>
+      </c>
+      <c r="E4">
+        <v>192</v>
+      </c>
+      <c r="F4">
+        <v>599</v>
+      </c>
+      <c r="G4">
+        <v>2025</v>
+      </c>
+      <c r="K4" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="L4">
+        <v>10</v>
+      </c>
+      <c r="M4">
+        <v>55</v>
+      </c>
+      <c r="N4">
+        <v>192</v>
+      </c>
+      <c r="O4">
+        <v>599</v>
+      </c>
+      <c r="P4">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="5" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B5" s="5" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B6" t="s">
+      <c r="C5">
+        <v>0.72504865087757298</v>
+      </c>
+      <c r="D5">
+        <v>0.70456845789717504</v>
+      </c>
+      <c r="E5">
+        <v>0.73880482030218297</v>
+      </c>
+      <c r="F5">
+        <v>0.74616631047606297</v>
+      </c>
+      <c r="G5">
+        <v>0.81374517093854104</v>
+      </c>
+      <c r="H5" s="2">
+        <f>AVERAGE(C5:G5)</f>
+        <v>0.74566668209830689</v>
+      </c>
+      <c r="I5" s="3">
+        <f>_xlfn.STDEV.S(C5:G5)</f>
+        <v>4.1219481627321891E-2</v>
+      </c>
+      <c r="K5" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="L5" s="7">
+        <v>0.64892499999999997</v>
+      </c>
+      <c r="M5" s="7">
+        <v>0.64892499999999997</v>
+      </c>
+      <c r="N5">
+        <v>0.78363499999999997</v>
+      </c>
+      <c r="O5">
+        <v>0.63132299999999997</v>
+      </c>
+      <c r="P5">
+        <v>0.87110500000000002</v>
+      </c>
+      <c r="Q5" s="2">
+        <f>AVERAGE(L5:P5)</f>
+        <v>0.71678259999999994</v>
+      </c>
+      <c r="R5" s="3">
+        <f>_xlfn.STDEV.S(L5:P5)</f>
+        <v>0.1058268603843094</v>
+      </c>
+    </row>
+    <row r="6" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B6" s="5" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B7" t="s">
+      <c r="C6">
+        <v>0.52593757778396699</v>
+      </c>
+      <c r="D6">
+        <v>0.53237197516275003</v>
+      </c>
+      <c r="E6">
+        <v>0.52589961034555599</v>
+      </c>
+      <c r="F6">
+        <v>0.53312266732542002</v>
+      </c>
+      <c r="G6">
+        <v>0.53640927678971595</v>
+      </c>
+      <c r="H6" s="2">
+        <f t="shared" ref="H6:H21" si="0">AVERAGE(C6:G6)</f>
+        <v>0.53074822148148182</v>
+      </c>
+      <c r="I6" s="3">
+        <f t="shared" ref="I6:I10" si="1">_xlfn.STDEV.S(C6:G6)</f>
+        <v>4.6629775631557673E-3</v>
+      </c>
+      <c r="K6" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="L6" s="7">
+        <v>0.53040500000000002</v>
+      </c>
+      <c r="M6" s="7">
+        <v>0.53040500000000002</v>
+      </c>
+      <c r="N6">
+        <v>0.53455900000000001</v>
+      </c>
+      <c r="O6">
+        <v>0.52961400000000003</v>
+      </c>
+      <c r="P6">
+        <v>0.55016799999999999</v>
+      </c>
+      <c r="Q6" s="2">
+        <f t="shared" ref="Q6:Q10" si="2">AVERAGE(L6:P6)</f>
+        <v>0.53503020000000012</v>
+      </c>
+      <c r="R6" s="3">
+        <f t="shared" ref="R6:R10" si="3">_xlfn.STDEV.S(L6:P6)</f>
+        <v>8.6818084348826638E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B7" s="5" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B8" t="s">
+      <c r="C7">
+        <v>0.62619657519159599</v>
+      </c>
+      <c r="D7">
+        <v>0.68161704932359002</v>
+      </c>
+      <c r="E7">
+        <v>0.62654137909720398</v>
+      </c>
+      <c r="F7">
+        <v>0.68558807148896195</v>
+      </c>
+      <c r="G7">
+        <v>0.70009279107988498</v>
+      </c>
+      <c r="H7" s="2">
+        <f t="shared" si="0"/>
+        <v>0.66400717323624736</v>
+      </c>
+      <c r="I7" s="3">
+        <f t="shared" si="1"/>
+        <v>3.5040482928057698E-2</v>
+      </c>
+      <c r="K7" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="L7" s="7">
+        <v>0.62669699999999995</v>
+      </c>
+      <c r="M7" s="7">
+        <v>0.62669699999999995</v>
+      </c>
+      <c r="N7">
+        <v>0.67423</v>
+      </c>
+      <c r="O7">
+        <v>0.61612100000000003</v>
+      </c>
+      <c r="P7">
+        <v>0.78185000000000004</v>
+      </c>
+      <c r="Q7" s="2">
+        <f t="shared" si="2"/>
+        <v>0.66511900000000002</v>
+      </c>
+      <c r="R7" s="3">
+        <f t="shared" si="3"/>
+        <v>6.9033399260792633E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B8" s="5" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B9" t="s">
+      <c r="C8">
+        <v>0.30186283026292698</v>
+      </c>
+      <c r="D8">
+        <v>0.38508283417989903</v>
+      </c>
+      <c r="E8">
+        <v>0.30331410868160902</v>
+      </c>
+      <c r="F8">
+        <v>0.38446253063972702</v>
+      </c>
+      <c r="G8">
+        <v>0.37088861389911598</v>
+      </c>
+      <c r="H8" s="2">
+        <f t="shared" si="0"/>
+        <v>0.34912218353265556</v>
+      </c>
+      <c r="I8" s="3">
+        <f t="shared" si="1"/>
+        <v>4.2859398655812918E-2</v>
+      </c>
+      <c r="K8" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="L8" s="7">
+        <v>0.25997700000000001</v>
+      </c>
+      <c r="M8" s="7">
+        <v>0.25997700000000001</v>
+      </c>
+      <c r="N8">
+        <v>0.32350600000000002</v>
+      </c>
+      <c r="O8">
+        <v>0.24485999999999999</v>
+      </c>
+      <c r="P8">
+        <v>0.45718500000000001</v>
+      </c>
+      <c r="Q8" s="2">
+        <f t="shared" si="2"/>
+        <v>0.30910100000000001</v>
+      </c>
+      <c r="R8" s="3">
+        <f t="shared" si="3"/>
+        <v>8.8161238526349966E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B9" s="5" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B10" t="s">
+      <c r="C9">
+        <v>0.35089941917398998</v>
+      </c>
+      <c r="D9">
+        <v>0.48382457894655501</v>
+      </c>
+      <c r="E9">
+        <v>0.35313945526324397</v>
+      </c>
+      <c r="F9">
+        <v>0.48186216745153698</v>
+      </c>
+      <c r="G9">
+        <v>0.45474529691989202</v>
+      </c>
+      <c r="H9" s="2">
+        <f t="shared" si="0"/>
+        <v>0.42489418355104364</v>
+      </c>
+      <c r="I9" s="3">
+        <f t="shared" si="1"/>
+        <v>6.7515179492076846E-2</v>
+      </c>
+      <c r="K9" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="L9" s="7">
+        <v>0.288437</v>
+      </c>
+      <c r="M9" s="7">
+        <v>0.288437</v>
+      </c>
+      <c r="N9">
+        <v>0.37916800000000001</v>
+      </c>
+      <c r="O9">
+        <v>0.26822200000000002</v>
+      </c>
+      <c r="P9">
+        <v>0.59482999999999997</v>
+      </c>
+      <c r="Q9" s="2">
+        <f t="shared" si="2"/>
+        <v>0.3638188</v>
+      </c>
+      <c r="R9" s="3">
+        <f t="shared" si="3"/>
+        <v>0.13611149122943292</v>
+      </c>
+    </row>
+    <row r="10" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B10" s="5" t="s">
         <v>11</v>
+      </c>
+      <c r="C10">
+        <v>0.62619657519159599</v>
+      </c>
+      <c r="D10">
+        <v>0.68161704932359002</v>
+      </c>
+      <c r="E10">
+        <v>0.62654137909720398</v>
+      </c>
+      <c r="F10">
+        <v>0.68558807148896195</v>
+      </c>
+      <c r="G10">
+        <v>0.70009279107988498</v>
+      </c>
+      <c r="H10" s="2">
+        <f t="shared" si="0"/>
+        <v>0.66400717323624736</v>
+      </c>
+      <c r="I10" s="3">
+        <f t="shared" si="1"/>
+        <v>3.5040482928057698E-2</v>
+      </c>
+      <c r="K10" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="L10" s="7">
+        <v>0.62669699999999995</v>
+      </c>
+      <c r="M10" s="7">
+        <v>0.62669699999999995</v>
+      </c>
+      <c r="N10">
+        <v>0.67423</v>
+      </c>
+      <c r="O10">
+        <v>0.61612100000000003</v>
+      </c>
+      <c r="P10">
+        <v>0.78185000000000004</v>
+      </c>
+      <c r="Q10" s="2">
+        <f t="shared" si="2"/>
+        <v>0.66511900000000002</v>
+      </c>
+      <c r="R10" s="3">
+        <f t="shared" si="3"/>
+        <v>6.9033399260792633E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B14" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="K14" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="L14" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="M14" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="N14" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="O14" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="P14" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q14" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="R14" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B15" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C15">
+        <v>10</v>
+      </c>
+      <c r="D15">
+        <v>55</v>
+      </c>
+      <c r="E15">
+        <v>192</v>
+      </c>
+      <c r="F15">
+        <v>599</v>
+      </c>
+      <c r="G15">
+        <v>2025</v>
+      </c>
+      <c r="K15" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="L15">
+        <v>10</v>
+      </c>
+      <c r="M15">
+        <v>55</v>
+      </c>
+      <c r="N15">
+        <v>192</v>
+      </c>
+      <c r="O15">
+        <v>599</v>
+      </c>
+      <c r="P15">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="16" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B16" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C16">
+        <v>0.76397767902697999</v>
+      </c>
+      <c r="D16">
+        <v>0.89494992198670098</v>
+      </c>
+      <c r="E16">
+        <v>0.76959657215544297</v>
+      </c>
+      <c r="F16">
+        <v>0.84459745826727095</v>
+      </c>
+      <c r="G16">
+        <v>0.82940092397729503</v>
+      </c>
+      <c r="H16" s="2">
+        <f>AVERAGE(C16:G16)</f>
+        <v>0.82050451108273792</v>
+      </c>
+      <c r="I16" s="3">
+        <f>_xlfn.STDEV.S(C16:G16)</f>
+        <v>5.4746315992886894E-2</v>
+      </c>
+      <c r="K16" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="L16">
+        <v>0.759849</v>
+      </c>
+      <c r="M16">
+        <v>0.87251699999999999</v>
+      </c>
+      <c r="N16">
+        <v>0.83834299999999995</v>
+      </c>
+      <c r="O16">
+        <v>0.61275000000000002</v>
+      </c>
+      <c r="P16">
+        <v>0.82624299999999995</v>
+      </c>
+      <c r="Q16" s="2">
+        <f>AVERAGE(L16:P16)</f>
+        <v>0.78194039999999998</v>
+      </c>
+      <c r="R16" s="3">
+        <f>_xlfn.STDEV.S(L16:P16)</f>
+        <v>0.1030309607923753</v>
+      </c>
+    </row>
+    <row r="17" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B17" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C17">
+        <v>0.54846387578809097</v>
+      </c>
+      <c r="D17">
+        <v>0.54182408383094105</v>
+      </c>
+      <c r="E17">
+        <v>0.56479949991342604</v>
+      </c>
+      <c r="F17">
+        <v>0.56043925808446404</v>
+      </c>
+      <c r="G17">
+        <v>0.55864915189198905</v>
+      </c>
+      <c r="H17" s="2">
+        <f t="shared" ref="H17:H21" si="4">AVERAGE(C17:G17)</f>
+        <v>0.55483517390178227</v>
+      </c>
+      <c r="I17" s="3">
+        <f t="shared" ref="I17:I21" si="5">_xlfn.STDEV.S(C17:G17)</f>
+        <v>9.422338947784617E-3</v>
+      </c>
+      <c r="K17" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="L17">
+        <v>0.55641799999999997</v>
+      </c>
+      <c r="M17">
+        <v>0.56196699999999999</v>
+      </c>
+      <c r="N17">
+        <v>0.56283399999999995</v>
+      </c>
+      <c r="O17">
+        <v>0.55020899999999995</v>
+      </c>
+      <c r="P17">
+        <v>0.55722000000000005</v>
+      </c>
+      <c r="Q17" s="2">
+        <f t="shared" ref="Q17:Q21" si="6">AVERAGE(L17:P17)</f>
+        <v>0.55772960000000005</v>
+      </c>
+      <c r="R17" s="3">
+        <f t="shared" ref="R17:R21" si="7">_xlfn.STDEV.S(L17:P17)</f>
+        <v>5.0633454652038168E-3</v>
+      </c>
+    </row>
+    <row r="18" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B18" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C18">
+        <v>0.69072082851804895</v>
+      </c>
+      <c r="D18">
+        <v>0.73719956141333998</v>
+      </c>
+      <c r="E18">
+        <v>0.68345818766521005</v>
+      </c>
+      <c r="F18">
+        <v>0.77474104064907701</v>
+      </c>
+      <c r="G18">
+        <v>0.70835118891489901</v>
+      </c>
+      <c r="H18" s="2">
+        <f t="shared" si="4"/>
+        <v>0.71889416143211504</v>
+      </c>
+      <c r="I18" s="3">
+        <f t="shared" si="5"/>
+        <v>3.7465186442018808E-2</v>
+      </c>
+      <c r="K18" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="L18">
+        <v>0.67853799999999997</v>
+      </c>
+      <c r="M18">
+        <v>0.81037700000000001</v>
+      </c>
+      <c r="N18">
+        <v>0.79403900000000005</v>
+      </c>
+      <c r="O18">
+        <v>0.66343799999999997</v>
+      </c>
+      <c r="P18">
+        <v>0.75534999999999997</v>
+      </c>
+      <c r="Q18" s="2">
+        <f t="shared" si="6"/>
+        <v>0.74034840000000002</v>
+      </c>
+      <c r="R18" s="3">
+        <f t="shared" si="7"/>
+        <v>6.6609812575175467E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B19" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C19">
+        <v>0.53849021792260399</v>
+      </c>
+      <c r="D19">
+        <v>0.41746142926857299</v>
+      </c>
+      <c r="E19">
+        <v>0.57867053816965197</v>
+      </c>
+      <c r="F19">
+        <v>0.54018585613148296</v>
+      </c>
+      <c r="G19">
+        <v>0.56088248577504596</v>
+      </c>
+      <c r="H19" s="2">
+        <f t="shared" si="4"/>
+        <v>0.52713810545347151</v>
+      </c>
+      <c r="I19" s="3">
+        <f t="shared" si="5"/>
+        <v>6.3486932472693366E-2</v>
+      </c>
+      <c r="K19" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="L19">
+        <v>0.56316900000000003</v>
+      </c>
+      <c r="M19">
+        <v>0.52424999999999999</v>
+      </c>
+      <c r="N19">
+        <v>0.539157</v>
+      </c>
+      <c r="O19">
+        <v>0.55290899999999998</v>
+      </c>
+      <c r="P19">
+        <v>0.53802700000000003</v>
+      </c>
+      <c r="Q19" s="2">
+        <f t="shared" si="6"/>
+        <v>0.54350240000000005</v>
+      </c>
+      <c r="R19" s="3">
+        <f t="shared" si="7"/>
+        <v>1.4956409087745634E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B20" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C20">
+        <v>0.784835791075156</v>
+      </c>
+      <c r="D20">
+        <v>0.531508691505163</v>
+      </c>
+      <c r="E20">
+        <v>0.853559826302977</v>
+      </c>
+      <c r="F20">
+        <v>0.75080249341467198</v>
+      </c>
+      <c r="G20">
+        <v>0.81422096528070298</v>
+      </c>
+      <c r="H20" s="2">
+        <f t="shared" si="4"/>
+        <v>0.74698555351573426</v>
+      </c>
+      <c r="I20" s="3">
+        <f t="shared" si="5"/>
+        <v>0.12624991464428159</v>
+      </c>
+      <c r="K20" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="L20">
+        <v>0.83327300000000004</v>
+      </c>
+      <c r="M20">
+        <v>0.710117</v>
+      </c>
+      <c r="N20">
+        <v>0.74182000000000003</v>
+      </c>
+      <c r="O20">
+        <v>0.82511400000000001</v>
+      </c>
+      <c r="P20">
+        <v>0.75470700000000002</v>
+      </c>
+      <c r="Q20" s="2">
+        <f t="shared" si="6"/>
+        <v>0.77300619999999998</v>
+      </c>
+      <c r="R20" s="3">
+        <f t="shared" si="7"/>
+        <v>5.3874393896358598E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B21" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C21">
+        <v>0.69072082851804895</v>
+      </c>
+      <c r="D21">
+        <v>0.73719956141333998</v>
+      </c>
+      <c r="E21">
+        <v>0.68345818766521005</v>
+      </c>
+      <c r="F21">
+        <v>0.77474104064907701</v>
+      </c>
+      <c r="G21">
+        <v>0.70835118891489901</v>
+      </c>
+      <c r="H21" s="2">
+        <f t="shared" si="4"/>
+        <v>0.71889416143211504</v>
+      </c>
+      <c r="I21" s="3">
+        <f t="shared" si="5"/>
+        <v>3.7465186442018808E-2</v>
+      </c>
+      <c r="K21" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="L21">
+        <v>0.67853799999999997</v>
+      </c>
+      <c r="M21">
+        <v>0.81037700000000001</v>
+      </c>
+      <c r="N21">
+        <v>0.79403900000000005</v>
+      </c>
+      <c r="O21">
+        <v>0.66343799999999997</v>
+      </c>
+      <c r="P21">
+        <v>0.75534999999999997</v>
+      </c>
+      <c r="Q21" s="2">
+        <f t="shared" si="6"/>
+        <v>0.74034840000000002</v>
+      </c>
+      <c r="R21" s="3">
+        <f t="shared" si="7"/>
+        <v>6.6609812575175467E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="L24" s="6"/>
+    </row>
+    <row r="25" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B25" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="K25" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="L25" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="M25" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="N25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="O25" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="P25" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q25" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="R25" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="26" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B26" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C26">
+        <v>10</v>
+      </c>
+      <c r="D26">
+        <v>55</v>
+      </c>
+      <c r="E26">
+        <v>192</v>
+      </c>
+      <c r="F26">
+        <v>599</v>
+      </c>
+      <c r="G26">
+        <v>2025</v>
+      </c>
+      <c r="K26" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="L26">
+        <v>10</v>
+      </c>
+      <c r="M26">
+        <v>55</v>
+      </c>
+      <c r="N26">
+        <v>192</v>
+      </c>
+      <c r="O26">
+        <v>599</v>
+      </c>
+      <c r="P26">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="27" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B27" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C27">
+        <v>0.79768888850715403</v>
+      </c>
+      <c r="D27">
+        <v>0.821631</v>
+      </c>
+      <c r="E27">
+        <v>0.77445399999999998</v>
+      </c>
+      <c r="F27">
+        <v>0.80576300000000001</v>
+      </c>
+      <c r="G27">
+        <v>0.76440699999999995</v>
+      </c>
+      <c r="H27" s="2">
+        <f>AVERAGE(C27:G27)</f>
+        <v>0.79278877770143086</v>
+      </c>
+      <c r="I27" s="3">
+        <f>_xlfn.STDEV.S(C27:G27)</f>
+        <v>2.3269640608180119E-2</v>
+      </c>
+      <c r="K27" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="L27">
+        <v>0.75704000000000005</v>
+      </c>
+      <c r="M27">
+        <v>0.86868999999999996</v>
+      </c>
+      <c r="N27">
+        <v>0.82915700000000003</v>
+      </c>
+      <c r="O27">
+        <v>0.60353900000000005</v>
+      </c>
+      <c r="P27">
+        <v>0.79465399999999997</v>
+      </c>
+      <c r="Q27" s="2">
+        <f>AVERAGE(L27:P27)</f>
+        <v>0.77061599999999997</v>
+      </c>
+      <c r="R27" s="3">
+        <f>_xlfn.STDEV.S(L27:P27)</f>
+        <v>0.10213032765295617</v>
+      </c>
+    </row>
+    <row r="28" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B28" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C28">
+        <v>0.57343949560382101</v>
+      </c>
+      <c r="D28">
+        <v>0.64106700000000005</v>
+      </c>
+      <c r="E28">
+        <v>0.56670399999999999</v>
+      </c>
+      <c r="F28">
+        <v>0.61696399999999996</v>
+      </c>
+      <c r="G28">
+        <v>0.55318400000000001</v>
+      </c>
+      <c r="H28" s="2">
+        <f t="shared" ref="H28:H32" si="8">AVERAGE(C28:G28)</f>
+        <v>0.59027169912076416</v>
+      </c>
+      <c r="I28" s="3">
+        <f t="shared" ref="I28:I32" si="9">_xlfn.STDEV.S(C28:G28)</f>
+        <v>3.7104239854748228E-2</v>
+      </c>
+      <c r="K28" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="L28">
+        <v>0.55766300000000002</v>
+      </c>
+      <c r="M28">
+        <v>0.55544499999999997</v>
+      </c>
+      <c r="N28">
+        <v>0.56550800000000001</v>
+      </c>
+      <c r="O28">
+        <v>0.54797099999999999</v>
+      </c>
+      <c r="P28">
+        <v>0.54568499999999998</v>
+      </c>
+      <c r="Q28" s="2">
+        <f t="shared" ref="Q28:Q32" si="10">AVERAGE(L28:P28)</f>
+        <v>0.55445440000000001</v>
+      </c>
+      <c r="R28" s="3">
+        <f t="shared" ref="R28:R32" si="11">_xlfn.STDEV.S(L28:P28)</f>
+        <v>7.9434773116060595E-3</v>
+      </c>
+    </row>
+    <row r="29" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B29" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C29">
+        <v>0.61593633051565699</v>
+      </c>
+      <c r="D29">
+        <v>0.66605000000000003</v>
+      </c>
+      <c r="E29">
+        <v>0.50692800000000005</v>
+      </c>
+      <c r="F29">
+        <v>0.653196</v>
+      </c>
+      <c r="G29">
+        <v>0.61156100000000002</v>
+      </c>
+      <c r="H29" s="2">
+        <f t="shared" si="8"/>
+        <v>0.61073426610313142</v>
+      </c>
+      <c r="I29" s="3">
+        <f t="shared" si="9"/>
+        <v>6.2582575664956605E-2</v>
+      </c>
+      <c r="K29" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="L29">
+        <v>0.68849899999999997</v>
+      </c>
+      <c r="M29">
+        <v>0.79379500000000003</v>
+      </c>
+      <c r="N29">
+        <v>0.71858699999999998</v>
+      </c>
+      <c r="O29">
+        <v>0.65750699999999995</v>
+      </c>
+      <c r="P29">
+        <v>0.69248399999999999</v>
+      </c>
+      <c r="Q29" s="2">
+        <f t="shared" si="10"/>
+        <v>0.71017439999999987</v>
+      </c>
+      <c r="R29" s="3">
+        <f t="shared" si="11"/>
+        <v>5.1526218625084476E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B30" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C30">
+        <v>0.58774163545358604</v>
+      </c>
+      <c r="D30">
+        <v>0.65228600000000003</v>
+      </c>
+      <c r="E30">
+        <v>0.50359399999999999</v>
+      </c>
+      <c r="F30">
+        <v>0.63192400000000004</v>
+      </c>
+      <c r="G30">
+        <v>0.56533699999999998</v>
+      </c>
+      <c r="H30" s="2">
+        <f t="shared" si="8"/>
+        <v>0.58817652709071733</v>
+      </c>
+      <c r="I30" s="3">
+        <f t="shared" si="9"/>
+        <v>5.8523292200990513E-2</v>
+      </c>
+      <c r="K30" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="L30">
+        <v>0.56365799999999999</v>
+      </c>
+      <c r="M30">
+        <v>0.498334</v>
+      </c>
+      <c r="N30">
+        <v>0.57426600000000005</v>
+      </c>
+      <c r="O30">
+        <v>0.54923500000000003</v>
+      </c>
+      <c r="P30">
+        <v>0.527837</v>
+      </c>
+      <c r="Q30" s="2">
+        <f t="shared" si="10"/>
+        <v>0.54266599999999998</v>
+      </c>
+      <c r="R30" s="3">
+        <f t="shared" si="11"/>
+        <v>3.0280361994203454E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B31" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C31">
+        <v>0.905977933604592</v>
+      </c>
+      <c r="D31">
+        <v>0.93326900000000002</v>
+      </c>
+      <c r="E31">
+        <v>0.95085699999999995</v>
+      </c>
+      <c r="F31">
+        <v>0.92500000000000004</v>
+      </c>
+      <c r="G31">
+        <v>0.87995299999999999</v>
+      </c>
+      <c r="H31" s="2">
+        <f t="shared" si="8"/>
+        <v>0.91901138672091842</v>
+      </c>
+      <c r="I31" s="3">
+        <f t="shared" si="9"/>
+        <v>2.7151033976256535E-2</v>
+      </c>
+      <c r="K31" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="L31">
+        <v>0.82868399999999998</v>
+      </c>
+      <c r="M31">
+        <v>0.66850200000000004</v>
+      </c>
+      <c r="N31">
+        <v>0.82979000000000003</v>
+      </c>
+      <c r="O31">
+        <v>0.82233400000000001</v>
+      </c>
+      <c r="P31">
+        <v>0.76419199999999998</v>
+      </c>
+      <c r="Q31" s="2">
+        <f t="shared" si="10"/>
+        <v>0.78270040000000007</v>
+      </c>
+      <c r="R31" s="3">
+        <f t="shared" si="11"/>
+        <v>6.9438065171777349E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B32" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C32">
+        <v>0.61593633051565699</v>
+      </c>
+      <c r="D32">
+        <v>0.66605000000000003</v>
+      </c>
+      <c r="E32">
+        <v>0.50692800000000005</v>
+      </c>
+      <c r="F32">
+        <v>0.653196</v>
+      </c>
+      <c r="G32">
+        <v>0.61156100000000002</v>
+      </c>
+      <c r="H32" s="2">
+        <f t="shared" si="8"/>
+        <v>0.61073426610313142</v>
+      </c>
+      <c r="I32" s="3">
+        <f t="shared" si="9"/>
+        <v>6.2582575664956605E-2</v>
+      </c>
+      <c r="K32" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="L32">
+        <v>0.68849899999999997</v>
+      </c>
+      <c r="M32">
+        <v>0.79379500000000003</v>
+      </c>
+      <c r="N32">
+        <v>0.71858699999999998</v>
+      </c>
+      <c r="O32">
+        <v>0.65750699999999995</v>
+      </c>
+      <c r="P32">
+        <v>0.69248399999999999</v>
+      </c>
+      <c r="Q32" s="2">
+        <f t="shared" si="10"/>
+        <v>0.71017439999999987</v>
+      </c>
+      <c r="R32" s="3">
+        <f t="shared" si="11"/>
+        <v>5.1526218625084476E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="11:18" x14ac:dyDescent="0.3">
+      <c r="K35" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="L35" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="M35" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="N35" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="O35" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="P35" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q35" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="R35" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="36" spans="11:18" x14ac:dyDescent="0.3">
+      <c r="K36" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="L36">
+        <v>10</v>
+      </c>
+      <c r="M36">
+        <v>55</v>
+      </c>
+      <c r="N36">
+        <v>192</v>
+      </c>
+      <c r="O36">
+        <v>599</v>
+      </c>
+      <c r="P36">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="37" spans="11:18" x14ac:dyDescent="0.3">
+      <c r="K37" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="L37">
+        <v>0.81428500000000004</v>
+      </c>
+      <c r="M37">
+        <v>0.82969899999999996</v>
+      </c>
+      <c r="N37">
+        <v>0.81411500000000003</v>
+      </c>
+      <c r="O37">
+        <v>0.83741399999999999</v>
+      </c>
+      <c r="P37">
+        <v>0.81238299999999997</v>
+      </c>
+      <c r="Q37" s="2">
+        <f>AVERAGE(L37:P37)</f>
+        <v>0.82157920000000006</v>
+      </c>
+      <c r="R37" s="3">
+        <f>_xlfn.STDEV.S(L37:P37)</f>
+        <v>1.1293380503640161E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="11:18" x14ac:dyDescent="0.3">
+      <c r="K38" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="L38">
+        <v>0.55006900000000003</v>
+      </c>
+      <c r="M38">
+        <v>0.532331</v>
+      </c>
+      <c r="N38">
+        <v>0.55262900000000004</v>
+      </c>
+      <c r="O38">
+        <v>0.56466700000000003</v>
+      </c>
+      <c r="P38">
+        <v>0.550064</v>
+      </c>
+      <c r="Q38" s="2">
+        <f t="shared" ref="Q38:Q42" si="12">AVERAGE(L38:P38)</f>
+        <v>0.549952</v>
+      </c>
+      <c r="R38" s="3">
+        <f t="shared" ref="R38:R42" si="13">_xlfn.STDEV.S(L38:P38)</f>
+        <v>1.1556636924295939E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="11:18" x14ac:dyDescent="0.3">
+      <c r="K39" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="L39">
+        <v>0.77086600000000005</v>
+      </c>
+      <c r="M39">
+        <v>0.67619499999999999</v>
+      </c>
+      <c r="N39">
+        <v>0.69496599999999997</v>
+      </c>
+      <c r="O39">
+        <v>0.797817</v>
+      </c>
+      <c r="P39">
+        <v>0.71852400000000005</v>
+      </c>
+      <c r="Q39" s="2">
+        <f t="shared" si="12"/>
+        <v>0.73167359999999992</v>
+      </c>
+      <c r="R39" s="3">
+        <f t="shared" si="13"/>
+        <v>5.1257264161287432E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="11:18" x14ac:dyDescent="0.3">
+      <c r="K40" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="L40">
+        <v>0.48235699999999998</v>
+      </c>
+      <c r="M40">
+        <v>0.36047000000000001</v>
+      </c>
+      <c r="N40">
+        <v>0.54929499999999998</v>
+      </c>
+      <c r="O40">
+        <v>0.54445299999999996</v>
+      </c>
+      <c r="P40">
+        <v>0.53027800000000003</v>
+      </c>
+      <c r="Q40" s="2">
+        <f t="shared" si="12"/>
+        <v>0.49337059999999999</v>
+      </c>
+      <c r="R40" s="3">
+        <f t="shared" si="13"/>
+        <v>7.8871691919852036E-2</v>
+      </c>
+    </row>
+    <row r="41" spans="11:18" x14ac:dyDescent="0.3">
+      <c r="K41" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="L41">
+        <v>0.64570700000000003</v>
+      </c>
+      <c r="M41">
+        <v>0.44076199999999999</v>
+      </c>
+      <c r="N41">
+        <v>0.801736</v>
+      </c>
+      <c r="O41">
+        <v>0.74944900000000003</v>
+      </c>
+      <c r="P41">
+        <v>0.75651199999999996</v>
+      </c>
+      <c r="Q41" s="2">
+        <f t="shared" si="12"/>
+        <v>0.67883320000000003</v>
+      </c>
+      <c r="R41" s="3">
+        <f t="shared" si="13"/>
+        <v>0.14482828351430505</v>
+      </c>
+    </row>
+    <row r="42" spans="11:18" x14ac:dyDescent="0.3">
+      <c r="K42" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="L42">
+        <v>0.77086600000000005</v>
+      </c>
+      <c r="M42">
+        <v>0.67619499999999999</v>
+      </c>
+      <c r="N42">
+        <v>0.69496599999999997</v>
+      </c>
+      <c r="O42">
+        <v>0.797817</v>
+      </c>
+      <c r="P42">
+        <v>0.71852400000000005</v>
+      </c>
+      <c r="Q42" s="2">
+        <f t="shared" si="12"/>
+        <v>0.73167359999999992</v>
+      </c>
+      <c r="R42" s="3">
+        <f t="shared" si="13"/>
+        <v>5.1257264161287432E-2</v>
       </c>
     </row>
   </sheetData>

--- a/hasil_testing.xlsx
+++ b/hasil_testing.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Asus TUF\Documents\code\TA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B9349B2-64D0-4C6F-82C6-FE0BACE82CC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEBA64AC-2B15-418D-9344-0E796A5BF0B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{68F7C41B-67C2-46E0-B3A4-4A9E152A0B76}"/>
   </bookViews>
@@ -124,7 +124,7 @@
       <family val="3"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -161,12 +161,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -190,7 +184,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -507,8 +501,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5DEA078-0F32-4873-B7D7-443F6BDAD598}">
   <dimension ref="B3:R42"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="118" zoomScaleNormal="118" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="136" zoomScaleNormal="118" workbookViewId="0">
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -639,7 +633,7 @@
         <v>0.64892499999999997</v>
       </c>
       <c r="M5" s="7">
-        <v>0.64892499999999997</v>
+        <v>0.847194</v>
       </c>
       <c r="N5">
         <v>0.78363499999999997</v>
@@ -652,11 +646,11 @@
       </c>
       <c r="Q5" s="2">
         <f>AVERAGE(L5:P5)</f>
-        <v>0.71678259999999994</v>
+        <v>0.75643640000000001</v>
       </c>
       <c r="R5" s="3">
         <f>_xlfn.STDEV.S(L5:P5)</f>
-        <v>0.1058268603843094</v>
+        <v>0.11106040880439752</v>
       </c>
     </row>
     <row r="6" spans="2:18" x14ac:dyDescent="0.3">
@@ -679,7 +673,7 @@
         <v>0.53640927678971595</v>
       </c>
       <c r="H6" s="2">
-        <f t="shared" ref="H6:H21" si="0">AVERAGE(C6:G6)</f>
+        <f t="shared" ref="H6:H10" si="0">AVERAGE(C6:G6)</f>
         <v>0.53074822148148182</v>
       </c>
       <c r="I6" s="3">
@@ -693,7 +687,7 @@
         <v>0.53040500000000002</v>
       </c>
       <c r="M6" s="7">
-        <v>0.53040500000000002</v>
+        <v>0.55853900000000001</v>
       </c>
       <c r="N6">
         <v>0.53455900000000001</v>
@@ -706,11 +700,11 @@
       </c>
       <c r="Q6" s="2">
         <f t="shared" ref="Q6:Q10" si="2">AVERAGE(L6:P6)</f>
-        <v>0.53503020000000012</v>
+        <v>0.54065700000000005</v>
       </c>
       <c r="R6" s="3">
         <f t="shared" ref="R6:R10" si="3">_xlfn.STDEV.S(L6:P6)</f>
-        <v>8.6818084348826638E-3</v>
+        <v>1.2985203136647487E-2</v>
       </c>
     </row>
     <row r="7" spans="2:18" x14ac:dyDescent="0.3">
@@ -747,7 +741,7 @@
         <v>0.62669699999999995</v>
       </c>
       <c r="M7" s="7">
-        <v>0.62669699999999995</v>
+        <v>0.78012400000000004</v>
       </c>
       <c r="N7">
         <v>0.67423</v>
@@ -760,11 +754,11 @@
       </c>
       <c r="Q7" s="2">
         <f t="shared" si="2"/>
-        <v>0.66511900000000002</v>
+        <v>0.69580439999999999</v>
       </c>
       <c r="R7" s="3">
         <f t="shared" si="3"/>
-        <v>6.9033399260792633E-2</v>
+        <v>8.0784237214322957E-2</v>
       </c>
     </row>
     <row r="8" spans="2:18" x14ac:dyDescent="0.3">
@@ -801,7 +795,7 @@
         <v>0.25997700000000001</v>
       </c>
       <c r="M8" s="7">
-        <v>0.25997700000000001</v>
+        <v>0.52890099999999995</v>
       </c>
       <c r="N8">
         <v>0.32350600000000002</v>
@@ -814,11 +808,11 @@
       </c>
       <c r="Q8" s="2">
         <f t="shared" si="2"/>
-        <v>0.30910100000000001</v>
+        <v>0.36288580000000004</v>
       </c>
       <c r="R8" s="3">
         <f t="shared" si="3"/>
-        <v>8.8161238526349966E-2</v>
+        <v>0.12502446258912689</v>
       </c>
     </row>
     <row r="9" spans="2:18" x14ac:dyDescent="0.3">
@@ -855,7 +849,7 @@
         <v>0.288437</v>
       </c>
       <c r="M9" s="7">
-        <v>0.288437</v>
+        <v>0.72899400000000003</v>
       </c>
       <c r="N9">
         <v>0.37916800000000001</v>
@@ -868,11 +862,11 @@
       </c>
       <c r="Q9" s="2">
         <f t="shared" si="2"/>
-        <v>0.3638188</v>
+        <v>0.45193019999999995</v>
       </c>
       <c r="R9" s="3">
         <f t="shared" si="3"/>
-        <v>0.13611149122943292</v>
+        <v>0.2018401403665783</v>
       </c>
     </row>
     <row r="10" spans="2:18" x14ac:dyDescent="0.3">
@@ -909,7 +903,7 @@
         <v>0.62669699999999995</v>
       </c>
       <c r="M10" s="7">
-        <v>0.62669699999999995</v>
+        <v>0.78012400000000004</v>
       </c>
       <c r="N10">
         <v>0.67423</v>
@@ -922,11 +916,11 @@
       </c>
       <c r="Q10" s="2">
         <f t="shared" si="2"/>
-        <v>0.66511900000000002</v>
+        <v>0.69580439999999999</v>
       </c>
       <c r="R10" s="3">
         <f t="shared" si="3"/>
-        <v>6.9033399260792633E-2</v>
+        <v>8.0784237214322957E-2</v>
       </c>
     </row>
     <row r="14" spans="2:18" x14ac:dyDescent="0.3">

--- a/hasil_testing.xlsx
+++ b/hasil_testing.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Asus TUF\Documents\code\TA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEBA64AC-2B15-418D-9344-0E796A5BF0B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{258D2BE9-F6A9-42C5-A7B8-DB0446FA3DCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{68F7C41B-67C2-46E0-B3A4-4A9E152A0B76}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="22">
   <si>
     <t>AUC</t>
   </si>
@@ -97,6 +97,9 @@
   </si>
   <si>
     <t>RF</t>
+  </si>
+  <si>
+    <t>new_MyMethod</t>
   </si>
 </sst>
 </file>
@@ -174,7 +177,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -184,7 +187,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -499,19 +501,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5DEA078-0F32-4873-B7D7-443F6BDAD598}">
-  <dimension ref="B3:R42"/>
+  <dimension ref="B3:AA42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="136" zoomScaleNormal="118" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+    <sheetView tabSelected="1" topLeftCell="O1" zoomScale="124" zoomScaleNormal="118" workbookViewId="0">
+      <selection activeCell="W9" sqref="W9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="9.109375" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B3" s="4" t="s">
         <v>12</v>
       </c>
@@ -560,8 +563,32 @@
       <c r="R3" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="4" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="T3" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="U3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="V3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="W3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="X3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="AA3" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B4" s="5" t="s">
         <v>6</v>
       </c>
@@ -598,8 +625,26 @@
       <c r="P4">
         <v>2025</v>
       </c>
-    </row>
-    <row r="5" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="T4" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="U4">
+        <v>10</v>
+      </c>
+      <c r="V4">
+        <v>55</v>
+      </c>
+      <c r="W4">
+        <v>192</v>
+      </c>
+      <c r="X4">
+        <v>599</v>
+      </c>
+      <c r="Y4">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="5" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B5" s="5" t="s">
         <v>0</v>
       </c>
@@ -629,10 +674,10 @@
       <c r="K5" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="L5" s="7">
+      <c r="L5">
         <v>0.64892499999999997</v>
       </c>
-      <c r="M5" s="7">
+      <c r="M5">
         <v>0.847194</v>
       </c>
       <c r="N5">
@@ -652,8 +697,34 @@
         <f>_xlfn.STDEV.S(L5:P5)</f>
         <v>0.11106040880439752</v>
       </c>
-    </row>
-    <row r="6" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="T5" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="U5">
+        <v>0.847194</v>
+      </c>
+      <c r="V5">
+        <v>0.69533699999999998</v>
+      </c>
+      <c r="W5">
+        <v>0.69731600000000005</v>
+      </c>
+      <c r="X5">
+        <v>0.74898299999999995</v>
+      </c>
+      <c r="Y5">
+        <v>0.69728199999999996</v>
+      </c>
+      <c r="Z5" s="2">
+        <f>AVERAGE(U5:Y5)</f>
+        <v>0.73722240000000006</v>
+      </c>
+      <c r="AA5" s="3">
+        <f>_xlfn.STDEV.S(U5:Y5)</f>
+        <v>6.552520042930049E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B6" s="5" t="s">
         <v>7</v>
       </c>
@@ -683,10 +754,10 @@
       <c r="K6" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="L6" s="7">
+      <c r="L6">
         <v>0.53040500000000002</v>
       </c>
-      <c r="M6" s="7">
+      <c r="M6">
         <v>0.55853900000000001</v>
       </c>
       <c r="N6">
@@ -706,8 +777,34 @@
         <f t="shared" ref="R6:R10" si="3">_xlfn.STDEV.S(L6:P6)</f>
         <v>1.2985203136647487E-2</v>
       </c>
-    </row>
-    <row r="7" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="T6" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="U6">
+        <v>0.55853900000000001</v>
+      </c>
+      <c r="V6">
+        <v>0.54743299999999995</v>
+      </c>
+      <c r="W6">
+        <v>0.55590899999999999</v>
+      </c>
+      <c r="X6">
+        <v>0.54552699999999998</v>
+      </c>
+      <c r="Y6">
+        <v>0.54114799999999996</v>
+      </c>
+      <c r="Z6" s="2">
+        <f t="shared" ref="Z6:Z10" si="4">AVERAGE(U6:Y6)</f>
+        <v>0.54971119999999996</v>
+      </c>
+      <c r="AA6" s="3">
+        <f t="shared" ref="AA6:AA10" si="5">_xlfn.STDEV.S(U6:Y6)</f>
+        <v>7.2864411203275529E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B7" s="5" t="s">
         <v>8</v>
       </c>
@@ -737,10 +834,10 @@
       <c r="K7" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="L7" s="7">
+      <c r="L7">
         <v>0.62669699999999995</v>
       </c>
-      <c r="M7" s="7">
+      <c r="M7">
         <v>0.78012400000000004</v>
       </c>
       <c r="N7">
@@ -760,8 +857,34 @@
         <f t="shared" si="3"/>
         <v>8.0784237214322957E-2</v>
       </c>
-    </row>
-    <row r="8" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="T7" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="U7">
+        <v>0.78012400000000004</v>
+      </c>
+      <c r="V7">
+        <v>0.69533699999999998</v>
+      </c>
+      <c r="W7">
+        <v>0.69720099999999996</v>
+      </c>
+      <c r="X7">
+        <v>0.74892000000000003</v>
+      </c>
+      <c r="Y7">
+        <v>0.69727300000000003</v>
+      </c>
+      <c r="Z7" s="2">
+        <f t="shared" si="4"/>
+        <v>0.72377099999999994</v>
+      </c>
+      <c r="AA7" s="3">
+        <f t="shared" si="5"/>
+        <v>3.8809580228340544E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B8" s="5" t="s">
         <v>9</v>
       </c>
@@ -791,10 +914,10 @@
       <c r="K8" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="L8" s="7">
+      <c r="L8">
         <v>0.25997700000000001</v>
       </c>
-      <c r="M8" s="7">
+      <c r="M8">
         <v>0.52890099999999995</v>
       </c>
       <c r="N8">
@@ -814,8 +937,34 @@
         <f t="shared" si="3"/>
         <v>0.12502446258912689</v>
       </c>
-    </row>
-    <row r="9" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="T8" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="U8">
+        <v>0.52890099999999995</v>
+      </c>
+      <c r="V8">
+        <v>0.53279399999999999</v>
+      </c>
+      <c r="W8">
+        <v>0.55724499999999999</v>
+      </c>
+      <c r="X8">
+        <v>0.47086899999999998</v>
+      </c>
+      <c r="Y8">
+        <v>0.50306499999999998</v>
+      </c>
+      <c r="Z8" s="2">
+        <f t="shared" si="4"/>
+        <v>0.51857479999999989</v>
+      </c>
+      <c r="AA8" s="3">
+        <f t="shared" si="5"/>
+        <v>3.2865626697204484E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B9" s="5" t="s">
         <v>10</v>
       </c>
@@ -845,10 +994,10 @@
       <c r="K9" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="L9" s="7">
+      <c r="L9">
         <v>0.288437</v>
       </c>
-      <c r="M9" s="7">
+      <c r="M9">
         <v>0.72899400000000003</v>
       </c>
       <c r="N9">
@@ -868,8 +1017,34 @@
         <f t="shared" si="3"/>
         <v>0.2018401403665783</v>
       </c>
-    </row>
-    <row r="10" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="T9" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="U9">
+        <v>0.72899400000000003</v>
+      </c>
+      <c r="V9">
+        <v>0.77207300000000001</v>
+      </c>
+      <c r="W9">
+        <v>0.81390799999999996</v>
+      </c>
+      <c r="X9">
+        <v>0.63049900000000003</v>
+      </c>
+      <c r="Y9">
+        <v>0.71348299999999998</v>
+      </c>
+      <c r="Z9" s="2">
+        <f t="shared" si="4"/>
+        <v>0.73179139999999998</v>
+      </c>
+      <c r="AA9" s="3">
+        <f t="shared" si="5"/>
+        <v>6.886384492097429E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B10" s="5" t="s">
         <v>11</v>
       </c>
@@ -899,10 +1074,10 @@
       <c r="K10" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="L10" s="7">
+      <c r="L10">
         <v>0.62669699999999995</v>
       </c>
-      <c r="M10" s="7">
+      <c r="M10">
         <v>0.78012400000000004</v>
       </c>
       <c r="N10">
@@ -922,8 +1097,34 @@
         <f t="shared" si="3"/>
         <v>8.0784237214322957E-2</v>
       </c>
-    </row>
-    <row r="14" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="T10" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="U10">
+        <v>0.78012400000000004</v>
+      </c>
+      <c r="V10">
+        <v>0.69533699999999998</v>
+      </c>
+      <c r="W10">
+        <v>0.69720099999999996</v>
+      </c>
+      <c r="X10">
+        <v>0.74892000000000003</v>
+      </c>
+      <c r="Y10">
+        <v>0.69727300000000003</v>
+      </c>
+      <c r="Z10" s="2">
+        <f t="shared" si="4"/>
+        <v>0.72377099999999994</v>
+      </c>
+      <c r="AA10" s="3">
+        <f t="shared" si="5"/>
+        <v>3.8809580228340544E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B14" s="4" t="s">
         <v>15</v>
       </c>
@@ -972,8 +1173,32 @@
       <c r="R14" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="15" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="T14" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="U14" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="V14" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="W14" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="X14" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y14" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z14" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="AA14" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B15" s="5" t="s">
         <v>6</v>
       </c>
@@ -1010,8 +1235,26 @@
       <c r="P15">
         <v>2025</v>
       </c>
-    </row>
-    <row r="16" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="T15" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="U15">
+        <v>10</v>
+      </c>
+      <c r="V15">
+        <v>55</v>
+      </c>
+      <c r="W15">
+        <v>192</v>
+      </c>
+      <c r="X15">
+        <v>599</v>
+      </c>
+      <c r="Y15">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="16" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B16" s="5" t="s">
         <v>0</v>
       </c>
@@ -1064,8 +1307,22 @@
         <f>_xlfn.STDEV.S(L16:P16)</f>
         <v>0.1030309607923753</v>
       </c>
-    </row>
-    <row r="17" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="T16" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="U16">
+        <v>0.66557599999999995</v>
+      </c>
+      <c r="V16">
+        <v>0.46071400000000001</v>
+      </c>
+      <c r="W16">
+        <v>0.63395500000000005</v>
+      </c>
+      <c r="Z16" s="2"/>
+      <c r="AA16" s="3"/>
+    </row>
+    <row r="17" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B17" s="5" t="s">
         <v>7</v>
       </c>
@@ -1085,11 +1342,11 @@
         <v>0.55864915189198905</v>
       </c>
       <c r="H17" s="2">
-        <f t="shared" ref="H17:H21" si="4">AVERAGE(C17:G17)</f>
+        <f t="shared" ref="H17:H21" si="6">AVERAGE(C17:G17)</f>
         <v>0.55483517390178227</v>
       </c>
       <c r="I17" s="3">
-        <f t="shared" ref="I17:I21" si="5">_xlfn.STDEV.S(C17:G17)</f>
+        <f t="shared" ref="I17:I21" si="7">_xlfn.STDEV.S(C17:G17)</f>
         <v>9.422338947784617E-3</v>
       </c>
       <c r="K17" s="5" t="s">
@@ -1111,15 +1368,29 @@
         <v>0.55722000000000005</v>
       </c>
       <c r="Q17" s="2">
-        <f t="shared" ref="Q17:Q21" si="6">AVERAGE(L17:P17)</f>
+        <f t="shared" ref="Q17:Q21" si="8">AVERAGE(L17:P17)</f>
         <v>0.55772960000000005</v>
       </c>
       <c r="R17" s="3">
-        <f t="shared" ref="R17:R21" si="7">_xlfn.STDEV.S(L17:P17)</f>
+        <f t="shared" ref="R17:R21" si="9">_xlfn.STDEV.S(L17:P17)</f>
         <v>5.0633454652038168E-3</v>
       </c>
-    </row>
-    <row r="18" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="T17" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="U17">
+        <v>0.51033200000000001</v>
+      </c>
+      <c r="V17">
+        <v>0.489541</v>
+      </c>
+      <c r="W17">
+        <v>0.52291200000000004</v>
+      </c>
+      <c r="Z17" s="2"/>
+      <c r="AA17" s="3"/>
+    </row>
+    <row r="18" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B18" s="5" t="s">
         <v>8</v>
       </c>
@@ -1139,11 +1410,11 @@
         <v>0.70835118891489901</v>
       </c>
       <c r="H18" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.71889416143211504</v>
       </c>
       <c r="I18" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>3.7465186442018808E-2</v>
       </c>
       <c r="K18" s="5" t="s">
@@ -1165,15 +1436,29 @@
         <v>0.75534999999999997</v>
       </c>
       <c r="Q18" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.74034840000000002</v>
       </c>
       <c r="R18" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>6.6609812575175467E-2</v>
       </c>
-    </row>
-    <row r="19" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="T18" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="U18">
+        <v>0.55042000000000002</v>
+      </c>
+      <c r="V18">
+        <v>0.477769</v>
+      </c>
+      <c r="W18">
+        <v>0.61938899999999997</v>
+      </c>
+      <c r="Z18" s="2"/>
+      <c r="AA18" s="3"/>
+    </row>
+    <row r="19" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B19" s="5" t="s">
         <v>9</v>
       </c>
@@ -1193,11 +1478,11 @@
         <v>0.56088248577504596</v>
       </c>
       <c r="H19" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.52713810545347151</v>
       </c>
       <c r="I19" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>6.3486932472693366E-2</v>
       </c>
       <c r="K19" s="5" t="s">
@@ -1219,15 +1504,29 @@
         <v>0.53802700000000003</v>
       </c>
       <c r="Q19" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.54350240000000005</v>
       </c>
       <c r="R19" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>1.4956409087745634E-2</v>
       </c>
-    </row>
-    <row r="20" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="T19" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="U19">
+        <v>0.28847</v>
+      </c>
+      <c r="V19">
+        <v>0.47983399999999998</v>
+      </c>
+      <c r="W19">
+        <v>0.326206</v>
+      </c>
+      <c r="Z19" s="2"/>
+      <c r="AA19" s="3"/>
+    </row>
+    <row r="20" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B20" s="5" t="s">
         <v>10</v>
       </c>
@@ -1247,11 +1546,11 @@
         <v>0.81422096528070298</v>
       </c>
       <c r="H20" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.74698555351573426</v>
       </c>
       <c r="I20" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.12624991464428159</v>
       </c>
       <c r="K20" s="5" t="s">
@@ -1273,15 +1572,29 @@
         <v>0.75470700000000002</v>
       </c>
       <c r="Q20" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.77300619999999998</v>
       </c>
       <c r="R20" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>5.3874393896358598E-2</v>
       </c>
-    </row>
-    <row r="21" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="T20" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="U20">
+        <v>0.33909299999999998</v>
+      </c>
+      <c r="V20">
+        <v>0.854966</v>
+      </c>
+      <c r="W20">
+        <v>0.39133299999999999</v>
+      </c>
+      <c r="Z20" s="2"/>
+      <c r="AA20" s="3"/>
+    </row>
+    <row r="21" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B21" s="5" t="s">
         <v>11</v>
       </c>
@@ -1301,11 +1614,11 @@
         <v>0.70835118891489901</v>
       </c>
       <c r="H21" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.71889416143211504</v>
       </c>
       <c r="I21" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>3.7465186442018808E-2</v>
       </c>
       <c r="K21" s="5" t="s">
@@ -1327,18 +1640,32 @@
         <v>0.75534999999999997</v>
       </c>
       <c r="Q21" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.74034840000000002</v>
       </c>
       <c r="R21" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>6.6609812575175467E-2</v>
       </c>
-    </row>
-    <row r="24" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="T21" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="U21">
+        <v>0.55042000000000002</v>
+      </c>
+      <c r="V21">
+        <v>0.477769</v>
+      </c>
+      <c r="W21">
+        <v>0.61938899999999997</v>
+      </c>
+      <c r="Z21" s="2"/>
+      <c r="AA21" s="3"/>
+    </row>
+    <row r="24" spans="2:27" x14ac:dyDescent="0.3">
       <c r="L24" s="6"/>
     </row>
-    <row r="25" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B25" s="4" t="s">
         <v>16</v>
       </c>
@@ -1388,7 +1715,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="26" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B26" s="5" t="s">
         <v>6</v>
       </c>
@@ -1426,7 +1753,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="27" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B27" s="5" t="s">
         <v>0</v>
       </c>
@@ -1480,7 +1807,7 @@
         <v>0.10213032765295617</v>
       </c>
     </row>
-    <row r="28" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B28" s="5" t="s">
         <v>7</v>
       </c>
@@ -1500,11 +1827,11 @@
         <v>0.55318400000000001</v>
       </c>
       <c r="H28" s="2">
-        <f t="shared" ref="H28:H32" si="8">AVERAGE(C28:G28)</f>
+        <f t="shared" ref="H28:H32" si="10">AVERAGE(C28:G28)</f>
         <v>0.59027169912076416</v>
       </c>
       <c r="I28" s="3">
-        <f t="shared" ref="I28:I32" si="9">_xlfn.STDEV.S(C28:G28)</f>
+        <f t="shared" ref="I28:I32" si="11">_xlfn.STDEV.S(C28:G28)</f>
         <v>3.7104239854748228E-2</v>
       </c>
       <c r="K28" s="5" t="s">
@@ -1526,15 +1853,15 @@
         <v>0.54568499999999998</v>
       </c>
       <c r="Q28" s="2">
-        <f t="shared" ref="Q28:Q32" si="10">AVERAGE(L28:P28)</f>
+        <f t="shared" ref="Q28:Q32" si="12">AVERAGE(L28:P28)</f>
         <v>0.55445440000000001</v>
       </c>
       <c r="R28" s="3">
-        <f t="shared" ref="R28:R32" si="11">_xlfn.STDEV.S(L28:P28)</f>
+        <f t="shared" ref="R28:R32" si="13">_xlfn.STDEV.S(L28:P28)</f>
         <v>7.9434773116060595E-3</v>
       </c>
     </row>
-    <row r="29" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B29" s="5" t="s">
         <v>8</v>
       </c>
@@ -1554,11 +1881,11 @@
         <v>0.61156100000000002</v>
       </c>
       <c r="H29" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0.61073426610313142</v>
       </c>
       <c r="I29" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>6.2582575664956605E-2</v>
       </c>
       <c r="K29" s="5" t="s">
@@ -1580,15 +1907,15 @@
         <v>0.69248399999999999</v>
       </c>
       <c r="Q29" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0.71017439999999987</v>
       </c>
       <c r="R29" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>5.1526218625084476E-2</v>
       </c>
     </row>
-    <row r="30" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B30" s="5" t="s">
         <v>9</v>
       </c>
@@ -1608,11 +1935,11 @@
         <v>0.56533699999999998</v>
       </c>
       <c r="H30" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0.58817652709071733</v>
       </c>
       <c r="I30" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>5.8523292200990513E-2</v>
       </c>
       <c r="K30" s="5" t="s">
@@ -1634,15 +1961,15 @@
         <v>0.527837</v>
       </c>
       <c r="Q30" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0.54266599999999998</v>
       </c>
       <c r="R30" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>3.0280361994203454E-2</v>
       </c>
     </row>
-    <row r="31" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B31" s="5" t="s">
         <v>10</v>
       </c>
@@ -1662,11 +1989,11 @@
         <v>0.87995299999999999</v>
       </c>
       <c r="H31" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0.91901138672091842</v>
       </c>
       <c r="I31" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>2.7151033976256535E-2</v>
       </c>
       <c r="K31" s="5" t="s">
@@ -1688,15 +2015,15 @@
         <v>0.76419199999999998</v>
       </c>
       <c r="Q31" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0.78270040000000007</v>
       </c>
       <c r="R31" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>6.9438065171777349E-2</v>
       </c>
     </row>
-    <row r="32" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B32" s="5" t="s">
         <v>11</v>
       </c>
@@ -1716,11 +2043,11 @@
         <v>0.61156100000000002</v>
       </c>
       <c r="H32" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0.61073426610313142</v>
       </c>
       <c r="I32" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>6.2582575664956605E-2</v>
       </c>
       <c r="K32" s="5" t="s">
@@ -1742,11 +2069,11 @@
         <v>0.69248399999999999</v>
       </c>
       <c r="Q32" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0.71017439999999987</v>
       </c>
       <c r="R32" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>5.1526218625084476E-2</v>
       </c>
     </row>
@@ -1844,11 +2171,11 @@
         <v>0.550064</v>
       </c>
       <c r="Q38" s="2">
-        <f t="shared" ref="Q38:Q42" si="12">AVERAGE(L38:P38)</f>
+        <f t="shared" ref="Q38:Q42" si="14">AVERAGE(L38:P38)</f>
         <v>0.549952</v>
       </c>
       <c r="R38" s="3">
-        <f t="shared" ref="R38:R42" si="13">_xlfn.STDEV.S(L38:P38)</f>
+        <f t="shared" ref="R38:R42" si="15">_xlfn.STDEV.S(L38:P38)</f>
         <v>1.1556636924295939E-2</v>
       </c>
     </row>
@@ -1872,11 +2199,11 @@
         <v>0.71852400000000005</v>
       </c>
       <c r="Q39" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0.73167359999999992</v>
       </c>
       <c r="R39" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>5.1257264161287432E-2</v>
       </c>
     </row>
@@ -1900,11 +2227,11 @@
         <v>0.53027800000000003</v>
       </c>
       <c r="Q40" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0.49337059999999999</v>
       </c>
       <c r="R40" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>7.8871691919852036E-2</v>
       </c>
     </row>
@@ -1928,11 +2255,11 @@
         <v>0.75651199999999996</v>
       </c>
       <c r="Q41" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0.67883320000000003</v>
       </c>
       <c r="R41" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0.14482828351430505</v>
       </c>
     </row>
@@ -1956,11 +2283,11 @@
         <v>0.71852400000000005</v>
       </c>
       <c r="Q42" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0.73167359999999992</v>
       </c>
       <c r="R42" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>5.1257264161287432E-2</v>
       </c>
     </row>

--- a/hasil_testing.xlsx
+++ b/hasil_testing.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Asus TUF\Documents\code\TA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{258D2BE9-F6A9-42C5-A7B8-DB0446FA3DCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1716A1E1-5ECD-479C-AE6B-627B5658A958}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{68F7C41B-67C2-46E0-B3A4-4A9E152A0B76}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="23">
   <si>
     <t>AUC</t>
   </si>
@@ -100,6 +100,9 @@
   </si>
   <si>
     <t>new_MyMethod</t>
+  </si>
+  <si>
+    <t>new_MyMethod + sigmoid</t>
   </si>
 </sst>
 </file>
@@ -501,10 +504,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5DEA078-0F32-4873-B7D7-443F6BDAD598}">
-  <dimension ref="B3:AA42"/>
+  <dimension ref="B3:AJ42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O1" zoomScale="124" zoomScaleNormal="118" workbookViewId="0">
-      <selection activeCell="W9" sqref="W9"/>
+    <sheetView tabSelected="1" topLeftCell="T1" zoomScale="117" zoomScaleNormal="118" workbookViewId="0">
+      <selection activeCell="AH12" sqref="AH12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -512,9 +515,10 @@
     <col min="2" max="2" width="9.109375" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="10.44140625" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="14.77734375" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="22.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:27" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:36" x14ac:dyDescent="0.3">
       <c r="B3" s="4" t="s">
         <v>12</v>
       </c>
@@ -587,8 +591,32 @@
       <c r="AA3" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="4" spans="2:27" x14ac:dyDescent="0.3">
+      <c r="AC3" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="AD3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="AF3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AG3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="AH3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AI3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="AJ3" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="2:36" x14ac:dyDescent="0.3">
       <c r="B4" s="5" t="s">
         <v>6</v>
       </c>
@@ -643,8 +671,26 @@
       <c r="Y4">
         <v>2025</v>
       </c>
-    </row>
-    <row r="5" spans="2:27" x14ac:dyDescent="0.3">
+      <c r="AC4" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="AD4">
+        <v>10</v>
+      </c>
+      <c r="AE4">
+        <v>55</v>
+      </c>
+      <c r="AF4">
+        <v>192</v>
+      </c>
+      <c r="AG4">
+        <v>599</v>
+      </c>
+      <c r="AH4">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="5" spans="2:36" x14ac:dyDescent="0.3">
       <c r="B5" s="5" t="s">
         <v>0</v>
       </c>
@@ -723,8 +769,34 @@
         <f>_xlfn.STDEV.S(U5:Y5)</f>
         <v>6.552520042930049E-2</v>
       </c>
-    </row>
-    <row r="6" spans="2:27" x14ac:dyDescent="0.3">
+      <c r="AC5" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD5">
+        <v>0.65674600000000005</v>
+      </c>
+      <c r="AE5">
+        <v>0.71656200000000003</v>
+      </c>
+      <c r="AF5">
+        <v>0.79139499999999996</v>
+      </c>
+      <c r="AG5">
+        <v>0.76292800000000005</v>
+      </c>
+      <c r="AH5">
+        <v>0.69871000000000005</v>
+      </c>
+      <c r="AI5" s="2">
+        <f>AVERAGE(AD5:AH5)</f>
+        <v>0.72526820000000014</v>
+      </c>
+      <c r="AJ5" s="3">
+        <f>_xlfn.STDEV.S(AD5:AH5)</f>
+        <v>5.3074103885039803E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="2:36" x14ac:dyDescent="0.3">
       <c r="B6" s="5" t="s">
         <v>7</v>
       </c>
@@ -803,8 +875,34 @@
         <f t="shared" ref="AA6:AA10" si="5">_xlfn.STDEV.S(U6:Y6)</f>
         <v>7.2864411203275529E-3</v>
       </c>
-    </row>
-    <row r="7" spans="2:27" x14ac:dyDescent="0.3">
+      <c r="AC6" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="AD6">
+        <v>0.53271199999999996</v>
+      </c>
+      <c r="AE6">
+        <v>0.55227000000000004</v>
+      </c>
+      <c r="AF6">
+        <v>0.52524400000000004</v>
+      </c>
+      <c r="AG6">
+        <v>0.54115599999999997</v>
+      </c>
+      <c r="AH6">
+        <v>0.54776199999999997</v>
+      </c>
+      <c r="AI6" s="2">
+        <f t="shared" ref="AI6:AI10" si="6">AVERAGE(AD6:AH6)</f>
+        <v>0.5398288</v>
+      </c>
+      <c r="AJ6" s="3">
+        <f t="shared" ref="AJ6:AJ10" si="7">_xlfn.STDEV.S(AD6:AH6)</f>
+        <v>1.0986876407787607E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="2:36" x14ac:dyDescent="0.3">
       <c r="B7" s="5" t="s">
         <v>8</v>
       </c>
@@ -883,8 +981,34 @@
         <f t="shared" si="5"/>
         <v>3.8809580228340544E-2</v>
       </c>
-    </row>
-    <row r="8" spans="2:27" x14ac:dyDescent="0.3">
+      <c r="AC7" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="AD7">
+        <v>0.65524400000000005</v>
+      </c>
+      <c r="AE7">
+        <v>0.70349799999999996</v>
+      </c>
+      <c r="AF7">
+        <v>0.55472999999999995</v>
+      </c>
+      <c r="AG7">
+        <v>0.73153199999999996</v>
+      </c>
+      <c r="AH7">
+        <v>0.69724600000000003</v>
+      </c>
+      <c r="AI7" s="2">
+        <f t="shared" si="6"/>
+        <v>0.66844999999999999</v>
+      </c>
+      <c r="AJ7" s="3">
+        <f t="shared" si="7"/>
+        <v>6.9180104582170165E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="2:36" x14ac:dyDescent="0.3">
       <c r="B8" s="5" t="s">
         <v>9</v>
       </c>
@@ -963,8 +1087,34 @@
         <f t="shared" si="5"/>
         <v>3.2865626697204484E-2</v>
       </c>
-    </row>
-    <row r="9" spans="2:27" x14ac:dyDescent="0.3">
+      <c r="AC8" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="AD8">
+        <v>0.29945500000000003</v>
+      </c>
+      <c r="AE8">
+        <v>0.54504399999999997</v>
+      </c>
+      <c r="AF8">
+        <v>0.14977699999999999</v>
+      </c>
+      <c r="AG8">
+        <v>0.399009</v>
+      </c>
+      <c r="AH8">
+        <v>0.53300499999999995</v>
+      </c>
+      <c r="AI8" s="2">
+        <f t="shared" si="6"/>
+        <v>0.38525799999999999</v>
+      </c>
+      <c r="AJ8" s="3">
+        <f t="shared" si="7"/>
+        <v>0.16610485240955505</v>
+      </c>
+    </row>
+    <row r="9" spans="2:36" x14ac:dyDescent="0.3">
       <c r="B9" s="5" t="s">
         <v>10</v>
       </c>
@@ -1043,8 +1193,34 @@
         <f t="shared" si="5"/>
         <v>6.886384492097429E-2</v>
       </c>
-    </row>
-    <row r="10" spans="2:27" x14ac:dyDescent="0.3">
+      <c r="AC9" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="AD9">
+        <v>0.34378199999999998</v>
+      </c>
+      <c r="AE9">
+        <v>0.79010999999999998</v>
+      </c>
+      <c r="AF9">
+        <v>0.152917</v>
+      </c>
+      <c r="AG9">
+        <v>0.49884699999999998</v>
+      </c>
+      <c r="AH9">
+        <v>0.77152500000000002</v>
+      </c>
+      <c r="AI9" s="2">
+        <f t="shared" si="6"/>
+        <v>0.51143620000000001</v>
+      </c>
+      <c r="AJ9" s="3">
+        <f t="shared" si="7"/>
+        <v>0.27482162678490213</v>
+      </c>
+    </row>
+    <row r="10" spans="2:36" x14ac:dyDescent="0.3">
       <c r="B10" s="5" t="s">
         <v>11</v>
       </c>
@@ -1123,8 +1299,34 @@
         <f t="shared" si="5"/>
         <v>3.8809580228340544E-2</v>
       </c>
-    </row>
-    <row r="14" spans="2:27" x14ac:dyDescent="0.3">
+      <c r="AC10" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="AD10">
+        <v>0.65524400000000005</v>
+      </c>
+      <c r="AE10">
+        <v>0.70349799999999996</v>
+      </c>
+      <c r="AF10">
+        <v>0.55472999999999995</v>
+      </c>
+      <c r="AG10">
+        <v>0.73153199999999996</v>
+      </c>
+      <c r="AH10">
+        <v>0.69724600000000003</v>
+      </c>
+      <c r="AI10" s="2">
+        <f t="shared" si="6"/>
+        <v>0.66844999999999999</v>
+      </c>
+      <c r="AJ10" s="3">
+        <f t="shared" si="7"/>
+        <v>6.9180104582170165E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="2:36" x14ac:dyDescent="0.3">
       <c r="B14" s="4" t="s">
         <v>15</v>
       </c>
@@ -1198,7 +1400,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="2:27" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:36" x14ac:dyDescent="0.3">
       <c r="B15" s="5" t="s">
         <v>6</v>
       </c>
@@ -1254,7 +1456,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="16" spans="2:27" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:36" x14ac:dyDescent="0.3">
       <c r="B16" s="5" t="s">
         <v>0</v>
       </c>
@@ -1342,11 +1544,11 @@
         <v>0.55864915189198905</v>
       </c>
       <c r="H17" s="2">
-        <f t="shared" ref="H17:H21" si="6">AVERAGE(C17:G17)</f>
+        <f t="shared" ref="H17:H21" si="8">AVERAGE(C17:G17)</f>
         <v>0.55483517390178227</v>
       </c>
       <c r="I17" s="3">
-        <f t="shared" ref="I17:I21" si="7">_xlfn.STDEV.S(C17:G17)</f>
+        <f t="shared" ref="I17:I21" si="9">_xlfn.STDEV.S(C17:G17)</f>
         <v>9.422338947784617E-3</v>
       </c>
       <c r="K17" s="5" t="s">
@@ -1368,11 +1570,11 @@
         <v>0.55722000000000005</v>
       </c>
       <c r="Q17" s="2">
-        <f t="shared" ref="Q17:Q21" si="8">AVERAGE(L17:P17)</f>
+        <f t="shared" ref="Q17:Q21" si="10">AVERAGE(L17:P17)</f>
         <v>0.55772960000000005</v>
       </c>
       <c r="R17" s="3">
-        <f t="shared" ref="R17:R21" si="9">_xlfn.STDEV.S(L17:P17)</f>
+        <f t="shared" ref="R17:R21" si="11">_xlfn.STDEV.S(L17:P17)</f>
         <v>5.0633454652038168E-3</v>
       </c>
       <c r="T17" s="5" t="s">
@@ -1410,11 +1612,11 @@
         <v>0.70835118891489901</v>
       </c>
       <c r="H18" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.71889416143211504</v>
       </c>
       <c r="I18" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>3.7465186442018808E-2</v>
       </c>
       <c r="K18" s="5" t="s">
@@ -1436,11 +1638,11 @@
         <v>0.75534999999999997</v>
       </c>
       <c r="Q18" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0.74034840000000002</v>
       </c>
       <c r="R18" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>6.6609812575175467E-2</v>
       </c>
       <c r="T18" s="5" t="s">
@@ -1478,11 +1680,11 @@
         <v>0.56088248577504596</v>
       </c>
       <c r="H19" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.52713810545347151</v>
       </c>
       <c r="I19" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>6.3486932472693366E-2</v>
       </c>
       <c r="K19" s="5" t="s">
@@ -1504,11 +1706,11 @@
         <v>0.53802700000000003</v>
       </c>
       <c r="Q19" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0.54350240000000005</v>
       </c>
       <c r="R19" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>1.4956409087745634E-2</v>
       </c>
       <c r="T19" s="5" t="s">
@@ -1546,11 +1748,11 @@
         <v>0.81422096528070298</v>
       </c>
       <c r="H20" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.74698555351573426</v>
       </c>
       <c r="I20" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.12624991464428159</v>
       </c>
       <c r="K20" s="5" t="s">
@@ -1572,11 +1774,11 @@
         <v>0.75470700000000002</v>
       </c>
       <c r="Q20" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0.77300619999999998</v>
       </c>
       <c r="R20" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>5.3874393896358598E-2</v>
       </c>
       <c r="T20" s="5" t="s">
@@ -1614,11 +1816,11 @@
         <v>0.70835118891489901</v>
       </c>
       <c r="H21" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.71889416143211504</v>
       </c>
       <c r="I21" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>3.7465186442018808E-2</v>
       </c>
       <c r="K21" s="5" t="s">
@@ -1640,11 +1842,11 @@
         <v>0.75534999999999997</v>
       </c>
       <c r="Q21" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0.74034840000000002</v>
       </c>
       <c r="R21" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>6.6609812575175467E-2</v>
       </c>
       <c r="T21" s="5" t="s">
@@ -1827,11 +2029,11 @@
         <v>0.55318400000000001</v>
       </c>
       <c r="H28" s="2">
-        <f t="shared" ref="H28:H32" si="10">AVERAGE(C28:G28)</f>
+        <f t="shared" ref="H28:H32" si="12">AVERAGE(C28:G28)</f>
         <v>0.59027169912076416</v>
       </c>
       <c r="I28" s="3">
-        <f t="shared" ref="I28:I32" si="11">_xlfn.STDEV.S(C28:G28)</f>
+        <f t="shared" ref="I28:I32" si="13">_xlfn.STDEV.S(C28:G28)</f>
         <v>3.7104239854748228E-2</v>
       </c>
       <c r="K28" s="5" t="s">
@@ -1853,11 +2055,11 @@
         <v>0.54568499999999998</v>
       </c>
       <c r="Q28" s="2">
-        <f t="shared" ref="Q28:Q32" si="12">AVERAGE(L28:P28)</f>
+        <f t="shared" ref="Q28:Q32" si="14">AVERAGE(L28:P28)</f>
         <v>0.55445440000000001</v>
       </c>
       <c r="R28" s="3">
-        <f t="shared" ref="R28:R32" si="13">_xlfn.STDEV.S(L28:P28)</f>
+        <f t="shared" ref="R28:R32" si="15">_xlfn.STDEV.S(L28:P28)</f>
         <v>7.9434773116060595E-3</v>
       </c>
     </row>
@@ -1881,11 +2083,11 @@
         <v>0.61156100000000002</v>
       </c>
       <c r="H29" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0.61073426610313142</v>
       </c>
       <c r="I29" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>6.2582575664956605E-2</v>
       </c>
       <c r="K29" s="5" t="s">
@@ -1907,11 +2109,11 @@
         <v>0.69248399999999999</v>
       </c>
       <c r="Q29" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0.71017439999999987</v>
       </c>
       <c r="R29" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>5.1526218625084476E-2</v>
       </c>
     </row>
@@ -1935,11 +2137,11 @@
         <v>0.56533699999999998</v>
       </c>
       <c r="H30" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0.58817652709071733</v>
       </c>
       <c r="I30" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>5.8523292200990513E-2</v>
       </c>
       <c r="K30" s="5" t="s">
@@ -1961,11 +2163,11 @@
         <v>0.527837</v>
       </c>
       <c r="Q30" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0.54266599999999998</v>
       </c>
       <c r="R30" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>3.0280361994203454E-2</v>
       </c>
     </row>
@@ -1989,11 +2191,11 @@
         <v>0.87995299999999999</v>
       </c>
       <c r="H31" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0.91901138672091842</v>
       </c>
       <c r="I31" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>2.7151033976256535E-2</v>
       </c>
       <c r="K31" s="5" t="s">
@@ -2015,11 +2217,11 @@
         <v>0.76419199999999998</v>
       </c>
       <c r="Q31" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0.78270040000000007</v>
       </c>
       <c r="R31" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>6.9438065171777349E-2</v>
       </c>
     </row>
@@ -2043,11 +2245,11 @@
         <v>0.61156100000000002</v>
       </c>
       <c r="H32" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0.61073426610313142</v>
       </c>
       <c r="I32" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>6.2582575664956605E-2</v>
       </c>
       <c r="K32" s="5" t="s">
@@ -2069,11 +2271,11 @@
         <v>0.69248399999999999</v>
       </c>
       <c r="Q32" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0.71017439999999987</v>
       </c>
       <c r="R32" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>5.1526218625084476E-2</v>
       </c>
     </row>
@@ -2171,11 +2373,11 @@
         <v>0.550064</v>
       </c>
       <c r="Q38" s="2">
-        <f t="shared" ref="Q38:Q42" si="14">AVERAGE(L38:P38)</f>
+        <f t="shared" ref="Q38:Q42" si="16">AVERAGE(L38:P38)</f>
         <v>0.549952</v>
       </c>
       <c r="R38" s="3">
-        <f t="shared" ref="R38:R42" si="15">_xlfn.STDEV.S(L38:P38)</f>
+        <f t="shared" ref="R38:R42" si="17">_xlfn.STDEV.S(L38:P38)</f>
         <v>1.1556636924295939E-2</v>
       </c>
     </row>
@@ -2199,11 +2401,11 @@
         <v>0.71852400000000005</v>
       </c>
       <c r="Q39" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0.73167359999999992</v>
       </c>
       <c r="R39" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>5.1257264161287432E-2</v>
       </c>
     </row>
@@ -2227,11 +2429,11 @@
         <v>0.53027800000000003</v>
       </c>
       <c r="Q40" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0.49337059999999999</v>
       </c>
       <c r="R40" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>7.8871691919852036E-2</v>
       </c>
     </row>
@@ -2255,11 +2457,11 @@
         <v>0.75651199999999996</v>
       </c>
       <c r="Q41" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0.67883320000000003</v>
       </c>
       <c r="R41" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0.14482828351430505</v>
       </c>
     </row>
@@ -2283,11 +2485,11 @@
         <v>0.71852400000000005</v>
       </c>
       <c r="Q42" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0.73167359999999992</v>
       </c>
       <c r="R42" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>5.1257264161287432E-2</v>
       </c>
     </row>

--- a/hasil_testing.xlsx
+++ b/hasil_testing.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Asus TUF\Documents\code\TA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Documents\code\TA\tugas-akhir-model-deteksi-tumpahan-minyakl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1716A1E1-5ECD-479C-AE6B-627B5658A958}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4610508A-029E-4086-A7AF-BC049027682C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{68F7C41B-67C2-46E0-B3A4-4A9E152A0B76}"/>
   </bookViews>
@@ -507,7 +507,7 @@
   <dimension ref="B3:AJ42"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="T1" zoomScale="117" zoomScaleNormal="118" workbookViewId="0">
-      <selection activeCell="AH12" sqref="AH12"/>
+      <selection activeCell="AC15" sqref="AC15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/hasil_testing.xlsx
+++ b/hasil_testing.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Asus TUF\Documents\code\TA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A63FD662-0D9C-47A8-B75F-9E5DDB20E170}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16C9AC9D-880A-4357-B4E7-2B5E22BB3D44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="1" activeTab="6" xr2:uid="{68F7C41B-67C2-46E0-B3A4-4A9E152A0B76}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="2" activeTab="10" xr2:uid="{68F7C41B-67C2-46E0-B3A4-4A9E152A0B76}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet Performance" sheetId="9" r:id="rId1"/>
@@ -1170,7 +1170,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -1182,9 +1182,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
@@ -1503,8 +1500,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{064430DB-F57D-446C-871E-1344530487E3}">
   <dimension ref="B3:V43"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" zoomScale="109" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="S18" sqref="S18"/>
+    <sheetView topLeftCell="B9" zoomScale="93" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="S28" sqref="S28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1588,7 +1585,7 @@
       <c r="B4" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C4" t="s">
         <v>89</v>
       </c>
       <c r="D4" t="s">
@@ -1606,13 +1603,13 @@
       <c r="H4" t="s">
         <v>67</v>
       </c>
-      <c r="I4" s="10" t="s">
+      <c r="I4" t="s">
         <v>78</v>
       </c>
       <c r="J4" t="s">
         <v>194</v>
       </c>
-      <c r="K4" s="13" t="s">
+      <c r="K4" s="10" t="s">
         <v>307</v>
       </c>
       <c r="M4" s="7" t="s">
@@ -1636,13 +1633,13 @@
       <c r="S4" t="s">
         <v>241</v>
       </c>
-      <c r="T4" s="11" t="s">
+      <c r="T4" t="s">
         <v>252</v>
       </c>
-      <c r="U4" s="10" t="s">
+      <c r="U4" t="s">
         <v>263</v>
       </c>
-      <c r="V4" s="13" t="s">
+      <c r="V4" s="10" t="s">
         <v>330</v>
       </c>
     </row>
@@ -1650,7 +1647,7 @@
       <c r="B5" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C5" t="s">
         <v>90</v>
       </c>
       <c r="D5" t="s">
@@ -1668,13 +1665,13 @@
       <c r="H5" t="s">
         <v>68</v>
       </c>
-      <c r="I5" s="10" t="s">
+      <c r="I5" t="s">
         <v>79</v>
       </c>
-      <c r="J5" s="10" t="s">
+      <c r="J5" t="s">
         <v>195</v>
       </c>
-      <c r="K5" s="13" t="s">
+      <c r="K5" s="10" t="s">
         <v>308</v>
       </c>
       <c r="M5" s="7" t="s">
@@ -1698,10 +1695,10 @@
       <c r="S5" s="8" t="s">
         <v>242</v>
       </c>
-      <c r="T5" s="10" t="s">
+      <c r="T5" t="s">
         <v>253</v>
       </c>
-      <c r="U5" s="12" t="s">
+      <c r="U5" s="9" t="s">
         <v>264</v>
       </c>
       <c r="V5" t="s">
@@ -1730,13 +1727,13 @@
       <c r="H6" t="s">
         <v>69</v>
       </c>
-      <c r="I6" s="10" t="s">
+      <c r="I6" t="s">
         <v>80</v>
       </c>
-      <c r="J6" s="10" t="s">
+      <c r="J6" t="s">
         <v>196</v>
       </c>
-      <c r="K6" s="12" t="s">
+      <c r="K6" s="9" t="s">
         <v>309</v>
       </c>
       <c r="M6" s="7" t="s">
@@ -1760,10 +1757,10 @@
       <c r="S6" s="8" t="s">
         <v>243</v>
       </c>
-      <c r="T6" s="12" t="s">
+      <c r="T6" s="9" t="s">
         <v>254</v>
       </c>
-      <c r="U6" s="10" t="s">
+      <c r="U6" t="s">
         <v>265</v>
       </c>
       <c r="V6" t="s">
@@ -1774,7 +1771,7 @@
       <c r="B7" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="C7" t="s">
         <v>92</v>
       </c>
       <c r="D7" t="s">
@@ -1792,13 +1789,13 @@
       <c r="H7" t="s">
         <v>70</v>
       </c>
-      <c r="I7" s="10" t="s">
+      <c r="I7" t="s">
         <v>81</v>
       </c>
-      <c r="J7" s="10" t="s">
+      <c r="J7" t="s">
         <v>197</v>
       </c>
-      <c r="K7" s="13" t="s">
+      <c r="K7" s="10" t="s">
         <v>310</v>
       </c>
       <c r="M7" s="7" t="s">
@@ -1822,10 +1819,10 @@
       <c r="S7" s="8" t="s">
         <v>244</v>
       </c>
-      <c r="T7" s="12" t="s">
+      <c r="T7" s="9" t="s">
         <v>255</v>
       </c>
-      <c r="U7" s="10" t="s">
+      <c r="U7" t="s">
         <v>266</v>
       </c>
       <c r="V7" t="s">
@@ -1836,7 +1833,7 @@
       <c r="B8" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="C8" s="9" t="s">
+      <c r="C8" t="s">
         <v>93</v>
       </c>
       <c r="D8" t="s">
@@ -1854,13 +1851,13 @@
       <c r="H8" t="s">
         <v>71</v>
       </c>
-      <c r="I8" s="10" t="s">
+      <c r="I8" t="s">
         <v>82</v>
       </c>
-      <c r="J8" s="10" t="s">
+      <c r="J8" t="s">
         <v>198</v>
       </c>
-      <c r="K8" s="13" t="s">
+      <c r="K8" s="10" t="s">
         <v>311</v>
       </c>
       <c r="M8" s="7" t="s">
@@ -1884,10 +1881,10 @@
       <c r="S8" s="8" t="s">
         <v>245</v>
       </c>
-      <c r="T8" s="12" t="s">
+      <c r="T8" s="9" t="s">
         <v>256</v>
       </c>
-      <c r="U8" s="10" t="s">
+      <c r="U8" t="s">
         <v>267</v>
       </c>
       <c r="V8" t="s">
@@ -1898,7 +1895,7 @@
       <c r="B9" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="C9" s="9" t="s">
+      <c r="C9" t="s">
         <v>94</v>
       </c>
       <c r="D9" t="s">
@@ -1916,13 +1913,13 @@
       <c r="H9" t="s">
         <v>72</v>
       </c>
-      <c r="I9" s="10" t="s">
+      <c r="I9" t="s">
         <v>83</v>
       </c>
-      <c r="J9" s="10" t="s">
+      <c r="J9" t="s">
         <v>199</v>
       </c>
-      <c r="K9" s="13" t="s">
+      <c r="K9" s="10" t="s">
         <v>312</v>
       </c>
       <c r="M9" s="7" t="s">
@@ -1946,13 +1943,13 @@
       <c r="S9" t="s">
         <v>246</v>
       </c>
-      <c r="T9" s="11" t="s">
+      <c r="T9" t="s">
         <v>257</v>
       </c>
-      <c r="U9" s="10" t="s">
+      <c r="U9" t="s">
         <v>268</v>
       </c>
-      <c r="V9" s="13" t="s">
+      <c r="V9" s="10" t="s">
         <v>335</v>
       </c>
     </row>
@@ -1972,19 +1969,19 @@
       <c r="F10" t="s">
         <v>49</v>
       </c>
-      <c r="G10" s="9" t="s">
+      <c r="G10" t="s">
         <v>62</v>
       </c>
       <c r="H10" t="s">
         <v>73</v>
       </c>
-      <c r="I10" s="10" t="s">
+      <c r="I10" t="s">
         <v>84</v>
       </c>
-      <c r="J10" s="10" t="s">
+      <c r="J10" t="s">
         <v>200</v>
       </c>
-      <c r="K10" s="13" t="s">
+      <c r="K10" s="10" t="s">
         <v>313</v>
       </c>
       <c r="M10" s="7" t="s">
@@ -2008,13 +2005,13 @@
       <c r="S10" t="s">
         <v>247</v>
       </c>
-      <c r="T10" s="11" t="s">
+      <c r="T10" t="s">
         <v>258</v>
       </c>
-      <c r="U10" s="10" t="s">
+      <c r="U10" t="s">
         <v>269</v>
       </c>
-      <c r="V10" s="13" t="s">
+      <c r="V10" s="10" t="s">
         <v>336</v>
       </c>
     </row>
@@ -2040,13 +2037,13 @@
       <c r="H11" t="s">
         <v>74</v>
       </c>
-      <c r="I11" s="10" t="s">
+      <c r="I11" t="s">
         <v>85</v>
       </c>
-      <c r="J11" s="10" t="s">
+      <c r="J11" t="s">
         <v>201</v>
       </c>
-      <c r="K11" s="12" t="s">
+      <c r="K11" s="9" t="s">
         <v>314</v>
       </c>
       <c r="M11" s="7" t="s">
@@ -2070,13 +2067,13 @@
       <c r="S11" t="s">
         <v>248</v>
       </c>
-      <c r="T11" s="11" t="s">
+      <c r="T11" t="s">
         <v>259</v>
       </c>
-      <c r="U11" s="10" t="s">
+      <c r="U11" t="s">
         <v>270</v>
       </c>
-      <c r="V11" s="13" t="s">
+      <c r="V11" s="10" t="s">
         <v>337</v>
       </c>
     </row>
@@ -2102,10 +2099,10 @@
       <c r="H12" t="s">
         <v>75</v>
       </c>
-      <c r="I12" s="13" t="s">
+      <c r="I12" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="J12" s="10" t="s">
+      <c r="J12" t="s">
         <v>202</v>
       </c>
       <c r="K12" t="s">
@@ -2132,13 +2129,13 @@
       <c r="S12" t="s">
         <v>249</v>
       </c>
-      <c r="T12" s="11" t="s">
+      <c r="T12" t="s">
         <v>260</v>
       </c>
-      <c r="U12" s="10" t="s">
+      <c r="U12" t="s">
         <v>271</v>
       </c>
-      <c r="V12" s="13" t="s">
+      <c r="V12" s="10" t="s">
         <v>338</v>
       </c>
     </row>
@@ -2164,13 +2161,13 @@
       <c r="H13" t="s">
         <v>76</v>
       </c>
-      <c r="I13" s="10" t="s">
+      <c r="I13" t="s">
         <v>87</v>
       </c>
-      <c r="J13" s="10" t="s">
+      <c r="J13" t="s">
         <v>203</v>
       </c>
-      <c r="K13" s="12" t="s">
+      <c r="K13" s="9" t="s">
         <v>316</v>
       </c>
       <c r="M13" s="7" t="s">
@@ -2188,19 +2185,19 @@
       <c r="Q13" t="s">
         <v>228</v>
       </c>
-      <c r="R13" s="9" t="s">
+      <c r="R13" t="s">
         <v>239</v>
       </c>
       <c r="S13" t="s">
         <v>250</v>
       </c>
-      <c r="T13" s="10" t="s">
+      <c r="T13" t="s">
         <v>261</v>
       </c>
-      <c r="U13" s="10" t="s">
+      <c r="U13" t="s">
         <v>272</v>
       </c>
-      <c r="V13" s="13" t="s">
+      <c r="V13" s="10" t="s">
         <v>339</v>
       </c>
     </row>
@@ -2208,7 +2205,7 @@
       <c r="B14" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="C14" s="9" t="s">
+      <c r="C14" t="s">
         <v>99</v>
       </c>
       <c r="D14" t="s">
@@ -2226,13 +2223,13 @@
       <c r="H14" t="s">
         <v>77</v>
       </c>
-      <c r="I14" s="10" t="s">
+      <c r="I14" t="s">
         <v>88</v>
       </c>
-      <c r="J14" s="10" t="s">
+      <c r="J14" t="s">
         <v>204</v>
       </c>
-      <c r="K14" s="13" t="s">
+      <c r="K14" s="10" t="s">
         <v>317</v>
       </c>
       <c r="M14" s="7" t="s">
@@ -2256,13 +2253,13 @@
       <c r="S14" t="s">
         <v>251</v>
       </c>
-      <c r="T14" s="11" t="s">
+      <c r="T14" t="s">
         <v>262</v>
       </c>
-      <c r="U14" s="10" t="s">
+      <c r="U14" t="s">
         <v>273</v>
       </c>
-      <c r="V14" s="13" t="s">
+      <c r="V14" s="10" t="s">
         <v>340</v>
       </c>
     </row>
@@ -2320,13 +2317,13 @@
       <c r="H18" t="s">
         <v>142</v>
       </c>
-      <c r="I18" s="10" t="s">
+      <c r="I18" t="s">
         <v>153</v>
       </c>
-      <c r="J18" s="10" t="s">
+      <c r="J18" t="s">
         <v>206</v>
       </c>
-      <c r="K18" s="12" t="s">
+      <c r="K18" s="9" t="s">
         <v>319</v>
       </c>
     </row>
@@ -2352,13 +2349,13 @@
       <c r="H19" s="8" t="s">
         <v>143</v>
       </c>
-      <c r="I19" s="10" t="s">
+      <c r="I19" t="s">
         <v>154</v>
       </c>
-      <c r="J19" s="10" t="s">
+      <c r="J19" t="s">
         <v>207</v>
       </c>
-      <c r="K19" s="12" t="s">
+      <c r="K19" s="9" t="s">
         <v>320</v>
       </c>
     </row>
@@ -2384,13 +2381,13 @@
       <c r="H20" t="s">
         <v>144</v>
       </c>
-      <c r="I20" s="11" t="s">
+      <c r="I20" t="s">
         <v>155</v>
       </c>
-      <c r="J20" s="10" t="s">
+      <c r="J20" t="s">
         <v>208</v>
       </c>
-      <c r="K20" s="13" t="s">
+      <c r="K20" s="10" t="s">
         <v>321</v>
       </c>
     </row>
@@ -2416,13 +2413,13 @@
       <c r="H21" t="s">
         <v>145</v>
       </c>
-      <c r="I21" s="11" t="s">
+      <c r="I21" t="s">
         <v>156</v>
       </c>
-      <c r="J21" s="10" t="s">
+      <c r="J21" t="s">
         <v>209</v>
       </c>
-      <c r="K21" s="13" t="s">
+      <c r="K21" s="10" t="s">
         <v>322</v>
       </c>
     </row>
@@ -2448,13 +2445,13 @@
       <c r="H22" t="s">
         <v>146</v>
       </c>
-      <c r="I22" s="11" t="s">
+      <c r="I22" t="s">
         <v>157</v>
       </c>
-      <c r="J22" s="10" t="s">
+      <c r="J22" t="s">
         <v>210</v>
       </c>
-      <c r="K22" s="13" t="s">
+      <c r="K22" s="10" t="s">
         <v>323</v>
       </c>
     </row>
@@ -2480,13 +2477,13 @@
       <c r="H23" t="s">
         <v>147</v>
       </c>
-      <c r="I23" s="10" t="s">
+      <c r="I23" t="s">
         <v>158</v>
       </c>
-      <c r="J23" s="10" t="s">
+      <c r="J23" t="s">
         <v>211</v>
       </c>
-      <c r="K23" s="12" t="s">
+      <c r="K23" s="9" t="s">
         <v>324</v>
       </c>
     </row>
@@ -2497,7 +2494,7 @@
       <c r="C24" t="s">
         <v>170</v>
       </c>
-      <c r="D24" s="9" t="s">
+      <c r="D24" t="s">
         <v>181</v>
       </c>
       <c r="E24" t="s">
@@ -2512,13 +2509,13 @@
       <c r="H24" t="s">
         <v>148</v>
       </c>
-      <c r="I24" s="10" t="s">
+      <c r="I24" t="s">
         <v>159</v>
       </c>
-      <c r="J24" s="10" t="s">
+      <c r="J24" t="s">
         <v>212</v>
       </c>
-      <c r="K24" s="13" t="s">
+      <c r="K24" s="10" t="s">
         <v>325</v>
       </c>
     </row>
@@ -2544,13 +2541,13 @@
       <c r="H25" t="s">
         <v>149</v>
       </c>
-      <c r="I25" s="10" t="s">
+      <c r="I25" t="s">
         <v>160</v>
       </c>
-      <c r="J25" s="10" t="s">
+      <c r="J25" t="s">
         <v>213</v>
       </c>
-      <c r="K25" s="12" t="s">
+      <c r="K25" s="9" t="s">
         <v>326</v>
       </c>
     </row>
@@ -2576,13 +2573,13 @@
       <c r="H26" t="s">
         <v>150</v>
       </c>
-      <c r="I26" s="10" t="s">
+      <c r="I26" t="s">
         <v>161</v>
       </c>
-      <c r="J26" s="10" t="s">
+      <c r="J26" t="s">
         <v>214</v>
       </c>
-      <c r="K26" s="13" t="s">
+      <c r="K26" s="10" t="s">
         <v>327</v>
       </c>
     </row>
@@ -2608,13 +2605,13 @@
       <c r="H27" t="s">
         <v>151</v>
       </c>
-      <c r="I27" s="10" t="s">
+      <c r="I27" t="s">
         <v>162</v>
       </c>
-      <c r="J27" s="10" t="s">
+      <c r="J27" t="s">
         <v>215</v>
       </c>
-      <c r="K27" s="12" t="s">
+      <c r="K27" s="9" t="s">
         <v>328</v>
       </c>
     </row>
@@ -2622,7 +2619,7 @@
       <c r="B28" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="C28" s="9" t="s">
+      <c r="C28" t="s">
         <v>174</v>
       </c>
       <c r="D28" t="s">
@@ -2640,13 +2637,13 @@
       <c r="H28" t="s">
         <v>152</v>
       </c>
-      <c r="I28" s="10" t="s">
+      <c r="I28" t="s">
         <v>163</v>
       </c>
-      <c r="J28" s="10" t="s">
+      <c r="J28" t="s">
         <v>216</v>
       </c>
-      <c r="K28" s="13" t="s">
+      <c r="K28" s="10" t="s">
         <v>329</v>
       </c>
     </row>
@@ -5968,8 +5965,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5DEA078-0F32-4873-B7D7-443F6BDAD598}">
   <dimension ref="B3:AJ42"/>
   <sheetViews>
-    <sheetView zoomScale="97" zoomScaleNormal="118" workbookViewId="0">
-      <selection activeCell="AE25" sqref="AE25"/>
+    <sheetView tabSelected="1" topLeftCell="W1" zoomScale="97" zoomScaleNormal="118" workbookViewId="0">
+      <selection activeCell="AJ18" sqref="AJ18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8162,7 +8159,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D52DD166-2779-45E8-809B-D0E3D601D5B9}">
   <dimension ref="B3:AL42"/>
   <sheetViews>
-    <sheetView topLeftCell="R1" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
+    <sheetView topLeftCell="O1" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
       <selection activeCell="AL4" sqref="AL4:AL14"/>
     </sheetView>
   </sheetViews>
@@ -23149,7 +23146,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F17344F-7929-404B-AB22-F5AC292CEE41}">
   <dimension ref="B3:AL42"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="P9" sqref="P9"/>
     </sheetView>
   </sheetViews>

--- a/hasil_testing.xlsx
+++ b/hasil_testing.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Asus TUF\Documents\code\TA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Documents\code\TA\tugas-akhir-model-deteksi-tumpahan-minyakl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16C9AC9D-880A-4357-B4E7-2B5E22BB3D44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{988FEF14-1BB3-46C9-AFBF-BA243F973B39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="2" activeTab="10" xr2:uid="{68F7C41B-67C2-46E0-B3A4-4A9E152A0B76}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="2" activeTab="7" xr2:uid="{68F7C41B-67C2-46E0-B3A4-4A9E152A0B76}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet Performance" sheetId="9" r:id="rId1"/>
@@ -20,10 +20,11 @@
     <sheet name="new_Myethod" sheetId="5" r:id="rId5"/>
     <sheet name="myMethod_256" sheetId="10" r:id="rId6"/>
     <sheet name="myMethod_512" sheetId="11" r:id="rId7"/>
-    <sheet name="LR" sheetId="6" r:id="rId8"/>
-    <sheet name="RF" sheetId="7" r:id="rId9"/>
-    <sheet name="SVM" sheetId="8" r:id="rId10"/>
-    <sheet name="old" sheetId="1" r:id="rId11"/>
+    <sheet name="myMethod_FULL" sheetId="12" r:id="rId8"/>
+    <sheet name="LR" sheetId="6" r:id="rId9"/>
+    <sheet name="RF" sheetId="7" r:id="rId10"/>
+    <sheet name="SVM" sheetId="8" r:id="rId11"/>
+    <sheet name="old" sheetId="1" r:id="rId12"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -44,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2152" uniqueCount="341">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2322" uniqueCount="341">
   <si>
     <t>AUC</t>
   </si>
@@ -1500,8 +1501,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{064430DB-F57D-446C-871E-1344530487E3}">
   <dimension ref="B3:V43"/>
   <sheetViews>
-    <sheetView topLeftCell="B9" zoomScale="93" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="S28" sqref="S28"/>
+    <sheetView topLeftCell="J1" zoomScale="93" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="M22" sqref="M22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2967,6 +2968,3001 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E507A6B0-20A8-4D23-8CE9-4D003BA9CAB1}">
+  <dimension ref="B3:AL42"/>
+  <sheetViews>
+    <sheetView topLeftCell="L7" zoomScale="86" workbookViewId="0">
+      <selection activeCell="AL14" sqref="AL4:AL14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="3" spans="2:38" x14ac:dyDescent="0.3">
+      <c r="B3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="K3" t="s">
+        <v>37</v>
+      </c>
+      <c r="L3" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="M3" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="N3" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="O3" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="P3" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q3" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="T3" t="s">
+        <v>0</v>
+      </c>
+      <c r="U3" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="V3" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="W3" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="X3" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y3" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z3" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA3" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB3" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="AD3" t="s">
+        <v>9</v>
+      </c>
+      <c r="AE3" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF3" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="AG3" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="AH3" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="AI3" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="AJ3" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="AK3" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="AL3" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4" spans="2:38" x14ac:dyDescent="0.3">
+      <c r="B4" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4">
+        <v>0.94520000000000004</v>
+      </c>
+      <c r="D4">
+        <v>0.59009999999999996</v>
+      </c>
+      <c r="E4">
+        <v>0.88590000000000002</v>
+      </c>
+      <c r="F4">
+        <v>0.61299999999999999</v>
+      </c>
+      <c r="G4">
+        <v>0.85640000000000005</v>
+      </c>
+      <c r="H4">
+        <v>0.88590000000000002</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="L4">
+        <v>0.95450000000000002</v>
+      </c>
+      <c r="M4">
+        <v>0.62560000000000004</v>
+      </c>
+      <c r="N4">
+        <v>0.86870000000000003</v>
+      </c>
+      <c r="O4">
+        <v>0.67279999999999995</v>
+      </c>
+      <c r="P4">
+        <v>0.91239999999999999</v>
+      </c>
+      <c r="Q4">
+        <v>0.86870000000000003</v>
+      </c>
+      <c r="T4" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="U4">
+        <f t="shared" ref="U4:U14" si="0">C4</f>
+        <v>0.94520000000000004</v>
+      </c>
+      <c r="V4">
+        <f t="shared" ref="V4:V14" si="1">C18</f>
+        <v>0.95840000000000003</v>
+      </c>
+      <c r="W4">
+        <f t="shared" ref="W4:W14" si="2">C32</f>
+        <v>0.93520000000000003</v>
+      </c>
+      <c r="X4">
+        <f t="shared" ref="X4:X14" si="3">L4</f>
+        <v>0.95450000000000002</v>
+      </c>
+      <c r="Y4">
+        <f t="shared" ref="Y4:Y14" si="4">L18</f>
+        <v>0.93820000000000003</v>
+      </c>
+      <c r="Z4" s="1">
+        <f>ROUND(AVERAGE(U4:Y4)*100,2)</f>
+        <v>94.63</v>
+      </c>
+      <c r="AA4" s="1">
+        <f>ROUND(_xlfn.STDEV.S(U4:Y4)*100,2)</f>
+        <v>1</v>
+      </c>
+      <c r="AB4" s="4" t="str">
+        <f>_xlfn.CONCAT(Z4,"±",AA4)</f>
+        <v>94,63±1</v>
+      </c>
+      <c r="AD4" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="AE4">
+        <f>F4</f>
+        <v>0.61299999999999999</v>
+      </c>
+      <c r="AF4">
+        <f>F18</f>
+        <v>0.65390000000000004</v>
+      </c>
+      <c r="AG4">
+        <f>F32</f>
+        <v>0.63800000000000001</v>
+      </c>
+      <c r="AH4">
+        <f>O4</f>
+        <v>0.67279999999999995</v>
+      </c>
+      <c r="AI4">
+        <f>O18</f>
+        <v>0.62180000000000002</v>
+      </c>
+      <c r="AJ4" s="1">
+        <f>ROUND(AVERAGE(AE4:AI4)*100,2)</f>
+        <v>63.99</v>
+      </c>
+      <c r="AK4" s="1">
+        <f>ROUND(_xlfn.STDEV.S(AE4:AI4)*100,2)</f>
+        <v>2.42</v>
+      </c>
+      <c r="AL4" s="4" t="str">
+        <f>_xlfn.CONCAT(AJ4,"±",AK4)</f>
+        <v>63,99±2,42</v>
+      </c>
+    </row>
+    <row r="5" spans="2:38" x14ac:dyDescent="0.3">
+      <c r="B5" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5">
+        <v>0.7833</v>
+      </c>
+      <c r="D5">
+        <v>0.50609999999999999</v>
+      </c>
+      <c r="E5">
+        <v>0.60699999999999998</v>
+      </c>
+      <c r="F5">
+        <v>0.18940000000000001</v>
+      </c>
+      <c r="G5">
+        <v>0.22289999999999999</v>
+      </c>
+      <c r="H5">
+        <v>0.60699999999999998</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="L5">
+        <v>0.87649999999999995</v>
+      </c>
+      <c r="M5">
+        <v>0.50639999999999996</v>
+      </c>
+      <c r="N5">
+        <v>0.62560000000000004</v>
+      </c>
+      <c r="O5">
+        <v>0.2165</v>
+      </c>
+      <c r="P5">
+        <v>0.26300000000000001</v>
+      </c>
+      <c r="Q5">
+        <v>0.62560000000000004</v>
+      </c>
+      <c r="T5" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="U5">
+        <f t="shared" si="0"/>
+        <v>0.7833</v>
+      </c>
+      <c r="V5">
+        <f t="shared" si="1"/>
+        <v>0.85550000000000004</v>
+      </c>
+      <c r="W5">
+        <f t="shared" si="2"/>
+        <v>0.81030000000000002</v>
+      </c>
+      <c r="X5">
+        <f t="shared" si="3"/>
+        <v>0.87649999999999995</v>
+      </c>
+      <c r="Y5">
+        <f t="shared" si="4"/>
+        <v>0.81840000000000002</v>
+      </c>
+      <c r="Z5" s="1">
+        <f t="shared" ref="Z5:Z14" si="5">ROUND(AVERAGE(U5:Y5)*100,2)</f>
+        <v>82.88</v>
+      </c>
+      <c r="AA5" s="1">
+        <f t="shared" ref="AA5:AA14" si="6">ROUND(_xlfn.STDEV.S(U5:Y5)*100,2)</f>
+        <v>3.71</v>
+      </c>
+      <c r="AB5" s="4" t="str">
+        <f t="shared" ref="AB5:AB14" si="7">_xlfn.CONCAT(Z5,"±",ROUND(AA5,2))</f>
+        <v>82,88±3,71</v>
+      </c>
+      <c r="AD5" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="AE5">
+        <f t="shared" ref="AE5:AE14" si="8">F5</f>
+        <v>0.18940000000000001</v>
+      </c>
+      <c r="AF5">
+        <f t="shared" ref="AF5:AF14" si="9">F19</f>
+        <v>0.23960000000000001</v>
+      </c>
+      <c r="AG5">
+        <f t="shared" ref="AG5:AG14" si="10">F33</f>
+        <v>0.2009</v>
+      </c>
+      <c r="AH5">
+        <f t="shared" ref="AH5:AH14" si="11">O5</f>
+        <v>0.2165</v>
+      </c>
+      <c r="AI5">
+        <f t="shared" ref="AI5:AI14" si="12">O19</f>
+        <v>0.187</v>
+      </c>
+      <c r="AJ5" s="1">
+        <f t="shared" ref="AJ5:AJ14" si="13">ROUND(AVERAGE(AE5:AI5)*100,2)</f>
+        <v>20.67</v>
+      </c>
+      <c r="AK5" s="1">
+        <f t="shared" ref="AK5:AK14" si="14">ROUND(_xlfn.STDEV.S(AE5:AI5)*100,2)</f>
+        <v>2.1800000000000002</v>
+      </c>
+      <c r="AL5" s="4" t="str">
+        <f t="shared" ref="AL5:AL14" si="15">_xlfn.CONCAT(AJ5,"±",ROUND(AK5,2))</f>
+        <v>20,67±2,18</v>
+      </c>
+    </row>
+    <row r="6" spans="2:38" x14ac:dyDescent="0.3">
+      <c r="B6" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6">
+        <v>0.96579999999999999</v>
+      </c>
+      <c r="D6">
+        <v>0.54749999999999999</v>
+      </c>
+      <c r="E6">
+        <v>0.79549999999999998</v>
+      </c>
+      <c r="F6">
+        <v>0.45839999999999997</v>
+      </c>
+      <c r="G6">
+        <v>0.60819999999999996</v>
+      </c>
+      <c r="H6">
+        <v>0.79549999999999998</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="L6">
+        <v>0.96760000000000002</v>
+      </c>
+      <c r="M6">
+        <v>0.56110000000000004</v>
+      </c>
+      <c r="N6">
+        <v>0.84430000000000005</v>
+      </c>
+      <c r="O6">
+        <v>0.51890000000000003</v>
+      </c>
+      <c r="P6">
+        <v>0.70679999999999998</v>
+      </c>
+      <c r="Q6">
+        <v>0.84430000000000005</v>
+      </c>
+      <c r="T6" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="U6">
+        <f t="shared" si="0"/>
+        <v>0.96579999999999999</v>
+      </c>
+      <c r="V6">
+        <f t="shared" si="1"/>
+        <v>0.94079999999999997</v>
+      </c>
+      <c r="W6">
+        <f t="shared" si="2"/>
+        <v>0.96330000000000005</v>
+      </c>
+      <c r="X6">
+        <f t="shared" si="3"/>
+        <v>0.96760000000000002</v>
+      </c>
+      <c r="Y6">
+        <f t="shared" si="4"/>
+        <v>0.97</v>
+      </c>
+      <c r="Z6" s="1">
+        <f t="shared" si="5"/>
+        <v>96.15</v>
+      </c>
+      <c r="AA6" s="1">
+        <f t="shared" si="6"/>
+        <v>1.18</v>
+      </c>
+      <c r="AB6" s="4" t="str">
+        <f t="shared" si="7"/>
+        <v>96,15±1,18</v>
+      </c>
+      <c r="AD6" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="AE6">
+        <f t="shared" si="8"/>
+        <v>0.45839999999999997</v>
+      </c>
+      <c r="AF6">
+        <f t="shared" si="9"/>
+        <v>0.40620000000000001</v>
+      </c>
+      <c r="AG6">
+        <f t="shared" si="10"/>
+        <v>0.5504</v>
+      </c>
+      <c r="AH6">
+        <f t="shared" si="11"/>
+        <v>0.51890000000000003</v>
+      </c>
+      <c r="AI6">
+        <f t="shared" si="12"/>
+        <v>0.51539999999999997</v>
+      </c>
+      <c r="AJ6" s="1">
+        <f t="shared" si="13"/>
+        <v>48.99</v>
+      </c>
+      <c r="AK6" s="1">
+        <f t="shared" si="14"/>
+        <v>5.73</v>
+      </c>
+      <c r="AL6" s="4" t="str">
+        <f t="shared" si="15"/>
+        <v>48,99±5,73</v>
+      </c>
+    </row>
+    <row r="7" spans="2:38" x14ac:dyDescent="0.3">
+      <c r="B7" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7">
+        <v>0.98219999999999996</v>
+      </c>
+      <c r="D7">
+        <v>0.56620000000000004</v>
+      </c>
+      <c r="E7">
+        <v>0.89100000000000001</v>
+      </c>
+      <c r="F7">
+        <v>0.55610000000000004</v>
+      </c>
+      <c r="G7">
+        <v>0.78979999999999995</v>
+      </c>
+      <c r="H7">
+        <v>0.89100000000000001</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="L7">
+        <v>0.98609999999999998</v>
+      </c>
+      <c r="M7">
+        <v>0.5958</v>
+      </c>
+      <c r="N7">
+        <v>0.92749999999999999</v>
+      </c>
+      <c r="O7">
+        <v>0.62350000000000005</v>
+      </c>
+      <c r="P7">
+        <v>0.86529999999999996</v>
+      </c>
+      <c r="Q7">
+        <v>0.92749999999999999</v>
+      </c>
+      <c r="T7" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="U7">
+        <f t="shared" si="0"/>
+        <v>0.98219999999999996</v>
+      </c>
+      <c r="V7">
+        <f t="shared" si="1"/>
+        <v>0.97540000000000004</v>
+      </c>
+      <c r="W7">
+        <f t="shared" si="2"/>
+        <v>0.98240000000000005</v>
+      </c>
+      <c r="X7">
+        <f t="shared" si="3"/>
+        <v>0.98609999999999998</v>
+      </c>
+      <c r="Y7">
+        <f t="shared" si="4"/>
+        <v>0.98399999999999999</v>
+      </c>
+      <c r="Z7" s="1">
+        <f t="shared" si="5"/>
+        <v>98.2</v>
+      </c>
+      <c r="AA7" s="1">
+        <f t="shared" si="6"/>
+        <v>0.4</v>
+      </c>
+      <c r="AB7" s="4" t="str">
+        <f t="shared" si="7"/>
+        <v>98,2±0,4</v>
+      </c>
+      <c r="AD7" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="AE7">
+        <f t="shared" si="8"/>
+        <v>0.55610000000000004</v>
+      </c>
+      <c r="AF7">
+        <f t="shared" si="9"/>
+        <v>0.5333</v>
+      </c>
+      <c r="AG7">
+        <f t="shared" si="10"/>
+        <v>0.64810000000000001</v>
+      </c>
+      <c r="AH7">
+        <f t="shared" si="11"/>
+        <v>0.62350000000000005</v>
+      </c>
+      <c r="AI7">
+        <f t="shared" si="12"/>
+        <v>0.60029999999999994</v>
+      </c>
+      <c r="AJ7" s="1">
+        <f t="shared" si="13"/>
+        <v>59.23</v>
+      </c>
+      <c r="AK7" s="1">
+        <f t="shared" si="14"/>
+        <v>4.7300000000000004</v>
+      </c>
+      <c r="AL7" s="4" t="str">
+        <f t="shared" si="15"/>
+        <v>59,23±4,73</v>
+      </c>
+    </row>
+    <row r="8" spans="2:38" x14ac:dyDescent="0.3">
+      <c r="B8" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8">
+        <v>0.94159999999999999</v>
+      </c>
+      <c r="D8">
+        <v>0.54210000000000003</v>
+      </c>
+      <c r="E8">
+        <v>0.76639999999999997</v>
+      </c>
+      <c r="F8">
+        <v>0.42659999999999998</v>
+      </c>
+      <c r="G8">
+        <v>0.55459999999999998</v>
+      </c>
+      <c r="H8">
+        <v>0.76639999999999997</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="L8">
+        <v>0.95669999999999999</v>
+      </c>
+      <c r="M8">
+        <v>0.55600000000000005</v>
+      </c>
+      <c r="N8">
+        <v>0.82699999999999996</v>
+      </c>
+      <c r="O8">
+        <v>0.50090000000000001</v>
+      </c>
+      <c r="P8">
+        <v>0.6794</v>
+      </c>
+      <c r="Q8">
+        <v>0.82699999999999996</v>
+      </c>
+      <c r="T8" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="U8">
+        <f t="shared" si="0"/>
+        <v>0.94159999999999999</v>
+      </c>
+      <c r="V8">
+        <f t="shared" si="1"/>
+        <v>0.89590000000000003</v>
+      </c>
+      <c r="W8">
+        <f t="shared" si="2"/>
+        <v>0.95399999999999996</v>
+      </c>
+      <c r="X8">
+        <f t="shared" si="3"/>
+        <v>0.95669999999999999</v>
+      </c>
+      <c r="Y8">
+        <f t="shared" si="4"/>
+        <v>0.95579999999999998</v>
+      </c>
+      <c r="Z8" s="1">
+        <f t="shared" si="5"/>
+        <v>94.08</v>
+      </c>
+      <c r="AA8" s="1">
+        <f t="shared" si="6"/>
+        <v>2.58</v>
+      </c>
+      <c r="AB8" s="4" t="str">
+        <f t="shared" si="7"/>
+        <v>94,08±2,58</v>
+      </c>
+      <c r="AD8" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="AE8">
+        <f t="shared" si="8"/>
+        <v>0.42659999999999998</v>
+      </c>
+      <c r="AF8">
+        <f t="shared" si="9"/>
+        <v>0.25490000000000002</v>
+      </c>
+      <c r="AG8">
+        <f t="shared" si="10"/>
+        <v>0.55310000000000004</v>
+      </c>
+      <c r="AH8">
+        <f t="shared" si="11"/>
+        <v>0.50090000000000001</v>
+      </c>
+      <c r="AI8">
+        <f t="shared" si="12"/>
+        <v>0.50649999999999995</v>
+      </c>
+      <c r="AJ8" s="1">
+        <f t="shared" si="13"/>
+        <v>44.84</v>
+      </c>
+      <c r="AK8" s="1">
+        <f t="shared" si="14"/>
+        <v>11.73</v>
+      </c>
+      <c r="AL8" s="4" t="str">
+        <f t="shared" si="15"/>
+        <v>44,84±11,73</v>
+      </c>
+    </row>
+    <row r="9" spans="2:38" x14ac:dyDescent="0.3">
+      <c r="B9" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9">
+        <v>0.97209999999999996</v>
+      </c>
+      <c r="D9">
+        <v>0.55700000000000005</v>
+      </c>
+      <c r="E9">
+        <v>0.85089999999999999</v>
+      </c>
+      <c r="F9">
+        <v>0.51519999999999999</v>
+      </c>
+      <c r="G9">
+        <v>0.71379999999999999</v>
+      </c>
+      <c r="H9">
+        <v>0.85089999999999999</v>
+      </c>
+      <c r="K9" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="L9">
+        <v>0.97060000000000002</v>
+      </c>
+      <c r="M9">
+        <v>0.58750000000000002</v>
+      </c>
+      <c r="N9">
+        <v>0.90469999999999995</v>
+      </c>
+      <c r="O9">
+        <v>0.60009999999999997</v>
+      </c>
+      <c r="P9">
+        <v>0.82840000000000003</v>
+      </c>
+      <c r="Q9">
+        <v>0.90469999999999995</v>
+      </c>
+      <c r="T9" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="U9">
+        <f t="shared" si="0"/>
+        <v>0.97209999999999996</v>
+      </c>
+      <c r="V9">
+        <f t="shared" si="1"/>
+        <v>0.94979999999999998</v>
+      </c>
+      <c r="W9">
+        <f t="shared" si="2"/>
+        <v>0.97389999999999999</v>
+      </c>
+      <c r="X9">
+        <f t="shared" si="3"/>
+        <v>0.97060000000000002</v>
+      </c>
+      <c r="Y9">
+        <f t="shared" si="4"/>
+        <v>0.9768</v>
+      </c>
+      <c r="Z9" s="1">
+        <f t="shared" si="5"/>
+        <v>96.86</v>
+      </c>
+      <c r="AA9" s="1">
+        <f t="shared" si="6"/>
+        <v>1.08</v>
+      </c>
+      <c r="AB9" s="4" t="str">
+        <f t="shared" si="7"/>
+        <v>96,86±1,08</v>
+      </c>
+      <c r="AD9" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE9">
+        <f t="shared" si="8"/>
+        <v>0.51519999999999999</v>
+      </c>
+      <c r="AF9">
+        <f t="shared" si="9"/>
+        <v>0.39600000000000002</v>
+      </c>
+      <c r="AG9">
+        <f t="shared" si="10"/>
+        <v>0.70730000000000004</v>
+      </c>
+      <c r="AH9">
+        <f t="shared" si="11"/>
+        <v>0.60009999999999997</v>
+      </c>
+      <c r="AI9">
+        <f t="shared" si="12"/>
+        <v>0.62629999999999997</v>
+      </c>
+      <c r="AJ9" s="1">
+        <f t="shared" si="13"/>
+        <v>56.9</v>
+      </c>
+      <c r="AK9" s="1">
+        <f t="shared" si="14"/>
+        <v>11.85</v>
+      </c>
+      <c r="AL9" s="4" t="str">
+        <f t="shared" si="15"/>
+        <v>56,9±11,85</v>
+      </c>
+    </row>
+    <row r="10" spans="2:38" x14ac:dyDescent="0.3">
+      <c r="B10" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10">
+        <v>0.91259999999999997</v>
+      </c>
+      <c r="D10">
+        <v>0.55869999999999997</v>
+      </c>
+      <c r="E10">
+        <v>0.61560000000000004</v>
+      </c>
+      <c r="F10">
+        <v>0.30430000000000001</v>
+      </c>
+      <c r="G10">
+        <v>0.315</v>
+      </c>
+      <c r="H10">
+        <v>0.61560000000000004</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="L10">
+        <v>0.91610000000000003</v>
+      </c>
+      <c r="M10">
+        <v>0.58740000000000003</v>
+      </c>
+      <c r="N10">
+        <v>0.75029999999999997</v>
+      </c>
+      <c r="O10">
+        <v>0.50460000000000005</v>
+      </c>
+      <c r="P10">
+        <v>0.58309999999999995</v>
+      </c>
+      <c r="Q10">
+        <v>0.75029999999999997</v>
+      </c>
+      <c r="T10" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="U10">
+        <f t="shared" si="0"/>
+        <v>0.91259999999999997</v>
+      </c>
+      <c r="V10">
+        <f t="shared" si="1"/>
+        <v>0.88460000000000005</v>
+      </c>
+      <c r="W10">
+        <f t="shared" si="2"/>
+        <v>0.91779999999999995</v>
+      </c>
+      <c r="X10">
+        <f t="shared" si="3"/>
+        <v>0.91610000000000003</v>
+      </c>
+      <c r="Y10">
+        <f t="shared" si="4"/>
+        <v>0.92120000000000002</v>
+      </c>
+      <c r="Z10" s="1">
+        <f t="shared" si="5"/>
+        <v>91.05</v>
+      </c>
+      <c r="AA10" s="1">
+        <f t="shared" si="6"/>
+        <v>1.48</v>
+      </c>
+      <c r="AB10" s="4" t="str">
+        <f t="shared" si="7"/>
+        <v>91,05±1,48</v>
+      </c>
+      <c r="AD10" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE10">
+        <f t="shared" si="8"/>
+        <v>0.30430000000000001</v>
+      </c>
+      <c r="AF10">
+        <f t="shared" si="9"/>
+        <v>8.8200000000000001E-2</v>
+      </c>
+      <c r="AG10">
+        <f t="shared" si="10"/>
+        <v>0.67249999999999999</v>
+      </c>
+      <c r="AH10">
+        <f t="shared" si="11"/>
+        <v>0.50460000000000005</v>
+      </c>
+      <c r="AI10">
+        <f t="shared" si="12"/>
+        <v>0.77510000000000001</v>
+      </c>
+      <c r="AJ10" s="1">
+        <f t="shared" si="13"/>
+        <v>46.89</v>
+      </c>
+      <c r="AK10" s="1">
+        <f t="shared" si="14"/>
+        <v>27.77</v>
+      </c>
+      <c r="AL10" s="4" t="str">
+        <f t="shared" si="15"/>
+        <v>46,89±27,77</v>
+      </c>
+    </row>
+    <row r="11" spans="2:38" x14ac:dyDescent="0.3">
+      <c r="B11" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11">
+        <v>0.97819999999999996</v>
+      </c>
+      <c r="D11">
+        <v>0.53620000000000001</v>
+      </c>
+      <c r="E11">
+        <v>0.66390000000000005</v>
+      </c>
+      <c r="F11">
+        <v>0.31809999999999999</v>
+      </c>
+      <c r="G11">
+        <v>0.36649999999999999</v>
+      </c>
+      <c r="H11">
+        <v>0.66390000000000005</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L11">
+        <v>0.97389999999999999</v>
+      </c>
+      <c r="M11">
+        <v>0.57579999999999998</v>
+      </c>
+      <c r="N11">
+        <v>0.84909999999999997</v>
+      </c>
+      <c r="O11">
+        <v>0.54649999999999999</v>
+      </c>
+      <c r="P11">
+        <v>0.72240000000000004</v>
+      </c>
+      <c r="Q11">
+        <v>0.84909999999999997</v>
+      </c>
+      <c r="T11" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="U11">
+        <f t="shared" si="0"/>
+        <v>0.97819999999999996</v>
+      </c>
+      <c r="V11">
+        <f t="shared" si="1"/>
+        <v>0.95130000000000003</v>
+      </c>
+      <c r="W11">
+        <f t="shared" si="2"/>
+        <v>0.97360000000000002</v>
+      </c>
+      <c r="X11">
+        <f t="shared" si="3"/>
+        <v>0.97389999999999999</v>
+      </c>
+      <c r="Y11">
+        <f t="shared" si="4"/>
+        <v>0.98229999999999995</v>
+      </c>
+      <c r="Z11" s="1">
+        <f t="shared" si="5"/>
+        <v>97.19</v>
+      </c>
+      <c r="AA11" s="1">
+        <f t="shared" si="6"/>
+        <v>1.2</v>
+      </c>
+      <c r="AB11" s="4" t="str">
+        <f t="shared" si="7"/>
+        <v>97,19±1,2</v>
+      </c>
+      <c r="AD11" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="AE11">
+        <f t="shared" si="8"/>
+        <v>0.31809999999999999</v>
+      </c>
+      <c r="AF11">
+        <f t="shared" si="9"/>
+        <v>4.7899999999999998E-2</v>
+      </c>
+      <c r="AG11">
+        <f t="shared" si="10"/>
+        <v>0.70899999999999996</v>
+      </c>
+      <c r="AH11">
+        <f t="shared" si="11"/>
+        <v>0.54649999999999999</v>
+      </c>
+      <c r="AI11">
+        <f t="shared" si="12"/>
+        <v>0.81599999999999995</v>
+      </c>
+      <c r="AJ11" s="1">
+        <f t="shared" si="13"/>
+        <v>48.75</v>
+      </c>
+      <c r="AK11" s="1">
+        <f t="shared" si="14"/>
+        <v>30.92</v>
+      </c>
+      <c r="AL11" s="4" t="str">
+        <f t="shared" si="15"/>
+        <v>48,75±30,92</v>
+      </c>
+    </row>
+    <row r="12" spans="2:38" x14ac:dyDescent="0.3">
+      <c r="B12" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C12">
+        <v>0.85719999999999996</v>
+      </c>
+      <c r="D12">
+        <v>0.55740000000000001</v>
+      </c>
+      <c r="E12">
+        <v>0.67369999999999997</v>
+      </c>
+      <c r="F12">
+        <v>0.39650000000000002</v>
+      </c>
+      <c r="G12">
+        <v>0.44600000000000001</v>
+      </c>
+      <c r="H12">
+        <v>0.67369999999999997</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="L12">
+        <v>0.84989999999999999</v>
+      </c>
+      <c r="M12">
+        <v>0.62319999999999998</v>
+      </c>
+      <c r="N12">
+        <v>0.76900000000000002</v>
+      </c>
+      <c r="O12">
+        <v>0.64670000000000005</v>
+      </c>
+      <c r="P12">
+        <v>0.82069999999999999</v>
+      </c>
+      <c r="Q12">
+        <v>0.76900000000000002</v>
+      </c>
+      <c r="T12" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="U12">
+        <f t="shared" si="0"/>
+        <v>0.85719999999999996</v>
+      </c>
+      <c r="V12">
+        <f t="shared" si="1"/>
+        <v>0.83189999999999997</v>
+      </c>
+      <c r="W12">
+        <f t="shared" si="2"/>
+        <v>0.84930000000000005</v>
+      </c>
+      <c r="X12">
+        <f t="shared" si="3"/>
+        <v>0.84989999999999999</v>
+      </c>
+      <c r="Y12">
+        <f t="shared" si="4"/>
+        <v>0.85719999999999996</v>
+      </c>
+      <c r="Z12" s="1">
+        <f t="shared" si="5"/>
+        <v>84.91</v>
+      </c>
+      <c r="AA12" s="1">
+        <f t="shared" si="6"/>
+        <v>1.03</v>
+      </c>
+      <c r="AB12" s="4" t="str">
+        <f t="shared" si="7"/>
+        <v>84,91±1,03</v>
+      </c>
+      <c r="AD12" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="AE12">
+        <f t="shared" si="8"/>
+        <v>0.39650000000000002</v>
+      </c>
+      <c r="AF12">
+        <f t="shared" si="9"/>
+        <v>7.7899999999999997E-2</v>
+      </c>
+      <c r="AG12">
+        <f t="shared" si="10"/>
+        <v>0.50800000000000001</v>
+      </c>
+      <c r="AH12">
+        <f t="shared" si="11"/>
+        <v>0.64670000000000005</v>
+      </c>
+      <c r="AI12">
+        <f t="shared" si="12"/>
+        <v>0.55189999999999995</v>
+      </c>
+      <c r="AJ12" s="1">
+        <f t="shared" si="13"/>
+        <v>43.62</v>
+      </c>
+      <c r="AK12" s="1">
+        <f t="shared" si="14"/>
+        <v>21.95</v>
+      </c>
+      <c r="AL12" s="4" t="str">
+        <f t="shared" si="15"/>
+        <v>43,62±21,95</v>
+      </c>
+    </row>
+    <row r="13" spans="2:38" x14ac:dyDescent="0.3">
+      <c r="B13" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C13">
+        <v>0.98019999999999996</v>
+      </c>
+      <c r="D13">
+        <v>0.85719999999999996</v>
+      </c>
+      <c r="E13">
+        <v>0.79859999999999998</v>
+      </c>
+      <c r="F13">
+        <v>0.82489999999999997</v>
+      </c>
+      <c r="G13">
+        <v>0.96260000000000001</v>
+      </c>
+      <c r="H13">
+        <v>0.79859999999999998</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="L13">
+        <v>0.97599999999999998</v>
+      </c>
+      <c r="M13">
+        <v>0.87050000000000005</v>
+      </c>
+      <c r="N13">
+        <v>0.7248</v>
+      </c>
+      <c r="O13">
+        <v>0.77710000000000001</v>
+      </c>
+      <c r="P13">
+        <v>0.95820000000000005</v>
+      </c>
+      <c r="Q13">
+        <v>0.7248</v>
+      </c>
+      <c r="T13" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="U13">
+        <f t="shared" si="0"/>
+        <v>0.98019999999999996</v>
+      </c>
+      <c r="V13">
+        <f t="shared" si="1"/>
+        <v>0.97260000000000002</v>
+      </c>
+      <c r="W13">
+        <f t="shared" si="2"/>
+        <v>0.97560000000000002</v>
+      </c>
+      <c r="X13">
+        <f t="shared" si="3"/>
+        <v>0.97599999999999998</v>
+      </c>
+      <c r="Y13">
+        <f t="shared" si="4"/>
+        <v>0.98170000000000002</v>
+      </c>
+      <c r="Z13" s="1">
+        <f t="shared" si="5"/>
+        <v>97.72</v>
+      </c>
+      <c r="AA13" s="1">
+        <f t="shared" si="6"/>
+        <v>0.37</v>
+      </c>
+      <c r="AB13" s="4" t="str">
+        <f t="shared" si="7"/>
+        <v>97,72±0,37</v>
+      </c>
+      <c r="AD13" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="AE13">
+        <f t="shared" si="8"/>
+        <v>0.82489999999999997</v>
+      </c>
+      <c r="AF13">
+        <f t="shared" si="9"/>
+        <v>0.74960000000000004</v>
+      </c>
+      <c r="AG13">
+        <f t="shared" si="10"/>
+        <v>0.77669999999999995</v>
+      </c>
+      <c r="AH13">
+        <f t="shared" si="11"/>
+        <v>0.77710000000000001</v>
+      </c>
+      <c r="AI13">
+        <f t="shared" si="12"/>
+        <v>0.8377</v>
+      </c>
+      <c r="AJ13" s="1">
+        <f t="shared" si="13"/>
+        <v>79.319999999999993</v>
+      </c>
+      <c r="AK13" s="1">
+        <f t="shared" si="14"/>
+        <v>3.68</v>
+      </c>
+      <c r="AL13" s="4" t="str">
+        <f t="shared" si="15"/>
+        <v>79,32±3,68</v>
+      </c>
+    </row>
+    <row r="14" spans="2:38" x14ac:dyDescent="0.3">
+      <c r="B14" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C14">
+        <v>0.81759999999999999</v>
+      </c>
+      <c r="D14">
+        <v>0.54420000000000002</v>
+      </c>
+      <c r="E14">
+        <v>0.75</v>
+      </c>
+      <c r="F14">
+        <v>0.44040000000000001</v>
+      </c>
+      <c r="G14">
+        <v>0.57150000000000001</v>
+      </c>
+      <c r="H14">
+        <v>0.75</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="L14">
+        <v>0.83260000000000001</v>
+      </c>
+      <c r="M14">
+        <v>0.55959999999999999</v>
+      </c>
+      <c r="N14">
+        <v>0.7944</v>
+      </c>
+      <c r="O14">
+        <v>0.52400000000000002</v>
+      </c>
+      <c r="P14">
+        <v>0.71519999999999995</v>
+      </c>
+      <c r="Q14">
+        <v>0.7944</v>
+      </c>
+      <c r="T14" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="U14">
+        <f t="shared" si="0"/>
+        <v>0.81759999999999999</v>
+      </c>
+      <c r="V14">
+        <f t="shared" si="1"/>
+        <v>0.81799999999999995</v>
+      </c>
+      <c r="W14">
+        <f t="shared" si="2"/>
+        <v>0.81479999999999997</v>
+      </c>
+      <c r="X14">
+        <f t="shared" si="3"/>
+        <v>0.83260000000000001</v>
+      </c>
+      <c r="Y14">
+        <f t="shared" si="4"/>
+        <v>0.81859999999999999</v>
+      </c>
+      <c r="Z14" s="1">
+        <f t="shared" si="5"/>
+        <v>82.03</v>
+      </c>
+      <c r="AA14" s="1">
+        <f t="shared" si="6"/>
+        <v>0.7</v>
+      </c>
+      <c r="AB14" s="4" t="str">
+        <f t="shared" si="7"/>
+        <v>82,03±0,7</v>
+      </c>
+      <c r="AD14" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="AE14">
+        <f t="shared" si="8"/>
+        <v>0.44040000000000001</v>
+      </c>
+      <c r="AF14">
+        <f t="shared" si="9"/>
+        <v>0.35420000000000001</v>
+      </c>
+      <c r="AG14">
+        <f t="shared" si="10"/>
+        <v>0.54720000000000002</v>
+      </c>
+      <c r="AH14">
+        <f t="shared" si="11"/>
+        <v>0.52400000000000002</v>
+      </c>
+      <c r="AI14">
+        <f t="shared" si="12"/>
+        <v>0.53949999999999998</v>
+      </c>
+      <c r="AJ14" s="1">
+        <f t="shared" si="13"/>
+        <v>48.11</v>
+      </c>
+      <c r="AK14" s="1">
+        <f t="shared" si="14"/>
+        <v>8.27</v>
+      </c>
+      <c r="AL14" s="4" t="str">
+        <f t="shared" si="15"/>
+        <v>48,11±8,27</v>
+      </c>
+    </row>
+    <row r="17" spans="2:28" x14ac:dyDescent="0.3">
+      <c r="B17" t="s">
+        <v>35</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G17" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H17" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="K17" t="s">
+        <v>38</v>
+      </c>
+      <c r="L17" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="M17" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="N17" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="O17" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="P17" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q17" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="T17" t="s">
+        <v>11</v>
+      </c>
+      <c r="U17" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="V17" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="W17" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="X17" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y17" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z17" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA17" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB17" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="18" spans="2:28" x14ac:dyDescent="0.3">
+      <c r="B18" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C18">
+        <v>0.95840000000000003</v>
+      </c>
+      <c r="D18">
+        <v>0.61309999999999998</v>
+      </c>
+      <c r="E18">
+        <v>0.89780000000000004</v>
+      </c>
+      <c r="F18">
+        <v>0.65390000000000004</v>
+      </c>
+      <c r="G18">
+        <v>0.89229999999999998</v>
+      </c>
+      <c r="H18">
+        <v>0.89780000000000004</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="L18">
+        <v>0.93820000000000003</v>
+      </c>
+      <c r="M18">
+        <v>0.59279999999999999</v>
+      </c>
+      <c r="N18">
+        <v>0.84850000000000003</v>
+      </c>
+      <c r="O18">
+        <v>0.62180000000000002</v>
+      </c>
+      <c r="P18">
+        <v>0.87539999999999996</v>
+      </c>
+      <c r="Q18">
+        <v>0.84850000000000003</v>
+      </c>
+      <c r="T18" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="U18">
+        <f>H4</f>
+        <v>0.88590000000000002</v>
+      </c>
+      <c r="V18">
+        <f>H18</f>
+        <v>0.89780000000000004</v>
+      </c>
+      <c r="W18">
+        <f>H32</f>
+        <v>0.82140000000000002</v>
+      </c>
+      <c r="X18">
+        <f>Q4</f>
+        <v>0.86870000000000003</v>
+      </c>
+      <c r="Y18">
+        <f>Q18</f>
+        <v>0.84850000000000003</v>
+      </c>
+      <c r="Z18" s="1">
+        <f>ROUND(AVERAGE(U18:Y18)*100,2)</f>
+        <v>86.45</v>
+      </c>
+      <c r="AA18" s="1">
+        <f>ROUND(_xlfn.STDEV.S(U18:Y18)*100,2)</f>
+        <v>3.04</v>
+      </c>
+      <c r="AB18" s="4" t="str">
+        <f>_xlfn.CONCAT(Z18,"±",AA18)</f>
+        <v>86,45±3,04</v>
+      </c>
+    </row>
+    <row r="19" spans="2:28" x14ac:dyDescent="0.3">
+      <c r="B19" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19">
+        <v>0.85550000000000004</v>
+      </c>
+      <c r="D19">
+        <v>0.50680000000000003</v>
+      </c>
+      <c r="E19">
+        <v>0.64539999999999997</v>
+      </c>
+      <c r="F19">
+        <v>0.23960000000000001</v>
+      </c>
+      <c r="G19">
+        <v>0.29899999999999999</v>
+      </c>
+      <c r="H19">
+        <v>0.64539999999999997</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="L19">
+        <v>0.81840000000000002</v>
+      </c>
+      <c r="M19">
+        <v>0.50609999999999999</v>
+      </c>
+      <c r="N19">
+        <v>0.60470000000000002</v>
+      </c>
+      <c r="O19">
+        <v>0.187</v>
+      </c>
+      <c r="P19">
+        <v>0.21959999999999999</v>
+      </c>
+      <c r="Q19">
+        <v>0.60470000000000002</v>
+      </c>
+      <c r="T19" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="U19">
+        <f t="shared" ref="U19:U28" si="16">H5</f>
+        <v>0.60699999999999998</v>
+      </c>
+      <c r="V19">
+        <f t="shared" ref="V19:V28" si="17">H19</f>
+        <v>0.64539999999999997</v>
+      </c>
+      <c r="W19">
+        <f t="shared" ref="W19:W28" si="18">H33</f>
+        <v>0.61199999999999999</v>
+      </c>
+      <c r="X19">
+        <f t="shared" ref="X19:X28" si="19">Q5</f>
+        <v>0.62560000000000004</v>
+      </c>
+      <c r="Y19">
+        <f t="shared" ref="Y19:Y28" si="20">Q19</f>
+        <v>0.60470000000000002</v>
+      </c>
+      <c r="Z19" s="1">
+        <f t="shared" ref="Z19:Z28" si="21">ROUND(AVERAGE(U19:Y19)*100,2)</f>
+        <v>61.89</v>
+      </c>
+      <c r="AA19" s="1">
+        <f t="shared" ref="AA19:AA28" si="22">ROUND(_xlfn.STDEV.S(U19:Y19)*100,2)</f>
+        <v>1.69</v>
+      </c>
+      <c r="AB19" s="4" t="str">
+        <f t="shared" ref="AB19:AB28" si="23">_xlfn.CONCAT(Z19,"±",ROUND(AA19,2))</f>
+        <v>61,89±1,69</v>
+      </c>
+    </row>
+    <row r="20" spans="2:28" x14ac:dyDescent="0.3">
+      <c r="B20" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20">
+        <v>0.94079999999999997</v>
+      </c>
+      <c r="D20">
+        <v>0.5393</v>
+      </c>
+      <c r="E20">
+        <v>0.74850000000000005</v>
+      </c>
+      <c r="F20">
+        <v>0.40620000000000001</v>
+      </c>
+      <c r="G20">
+        <v>0.52010000000000001</v>
+      </c>
+      <c r="H20">
+        <v>0.74850000000000005</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="L20">
+        <v>0.97</v>
+      </c>
+      <c r="M20">
+        <v>0.56040000000000001</v>
+      </c>
+      <c r="N20">
+        <v>0.84370000000000001</v>
+      </c>
+      <c r="O20">
+        <v>0.51539999999999997</v>
+      </c>
+      <c r="P20">
+        <v>0.70079999999999998</v>
+      </c>
+      <c r="Q20">
+        <v>0.84370000000000001</v>
+      </c>
+      <c r="T20" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="U20">
+        <f t="shared" si="16"/>
+        <v>0.79549999999999998</v>
+      </c>
+      <c r="V20">
+        <f t="shared" si="17"/>
+        <v>0.74850000000000005</v>
+      </c>
+      <c r="W20">
+        <f t="shared" si="18"/>
+        <v>0.86619999999999997</v>
+      </c>
+      <c r="X20">
+        <f t="shared" si="19"/>
+        <v>0.84430000000000005</v>
+      </c>
+      <c r="Y20">
+        <f t="shared" si="20"/>
+        <v>0.84370000000000001</v>
+      </c>
+      <c r="Z20" s="1">
+        <f t="shared" si="21"/>
+        <v>81.96</v>
+      </c>
+      <c r="AA20" s="1">
+        <f t="shared" si="22"/>
+        <v>4.74</v>
+      </c>
+      <c r="AB20" s="4" t="str">
+        <f t="shared" si="23"/>
+        <v>81,96±4,74</v>
+      </c>
+    </row>
+    <row r="21" spans="2:28" x14ac:dyDescent="0.3">
+      <c r="B21" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21">
+        <v>0.97540000000000004</v>
+      </c>
+      <c r="D21">
+        <v>0.5585</v>
+      </c>
+      <c r="E21">
+        <v>0.87390000000000001</v>
+      </c>
+      <c r="F21">
+        <v>0.5333</v>
+      </c>
+      <c r="G21">
+        <v>0.75790000000000002</v>
+      </c>
+      <c r="H21">
+        <v>0.87390000000000001</v>
+      </c>
+      <c r="K21" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="L21">
+        <v>0.98399999999999999</v>
+      </c>
+      <c r="M21">
+        <v>0.58450000000000002</v>
+      </c>
+      <c r="N21">
+        <v>0.91800000000000004</v>
+      </c>
+      <c r="O21">
+        <v>0.60029999999999994</v>
+      </c>
+      <c r="P21">
+        <v>0.84219999999999995</v>
+      </c>
+      <c r="Q21">
+        <v>0.91800000000000004</v>
+      </c>
+      <c r="T21" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="U21">
+        <f t="shared" si="16"/>
+        <v>0.89100000000000001</v>
+      </c>
+      <c r="V21">
+        <f t="shared" si="17"/>
+        <v>0.87390000000000001</v>
+      </c>
+      <c r="W21">
+        <f t="shared" si="18"/>
+        <v>0.9365</v>
+      </c>
+      <c r="X21">
+        <f t="shared" si="19"/>
+        <v>0.92749999999999999</v>
+      </c>
+      <c r="Y21">
+        <f t="shared" si="20"/>
+        <v>0.91800000000000004</v>
+      </c>
+      <c r="Z21" s="1">
+        <f t="shared" si="21"/>
+        <v>90.94</v>
+      </c>
+      <c r="AA21" s="1">
+        <f t="shared" si="22"/>
+        <v>2.61</v>
+      </c>
+      <c r="AB21" s="4" t="str">
+        <f t="shared" si="23"/>
+        <v>90,94±2,61</v>
+      </c>
+    </row>
+    <row r="22" spans="2:28" x14ac:dyDescent="0.3">
+      <c r="B22" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C22">
+        <v>0.89590000000000003</v>
+      </c>
+      <c r="D22">
+        <v>0.52690000000000003</v>
+      </c>
+      <c r="E22">
+        <v>0.626</v>
+      </c>
+      <c r="F22">
+        <v>0.25490000000000002</v>
+      </c>
+      <c r="G22">
+        <v>0.2858</v>
+      </c>
+      <c r="H22">
+        <v>0.626</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="L22">
+        <v>0.95579999999999998</v>
+      </c>
+      <c r="M22">
+        <v>0.55769999999999997</v>
+      </c>
+      <c r="N22">
+        <v>0.83399999999999996</v>
+      </c>
+      <c r="O22">
+        <v>0.50649999999999995</v>
+      </c>
+      <c r="P22">
+        <v>0.68769999999999998</v>
+      </c>
+      <c r="Q22">
+        <v>0.83399999999999996</v>
+      </c>
+      <c r="T22" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="U22">
+        <f t="shared" si="16"/>
+        <v>0.76639999999999997</v>
+      </c>
+      <c r="V22">
+        <f t="shared" si="17"/>
+        <v>0.626</v>
+      </c>
+      <c r="W22">
+        <f t="shared" si="18"/>
+        <v>0.86260000000000003</v>
+      </c>
+      <c r="X22">
+        <f t="shared" si="19"/>
+        <v>0.82699999999999996</v>
+      </c>
+      <c r="Y22">
+        <f t="shared" si="20"/>
+        <v>0.83399999999999996</v>
+      </c>
+      <c r="Z22" s="1">
+        <f t="shared" si="21"/>
+        <v>78.319999999999993</v>
+      </c>
+      <c r="AA22" s="1">
+        <f t="shared" si="22"/>
+        <v>9.4600000000000009</v>
+      </c>
+      <c r="AB22" s="4" t="str">
+        <f t="shared" si="23"/>
+        <v>78,32±9,46</v>
+      </c>
+    </row>
+    <row r="23" spans="2:28" x14ac:dyDescent="0.3">
+      <c r="B23" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C23">
+        <v>0.94979999999999998</v>
+      </c>
+      <c r="D23">
+        <v>0.53510000000000002</v>
+      </c>
+      <c r="E23">
+        <v>0.74639999999999995</v>
+      </c>
+      <c r="F23">
+        <v>0.39600000000000002</v>
+      </c>
+      <c r="G23">
+        <v>0.51190000000000002</v>
+      </c>
+      <c r="H23">
+        <v>0.74639999999999995</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="L23">
+        <v>0.9768</v>
+      </c>
+      <c r="M23">
+        <v>0.60040000000000004</v>
+      </c>
+      <c r="N23">
+        <v>0.92030000000000001</v>
+      </c>
+      <c r="O23">
+        <v>0.62629999999999997</v>
+      </c>
+      <c r="P23">
+        <v>0.85429999999999995</v>
+      </c>
+      <c r="Q23">
+        <v>0.92030000000000001</v>
+      </c>
+      <c r="T23" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="U23">
+        <f t="shared" si="16"/>
+        <v>0.85089999999999999</v>
+      </c>
+      <c r="V23">
+        <f t="shared" si="17"/>
+        <v>0.74639999999999995</v>
+      </c>
+      <c r="W23">
+        <f t="shared" si="18"/>
+        <v>0.9284</v>
+      </c>
+      <c r="X23">
+        <f t="shared" si="19"/>
+        <v>0.90469999999999995</v>
+      </c>
+      <c r="Y23">
+        <f t="shared" si="20"/>
+        <v>0.92030000000000001</v>
+      </c>
+      <c r="Z23" s="1">
+        <f t="shared" si="21"/>
+        <v>87.01</v>
+      </c>
+      <c r="AA23" s="1">
+        <f t="shared" si="22"/>
+        <v>7.55</v>
+      </c>
+      <c r="AB23" s="4" t="str">
+        <f t="shared" si="23"/>
+        <v>87,01±7,55</v>
+      </c>
+    </row>
+    <row r="24" spans="2:28" x14ac:dyDescent="0.3">
+      <c r="B24" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C24">
+        <v>0.88460000000000005</v>
+      </c>
+      <c r="D24">
+        <v>0.54830000000000001</v>
+      </c>
+      <c r="E24">
+        <v>0.5</v>
+      </c>
+      <c r="F24">
+        <v>8.8200000000000001E-2</v>
+      </c>
+      <c r="G24">
+        <v>9.6699999999999994E-2</v>
+      </c>
+      <c r="H24">
+        <v>0.5</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="L24">
+        <v>0.92120000000000002</v>
+      </c>
+      <c r="M24">
+        <v>0.90149999999999997</v>
+      </c>
+      <c r="N24">
+        <v>0.71679999999999999</v>
+      </c>
+      <c r="O24">
+        <v>0.77510000000000001</v>
+      </c>
+      <c r="P24">
+        <v>0.93910000000000005</v>
+      </c>
+      <c r="Q24">
+        <v>0.71679999999999999</v>
+      </c>
+      <c r="T24" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="U24">
+        <f t="shared" si="16"/>
+        <v>0.61560000000000004</v>
+      </c>
+      <c r="V24">
+        <f t="shared" si="17"/>
+        <v>0.5</v>
+      </c>
+      <c r="W24">
+        <f t="shared" si="18"/>
+        <v>0.62029999999999996</v>
+      </c>
+      <c r="X24">
+        <f t="shared" si="19"/>
+        <v>0.75029999999999997</v>
+      </c>
+      <c r="Y24">
+        <f t="shared" si="20"/>
+        <v>0.71679999999999999</v>
+      </c>
+      <c r="Z24" s="1">
+        <f t="shared" si="21"/>
+        <v>64.06</v>
+      </c>
+      <c r="AA24" s="1">
+        <f t="shared" si="22"/>
+        <v>9.83</v>
+      </c>
+      <c r="AB24" s="4" t="str">
+        <f t="shared" si="23"/>
+        <v>64,06±9,83</v>
+      </c>
+    </row>
+    <row r="25" spans="2:28" x14ac:dyDescent="0.3">
+      <c r="B25" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C25">
+        <v>0.95130000000000003</v>
+      </c>
+      <c r="D25">
+        <v>0.52510000000000001</v>
+      </c>
+      <c r="E25">
+        <v>0.5</v>
+      </c>
+      <c r="F25">
+        <v>4.7899999999999998E-2</v>
+      </c>
+      <c r="G25">
+        <v>5.0299999999999997E-2</v>
+      </c>
+      <c r="H25">
+        <v>0.5</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L25">
+        <v>0.98229999999999995</v>
+      </c>
+      <c r="M25">
+        <v>0.90480000000000005</v>
+      </c>
+      <c r="N25">
+        <v>0.76149999999999995</v>
+      </c>
+      <c r="O25">
+        <v>0.81599999999999995</v>
+      </c>
+      <c r="P25">
+        <v>0.97099999999999997</v>
+      </c>
+      <c r="Q25">
+        <v>0.76149999999999995</v>
+      </c>
+      <c r="T25" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="U25">
+        <f t="shared" si="16"/>
+        <v>0.66390000000000005</v>
+      </c>
+      <c r="V25">
+        <f t="shared" si="17"/>
+        <v>0.5</v>
+      </c>
+      <c r="W25">
+        <f t="shared" si="18"/>
+        <v>0.64429999999999998</v>
+      </c>
+      <c r="X25">
+        <f t="shared" si="19"/>
+        <v>0.84909999999999997</v>
+      </c>
+      <c r="Y25">
+        <f t="shared" si="20"/>
+        <v>0.76149999999999995</v>
+      </c>
+      <c r="Z25" s="1">
+        <f t="shared" si="21"/>
+        <v>68.38</v>
+      </c>
+      <c r="AA25" s="1">
+        <f t="shared" si="22"/>
+        <v>13.14</v>
+      </c>
+      <c r="AB25" s="4" t="str">
+        <f t="shared" si="23"/>
+        <v>68,38±13,14</v>
+      </c>
+    </row>
+    <row r="26" spans="2:28" x14ac:dyDescent="0.3">
+      <c r="B26" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C26">
+        <v>0.83189999999999997</v>
+      </c>
+      <c r="D26">
+        <v>0.52429999999999999</v>
+      </c>
+      <c r="E26">
+        <v>0.50009999999999999</v>
+      </c>
+      <c r="F26">
+        <v>7.7899999999999997E-2</v>
+      </c>
+      <c r="G26">
+        <v>8.43E-2</v>
+      </c>
+      <c r="H26">
+        <v>0.50009999999999999</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="L26">
+        <v>0.85719999999999996</v>
+      </c>
+      <c r="M26">
+        <v>0.78039999999999998</v>
+      </c>
+      <c r="N26">
+        <v>0.53920000000000001</v>
+      </c>
+      <c r="O26">
+        <v>0.55189999999999995</v>
+      </c>
+      <c r="P26">
+        <v>0.91890000000000005</v>
+      </c>
+      <c r="Q26">
+        <v>0.53920000000000001</v>
+      </c>
+      <c r="T26" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="U26">
+        <f t="shared" si="16"/>
+        <v>0.67369999999999997</v>
+      </c>
+      <c r="V26">
+        <f t="shared" si="17"/>
+        <v>0.50009999999999999</v>
+      </c>
+      <c r="W26">
+        <f t="shared" si="18"/>
+        <v>0.51439999999999997</v>
+      </c>
+      <c r="X26">
+        <f t="shared" si="19"/>
+        <v>0.76900000000000002</v>
+      </c>
+      <c r="Y26">
+        <f t="shared" si="20"/>
+        <v>0.53920000000000001</v>
+      </c>
+      <c r="Z26" s="1">
+        <f t="shared" si="21"/>
+        <v>59.93</v>
+      </c>
+      <c r="AA26" s="1">
+        <f t="shared" si="22"/>
+        <v>11.73</v>
+      </c>
+      <c r="AB26" s="4" t="str">
+        <f t="shared" si="23"/>
+        <v>59,93±11,73</v>
+      </c>
+    </row>
+    <row r="27" spans="2:28" x14ac:dyDescent="0.3">
+      <c r="B27" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C27">
+        <v>0.97260000000000002</v>
+      </c>
+      <c r="D27">
+        <v>0.87749999999999995</v>
+      </c>
+      <c r="E27">
+        <v>0.69130000000000003</v>
+      </c>
+      <c r="F27">
+        <v>0.74960000000000004</v>
+      </c>
+      <c r="G27">
+        <v>0.95589999999999997</v>
+      </c>
+      <c r="H27">
+        <v>0.69130000000000003</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="L27">
+        <v>0.98170000000000002</v>
+      </c>
+      <c r="M27">
+        <v>0.86009999999999998</v>
+      </c>
+      <c r="N27">
+        <v>0.81820000000000004</v>
+      </c>
+      <c r="O27">
+        <v>0.8377</v>
+      </c>
+      <c r="P27">
+        <v>0.96440000000000003</v>
+      </c>
+      <c r="Q27">
+        <v>0.81820000000000004</v>
+      </c>
+      <c r="T27" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="U27">
+        <f t="shared" si="16"/>
+        <v>0.79859999999999998</v>
+      </c>
+      <c r="V27">
+        <f t="shared" si="17"/>
+        <v>0.69130000000000003</v>
+      </c>
+      <c r="W27">
+        <f t="shared" si="18"/>
+        <v>0.72640000000000005</v>
+      </c>
+      <c r="X27">
+        <f t="shared" si="19"/>
+        <v>0.7248</v>
+      </c>
+      <c r="Y27">
+        <f t="shared" si="20"/>
+        <v>0.81820000000000004</v>
+      </c>
+      <c r="Z27" s="1">
+        <f t="shared" si="21"/>
+        <v>75.19</v>
+      </c>
+      <c r="AA27" s="1">
+        <f t="shared" si="22"/>
+        <v>5.39</v>
+      </c>
+      <c r="AB27" s="4" t="str">
+        <f t="shared" si="23"/>
+        <v>75,19±5,39</v>
+      </c>
+    </row>
+    <row r="28" spans="2:28" x14ac:dyDescent="0.3">
+      <c r="B28" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C28">
+        <v>0.81799999999999995</v>
+      </c>
+      <c r="D28">
+        <v>0.53159999999999996</v>
+      </c>
+      <c r="E28">
+        <v>0.67049999999999998</v>
+      </c>
+      <c r="F28">
+        <v>0.35420000000000001</v>
+      </c>
+      <c r="G28">
+        <v>0.43090000000000001</v>
+      </c>
+      <c r="H28">
+        <v>0.67049999999999998</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="L28">
+        <v>0.81859999999999999</v>
+      </c>
+      <c r="M28">
+        <v>0.55310000000000004</v>
+      </c>
+      <c r="N28">
+        <v>0.72260000000000002</v>
+      </c>
+      <c r="O28">
+        <v>0.53949999999999998</v>
+      </c>
+      <c r="P28">
+        <v>0.77139999999999997</v>
+      </c>
+      <c r="Q28">
+        <v>0.72260000000000002</v>
+      </c>
+      <c r="T28" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="U28">
+        <f t="shared" si="16"/>
+        <v>0.75</v>
+      </c>
+      <c r="V28">
+        <f t="shared" si="17"/>
+        <v>0.67049999999999998</v>
+      </c>
+      <c r="W28">
+        <f t="shared" si="18"/>
+        <v>0.69</v>
+      </c>
+      <c r="X28">
+        <f t="shared" si="19"/>
+        <v>0.7944</v>
+      </c>
+      <c r="Y28">
+        <f t="shared" si="20"/>
+        <v>0.72260000000000002</v>
+      </c>
+      <c r="Z28" s="1">
+        <f t="shared" si="21"/>
+        <v>72.55</v>
+      </c>
+      <c r="AA28" s="1">
+        <f t="shared" si="22"/>
+        <v>4.91</v>
+      </c>
+      <c r="AB28" s="4" t="str">
+        <f t="shared" si="23"/>
+        <v>72,55±4,91</v>
+      </c>
+    </row>
+    <row r="31" spans="2:28" x14ac:dyDescent="0.3">
+      <c r="B31" t="s">
+        <v>36</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D31" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E31" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F31" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G31" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H31" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="T31" t="s">
+        <v>193</v>
+      </c>
+      <c r="U31" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="V31" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="W31" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="X31" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y31" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z31" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA31" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB31" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="32" spans="2:28" x14ac:dyDescent="0.3">
+      <c r="B32" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C32">
+        <v>0.93520000000000003</v>
+      </c>
+      <c r="D32">
+        <v>0.6018</v>
+      </c>
+      <c r="E32">
+        <v>0.82140000000000002</v>
+      </c>
+      <c r="F32">
+        <v>0.63800000000000001</v>
+      </c>
+      <c r="G32">
+        <v>0.89710000000000001</v>
+      </c>
+      <c r="H32">
+        <v>0.82140000000000002</v>
+      </c>
+      <c r="T32" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="U32">
+        <f>E4</f>
+        <v>0.88590000000000002</v>
+      </c>
+      <c r="V32">
+        <f>E18</f>
+        <v>0.89780000000000004</v>
+      </c>
+      <c r="W32">
+        <f>E32</f>
+        <v>0.82140000000000002</v>
+      </c>
+      <c r="X32">
+        <f>N4</f>
+        <v>0.86870000000000003</v>
+      </c>
+      <c r="Y32">
+        <f>N18</f>
+        <v>0.84850000000000003</v>
+      </c>
+      <c r="Z32" s="1">
+        <f>ROUND(AVERAGE(U32:Y32)*100,2)</f>
+        <v>86.45</v>
+      </c>
+      <c r="AA32" s="1">
+        <f>ROUND(_xlfn.STDEV.S(U32:Y32)*100,2)</f>
+        <v>3.04</v>
+      </c>
+      <c r="AB32" s="4" t="str">
+        <f>_xlfn.CONCAT(Z32,"±",AA32)</f>
+        <v>86,45±3,04</v>
+      </c>
+    </row>
+    <row r="33" spans="2:28" x14ac:dyDescent="0.3">
+      <c r="B33" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C33">
+        <v>0.81030000000000002</v>
+      </c>
+      <c r="D33">
+        <v>0.50609999999999999</v>
+      </c>
+      <c r="E33">
+        <v>0.61199999999999999</v>
+      </c>
+      <c r="F33">
+        <v>0.2009</v>
+      </c>
+      <c r="G33">
+        <v>0.23980000000000001</v>
+      </c>
+      <c r="H33">
+        <v>0.61199999999999999</v>
+      </c>
+      <c r="T33" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="U33">
+        <f t="shared" ref="U33:U42" si="24">E5</f>
+        <v>0.60699999999999998</v>
+      </c>
+      <c r="V33">
+        <f t="shared" ref="V33:V42" si="25">E19</f>
+        <v>0.64539999999999997</v>
+      </c>
+      <c r="W33">
+        <f t="shared" ref="W33:W42" si="26">E33</f>
+        <v>0.61199999999999999</v>
+      </c>
+      <c r="X33">
+        <f t="shared" ref="X33:X42" si="27">N5</f>
+        <v>0.62560000000000004</v>
+      </c>
+      <c r="Y33">
+        <f t="shared" ref="Y33:Y42" si="28">N19</f>
+        <v>0.60470000000000002</v>
+      </c>
+      <c r="Z33" s="1">
+        <f t="shared" ref="Z33:Z42" si="29">ROUND(AVERAGE(U33:Y33)*100,2)</f>
+        <v>61.89</v>
+      </c>
+      <c r="AA33" s="1">
+        <f t="shared" ref="AA33:AA42" si="30">ROUND(_xlfn.STDEV.S(U33:Y33)*100,2)</f>
+        <v>1.69</v>
+      </c>
+      <c r="AB33" s="4" t="str">
+        <f t="shared" ref="AB33:AB42" si="31">_xlfn.CONCAT(Z33,"±",AA33)</f>
+        <v>61,89±1,69</v>
+      </c>
+    </row>
+    <row r="34" spans="2:28" x14ac:dyDescent="0.3">
+      <c r="B34" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C34">
+        <v>0.96330000000000005</v>
+      </c>
+      <c r="D34">
+        <v>0.57069999999999999</v>
+      </c>
+      <c r="E34">
+        <v>0.86619999999999997</v>
+      </c>
+      <c r="F34">
+        <v>0.5504</v>
+      </c>
+      <c r="G34">
+        <v>0.75339999999999996</v>
+      </c>
+      <c r="H34">
+        <v>0.86619999999999997</v>
+      </c>
+      <c r="T34" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="U34">
+        <f t="shared" si="24"/>
+        <v>0.79549999999999998</v>
+      </c>
+      <c r="V34">
+        <f t="shared" si="25"/>
+        <v>0.74850000000000005</v>
+      </c>
+      <c r="W34">
+        <f t="shared" si="26"/>
+        <v>0.86619999999999997</v>
+      </c>
+      <c r="X34">
+        <f t="shared" si="27"/>
+        <v>0.84430000000000005</v>
+      </c>
+      <c r="Y34">
+        <f t="shared" si="28"/>
+        <v>0.84370000000000001</v>
+      </c>
+      <c r="Z34" s="1">
+        <f t="shared" si="29"/>
+        <v>81.96</v>
+      </c>
+      <c r="AA34" s="1">
+        <f t="shared" si="30"/>
+        <v>4.74</v>
+      </c>
+      <c r="AB34" s="4" t="str">
+        <f t="shared" si="31"/>
+        <v>81,96±4,74</v>
+      </c>
+    </row>
+    <row r="35" spans="2:28" x14ac:dyDescent="0.3">
+      <c r="B35" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35">
+        <v>0.98240000000000005</v>
+      </c>
+      <c r="D35">
+        <v>0.60929999999999995</v>
+      </c>
+      <c r="E35">
+        <v>0.9365</v>
+      </c>
+      <c r="F35">
+        <v>0.64810000000000001</v>
+      </c>
+      <c r="G35">
+        <v>0.8861</v>
+      </c>
+      <c r="H35">
+        <v>0.9365</v>
+      </c>
+      <c r="T35" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="U35">
+        <f t="shared" si="24"/>
+        <v>0.89100000000000001</v>
+      </c>
+      <c r="V35">
+        <f t="shared" si="25"/>
+        <v>0.87390000000000001</v>
+      </c>
+      <c r="W35">
+        <f t="shared" si="26"/>
+        <v>0.9365</v>
+      </c>
+      <c r="X35">
+        <f t="shared" si="27"/>
+        <v>0.92749999999999999</v>
+      </c>
+      <c r="Y35">
+        <f t="shared" si="28"/>
+        <v>0.91800000000000004</v>
+      </c>
+      <c r="Z35" s="1">
+        <f t="shared" si="29"/>
+        <v>90.94</v>
+      </c>
+      <c r="AA35" s="1">
+        <f t="shared" si="30"/>
+        <v>2.61</v>
+      </c>
+      <c r="AB35" s="4" t="str">
+        <f t="shared" si="31"/>
+        <v>90,94±2,61</v>
+      </c>
+    </row>
+    <row r="36" spans="2:28" x14ac:dyDescent="0.3">
+      <c r="B36" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C36">
+        <v>0.95399999999999996</v>
+      </c>
+      <c r="D36">
+        <v>0.57099999999999995</v>
+      </c>
+      <c r="E36">
+        <v>0.86260000000000003</v>
+      </c>
+      <c r="F36">
+        <v>0.55310000000000004</v>
+      </c>
+      <c r="G36">
+        <v>0.75880000000000003</v>
+      </c>
+      <c r="H36">
+        <v>0.86260000000000003</v>
+      </c>
+      <c r="T36" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="U36">
+        <f t="shared" si="24"/>
+        <v>0.76639999999999997</v>
+      </c>
+      <c r="V36">
+        <f t="shared" si="25"/>
+        <v>0.626</v>
+      </c>
+      <c r="W36">
+        <f t="shared" si="26"/>
+        <v>0.86260000000000003</v>
+      </c>
+      <c r="X36">
+        <f t="shared" si="27"/>
+        <v>0.82699999999999996</v>
+      </c>
+      <c r="Y36">
+        <f t="shared" si="28"/>
+        <v>0.83399999999999996</v>
+      </c>
+      <c r="Z36" s="1">
+        <f t="shared" si="29"/>
+        <v>78.319999999999993</v>
+      </c>
+      <c r="AA36" s="1">
+        <f t="shared" si="30"/>
+        <v>9.4600000000000009</v>
+      </c>
+      <c r="AB36" s="4" t="str">
+        <f t="shared" si="31"/>
+        <v>78,32±9,46</v>
+      </c>
+    </row>
+    <row r="37" spans="2:28" x14ac:dyDescent="0.3">
+      <c r="B37" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C37">
+        <v>0.97389999999999999</v>
+      </c>
+      <c r="D37">
+        <v>0.65049999999999997</v>
+      </c>
+      <c r="E37">
+        <v>0.9284</v>
+      </c>
+      <c r="F37">
+        <v>0.70730000000000004</v>
+      </c>
+      <c r="G37">
+        <v>0.91820000000000002</v>
+      </c>
+      <c r="H37">
+        <v>0.9284</v>
+      </c>
+      <c r="T37" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="U37">
+        <f t="shared" si="24"/>
+        <v>0.85089999999999999</v>
+      </c>
+      <c r="V37">
+        <f t="shared" si="25"/>
+        <v>0.74639999999999995</v>
+      </c>
+      <c r="W37">
+        <f t="shared" si="26"/>
+        <v>0.9284</v>
+      </c>
+      <c r="X37">
+        <f t="shared" si="27"/>
+        <v>0.90469999999999995</v>
+      </c>
+      <c r="Y37">
+        <f t="shared" si="28"/>
+        <v>0.92030000000000001</v>
+      </c>
+      <c r="Z37" s="1">
+        <f t="shared" si="29"/>
+        <v>87.01</v>
+      </c>
+      <c r="AA37" s="1">
+        <f t="shared" si="30"/>
+        <v>7.55</v>
+      </c>
+      <c r="AB37" s="4" t="str">
+        <f t="shared" si="31"/>
+        <v>87,01±7,55</v>
+      </c>
+    </row>
+    <row r="38" spans="2:28" x14ac:dyDescent="0.3">
+      <c r="B38" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C38">
+        <v>0.91779999999999995</v>
+      </c>
+      <c r="D38">
+        <v>0.92859999999999998</v>
+      </c>
+      <c r="E38">
+        <v>0.62029999999999996</v>
+      </c>
+      <c r="F38">
+        <v>0.67249999999999999</v>
+      </c>
+      <c r="G38">
+        <v>0.92510000000000003</v>
+      </c>
+      <c r="H38">
+        <v>0.62029999999999996</v>
+      </c>
+      <c r="T38" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="U38">
+        <f t="shared" si="24"/>
+        <v>0.61560000000000004</v>
+      </c>
+      <c r="V38">
+        <f t="shared" si="25"/>
+        <v>0.5</v>
+      </c>
+      <c r="W38">
+        <f t="shared" si="26"/>
+        <v>0.62029999999999996</v>
+      </c>
+      <c r="X38">
+        <f t="shared" si="27"/>
+        <v>0.75029999999999997</v>
+      </c>
+      <c r="Y38">
+        <f t="shared" si="28"/>
+        <v>0.71679999999999999</v>
+      </c>
+      <c r="Z38" s="1">
+        <f t="shared" si="29"/>
+        <v>64.06</v>
+      </c>
+      <c r="AA38" s="1">
+        <f t="shared" si="30"/>
+        <v>9.83</v>
+      </c>
+      <c r="AB38" s="4" t="str">
+        <f t="shared" si="31"/>
+        <v>64,06±9,83</v>
+      </c>
+    </row>
+    <row r="39" spans="2:28" x14ac:dyDescent="0.3">
+      <c r="B39" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C39">
+        <v>0.97360000000000002</v>
+      </c>
+      <c r="D39">
+        <v>0.92379999999999995</v>
+      </c>
+      <c r="E39">
+        <v>0.64429999999999998</v>
+      </c>
+      <c r="F39">
+        <v>0.70899999999999996</v>
+      </c>
+      <c r="G39">
+        <v>0.96240000000000003</v>
+      </c>
+      <c r="H39">
+        <v>0.64429999999999998</v>
+      </c>
+      <c r="T39" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="U39">
+        <f t="shared" si="24"/>
+        <v>0.66390000000000005</v>
+      </c>
+      <c r="V39">
+        <f t="shared" si="25"/>
+        <v>0.5</v>
+      </c>
+      <c r="W39">
+        <f t="shared" si="26"/>
+        <v>0.64429999999999998</v>
+      </c>
+      <c r="X39">
+        <f t="shared" si="27"/>
+        <v>0.84909999999999997</v>
+      </c>
+      <c r="Y39">
+        <f t="shared" si="28"/>
+        <v>0.76149999999999995</v>
+      </c>
+      <c r="Z39" s="1">
+        <f t="shared" si="29"/>
+        <v>68.38</v>
+      </c>
+      <c r="AA39" s="1">
+        <f t="shared" si="30"/>
+        <v>13.14</v>
+      </c>
+      <c r="AB39" s="4" t="str">
+        <f t="shared" si="31"/>
+        <v>68,38±13,14</v>
+      </c>
+    </row>
+    <row r="40" spans="2:28" x14ac:dyDescent="0.3">
+      <c r="B40" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C40">
+        <v>0.84930000000000005</v>
+      </c>
+      <c r="D40">
+        <v>0.69</v>
+      </c>
+      <c r="E40">
+        <v>0.51439999999999997</v>
+      </c>
+      <c r="F40">
+        <v>0.50800000000000001</v>
+      </c>
+      <c r="G40">
+        <v>0.91539999999999999</v>
+      </c>
+      <c r="H40">
+        <v>0.51439999999999997</v>
+      </c>
+      <c r="T40" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="U40">
+        <f t="shared" si="24"/>
+        <v>0.67369999999999997</v>
+      </c>
+      <c r="V40">
+        <f t="shared" si="25"/>
+        <v>0.50009999999999999</v>
+      </c>
+      <c r="W40">
+        <f t="shared" si="26"/>
+        <v>0.51439999999999997</v>
+      </c>
+      <c r="X40">
+        <f t="shared" si="27"/>
+        <v>0.76900000000000002</v>
+      </c>
+      <c r="Y40">
+        <f t="shared" si="28"/>
+        <v>0.53920000000000001</v>
+      </c>
+      <c r="Z40" s="1">
+        <f t="shared" si="29"/>
+        <v>59.93</v>
+      </c>
+      <c r="AA40" s="1">
+        <f t="shared" si="30"/>
+        <v>11.73</v>
+      </c>
+      <c r="AB40" s="4" t="str">
+        <f t="shared" si="31"/>
+        <v>59,93±11,73</v>
+      </c>
+    </row>
+    <row r="41" spans="2:28" x14ac:dyDescent="0.3">
+      <c r="B41" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C41">
+        <v>0.97560000000000002</v>
+      </c>
+      <c r="D41">
+        <v>0.86399999999999999</v>
+      </c>
+      <c r="E41">
+        <v>0.72640000000000005</v>
+      </c>
+      <c r="F41">
+        <v>0.77669999999999995</v>
+      </c>
+      <c r="G41">
+        <v>0.95779999999999998</v>
+      </c>
+      <c r="H41">
+        <v>0.72640000000000005</v>
+      </c>
+      <c r="T41" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="U41">
+        <f t="shared" si="24"/>
+        <v>0.79859999999999998</v>
+      </c>
+      <c r="V41">
+        <f t="shared" si="25"/>
+        <v>0.69130000000000003</v>
+      </c>
+      <c r="W41">
+        <f t="shared" si="26"/>
+        <v>0.72640000000000005</v>
+      </c>
+      <c r="X41">
+        <f t="shared" si="27"/>
+        <v>0.7248</v>
+      </c>
+      <c r="Y41">
+        <f t="shared" si="28"/>
+        <v>0.81820000000000004</v>
+      </c>
+      <c r="Z41" s="1">
+        <f t="shared" si="29"/>
+        <v>75.19</v>
+      </c>
+      <c r="AA41" s="1">
+        <f t="shared" si="30"/>
+        <v>5.39</v>
+      </c>
+      <c r="AB41" s="4" t="str">
+        <f t="shared" si="31"/>
+        <v>75,19±5,39</v>
+      </c>
+    </row>
+    <row r="42" spans="2:28" x14ac:dyDescent="0.3">
+      <c r="B42" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C42">
+        <v>0.81479999999999997</v>
+      </c>
+      <c r="D42">
+        <v>0.55130000000000001</v>
+      </c>
+      <c r="E42">
+        <v>0.69</v>
+      </c>
+      <c r="F42">
+        <v>0.54720000000000002</v>
+      </c>
+      <c r="G42">
+        <v>0.80079999999999996</v>
+      </c>
+      <c r="H42">
+        <v>0.69</v>
+      </c>
+      <c r="T42" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="U42">
+        <f t="shared" si="24"/>
+        <v>0.75</v>
+      </c>
+      <c r="V42">
+        <f t="shared" si="25"/>
+        <v>0.67049999999999998</v>
+      </c>
+      <c r="W42">
+        <f t="shared" si="26"/>
+        <v>0.69</v>
+      </c>
+      <c r="X42">
+        <f t="shared" si="27"/>
+        <v>0.7944</v>
+      </c>
+      <c r="Y42">
+        <f t="shared" si="28"/>
+        <v>0.72260000000000002</v>
+      </c>
+      <c r="Z42" s="1">
+        <f t="shared" si="29"/>
+        <v>72.55</v>
+      </c>
+      <c r="AA42" s="1">
+        <f t="shared" si="30"/>
+        <v>4.91</v>
+      </c>
+      <c r="AB42" s="4" t="str">
+        <f t="shared" si="31"/>
+        <v>72,55±4,91</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F96F7C4-C7AD-4417-88E4-BCE75A04BFBB}">
   <dimension ref="B3:AL42"/>
   <sheetViews>
@@ -5961,11 +8957,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5DEA078-0F32-4873-B7D7-443F6BDAD598}">
   <dimension ref="B3:AJ42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="W1" zoomScale="97" zoomScaleNormal="118" workbookViewId="0">
+    <sheetView topLeftCell="W1" zoomScale="97" zoomScaleNormal="118" workbookViewId="0">
       <selection activeCell="AJ18" sqref="AJ18"/>
     </sheetView>
   </sheetViews>
@@ -23146,8 +26142,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F17344F-7929-404B-AB22-F5AC292CEE41}">
   <dimension ref="B3:AL42"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="P9" sqref="P9"/>
+    <sheetView zoomScale="60" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="P44" sqref="P44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -26138,6 +29134,2209 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{174C976B-4DD3-470C-917F-578099A51227}">
+  <dimension ref="B3:AL42"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="O24" sqref="O24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="3" spans="2:38" x14ac:dyDescent="0.3">
+      <c r="B3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="K3" t="s">
+        <v>37</v>
+      </c>
+      <c r="L3" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="M3" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="N3" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="O3" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="P3" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q3" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="T3" t="s">
+        <v>0</v>
+      </c>
+      <c r="U3" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="V3" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="W3" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="X3" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y3" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z3" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA3" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB3" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="AD3" t="s">
+        <v>9</v>
+      </c>
+      <c r="AE3" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF3" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="AG3" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="AH3" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="AI3" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="AJ3" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="AK3" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="AL3" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4" spans="2:38" x14ac:dyDescent="0.3">
+      <c r="B4" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4">
+        <v>0.9446</v>
+      </c>
+      <c r="D4">
+        <v>0.61180000000000001</v>
+      </c>
+      <c r="E4">
+        <v>0.90629999999999999</v>
+      </c>
+      <c r="F4">
+        <v>0.65149999999999997</v>
+      </c>
+      <c r="G4">
+        <v>0.88849999999999996</v>
+      </c>
+      <c r="H4">
+        <v>0.90629999999999999</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="T4" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="U4">
+        <f t="shared" ref="U4:U14" si="0">C4</f>
+        <v>0.9446</v>
+      </c>
+      <c r="V4">
+        <f t="shared" ref="V4:V14" si="1">C18</f>
+        <v>0</v>
+      </c>
+      <c r="W4">
+        <f t="shared" ref="W4:W14" si="2">C32</f>
+        <v>0</v>
+      </c>
+      <c r="X4">
+        <f t="shared" ref="X4:X14" si="3">L4</f>
+        <v>0</v>
+      </c>
+      <c r="Y4">
+        <f t="shared" ref="Y4:Y14" si="4">L18</f>
+        <v>0</v>
+      </c>
+      <c r="Z4" s="1">
+        <f>ROUND(AVERAGE(U4:Y4)*100,2)</f>
+        <v>18.89</v>
+      </c>
+      <c r="AA4" s="1">
+        <f>ROUND(_xlfn.STDEV.S(U4:Y4)*100,2)</f>
+        <v>42.24</v>
+      </c>
+      <c r="AB4" s="4" t="str">
+        <f>_xlfn.CONCAT(Z4,"±",AA4)</f>
+        <v>18,89±42,24</v>
+      </c>
+      <c r="AD4" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="AE4">
+        <f>F4</f>
+        <v>0.65149999999999997</v>
+      </c>
+      <c r="AF4">
+        <f>F18</f>
+        <v>0</v>
+      </c>
+      <c r="AG4">
+        <f>F32</f>
+        <v>0</v>
+      </c>
+      <c r="AH4">
+        <f>O4</f>
+        <v>0</v>
+      </c>
+      <c r="AI4">
+        <f>O18</f>
+        <v>0</v>
+      </c>
+      <c r="AJ4" s="1">
+        <f>ROUND(AVERAGE(AE4:AI4)*100,2)</f>
+        <v>13.03</v>
+      </c>
+      <c r="AK4" s="1">
+        <f>ROUND(_xlfn.STDEV.S(AE4:AI4)*100,2)</f>
+        <v>29.14</v>
+      </c>
+      <c r="AL4" s="4" t="str">
+        <f>_xlfn.CONCAT(AJ4,"±",AK4)</f>
+        <v>13,03±29,14</v>
+      </c>
+    </row>
+    <row r="5" spans="2:38" x14ac:dyDescent="0.3">
+      <c r="B5" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5">
+        <v>0.40429999999999999</v>
+      </c>
+      <c r="D5">
+        <v>0.49490000000000001</v>
+      </c>
+      <c r="E5">
+        <v>0.40029999999999999</v>
+      </c>
+      <c r="F5">
+        <v>0.2084</v>
+      </c>
+      <c r="G5">
+        <v>0.25609999999999999</v>
+      </c>
+      <c r="H5">
+        <v>0.40029999999999999</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="T5" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="U5">
+        <f t="shared" si="0"/>
+        <v>0.40429999999999999</v>
+      </c>
+      <c r="V5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="W5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="X5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Y5">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Z5" s="1">
+        <f t="shared" ref="Z5:Z14" si="5">ROUND(AVERAGE(U5:Y5)*100,2)</f>
+        <v>8.09</v>
+      </c>
+      <c r="AA5" s="1">
+        <f t="shared" ref="AA5:AA14" si="6">ROUND(_xlfn.STDEV.S(U5:Y5)*100,2)</f>
+        <v>18.079999999999998</v>
+      </c>
+      <c r="AB5" s="4" t="str">
+        <f t="shared" ref="AB5:AB14" si="7">_xlfn.CONCAT(Z5,"±",ROUND(AA5,2))</f>
+        <v>8,09±18,08</v>
+      </c>
+      <c r="AD5" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="AE5">
+        <f t="shared" ref="AE5:AE14" si="8">F5</f>
+        <v>0.2084</v>
+      </c>
+      <c r="AF5">
+        <f t="shared" ref="AF5:AF14" si="9">F19</f>
+        <v>0</v>
+      </c>
+      <c r="AG5">
+        <f t="shared" ref="AG5:AG14" si="10">F33</f>
+        <v>0</v>
+      </c>
+      <c r="AH5">
+        <f t="shared" ref="AH5:AH14" si="11">O5</f>
+        <v>0</v>
+      </c>
+      <c r="AI5">
+        <f t="shared" ref="AI5:AI14" si="12">O19</f>
+        <v>0</v>
+      </c>
+      <c r="AJ5" s="1">
+        <f t="shared" ref="AJ5:AJ14" si="13">ROUND(AVERAGE(AE5:AI5)*100,2)</f>
+        <v>4.17</v>
+      </c>
+      <c r="AK5" s="1">
+        <f t="shared" ref="AK5:AK14" si="14">ROUND(_xlfn.STDEV.S(AE5:AI5)*100,2)</f>
+        <v>9.32</v>
+      </c>
+      <c r="AL5" s="4" t="str">
+        <f t="shared" ref="AL5:AL14" si="15">_xlfn.CONCAT(AJ5,"±",ROUND(AK5,2))</f>
+        <v>4,17±9,32</v>
+      </c>
+    </row>
+    <row r="6" spans="2:38" x14ac:dyDescent="0.3">
+      <c r="B6" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6">
+        <v>0.95669999999999999</v>
+      </c>
+      <c r="D6">
+        <v>0.63829999999999998</v>
+      </c>
+      <c r="E6">
+        <v>0.91859999999999997</v>
+      </c>
+      <c r="F6">
+        <v>0.68740000000000001</v>
+      </c>
+      <c r="G6">
+        <v>0.89770000000000005</v>
+      </c>
+      <c r="H6">
+        <v>0.91859999999999997</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="T6" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="U6">
+        <f t="shared" si="0"/>
+        <v>0.95669999999999999</v>
+      </c>
+      <c r="V6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="W6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="X6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Y6">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Z6" s="1">
+        <f t="shared" si="5"/>
+        <v>19.13</v>
+      </c>
+      <c r="AA6" s="1">
+        <f t="shared" si="6"/>
+        <v>42.78</v>
+      </c>
+      <c r="AB6" s="4" t="str">
+        <f t="shared" si="7"/>
+        <v>19,13±42,78</v>
+      </c>
+      <c r="AD6" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="AE6">
+        <f t="shared" si="8"/>
+        <v>0.68740000000000001</v>
+      </c>
+      <c r="AF6">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AG6">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AH6">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AI6">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AJ6" s="1">
+        <f t="shared" si="13"/>
+        <v>13.75</v>
+      </c>
+      <c r="AK6" s="1">
+        <f t="shared" si="14"/>
+        <v>30.74</v>
+      </c>
+      <c r="AL6" s="4" t="str">
+        <f t="shared" si="15"/>
+        <v>13,75±30,74</v>
+      </c>
+    </row>
+    <row r="7" spans="2:38" x14ac:dyDescent="0.3">
+      <c r="B7" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7">
+        <v>0.79810000000000003</v>
+      </c>
+      <c r="D7">
+        <v>0.61370000000000002</v>
+      </c>
+      <c r="E7">
+        <v>0.84130000000000005</v>
+      </c>
+      <c r="F7">
+        <v>0.65680000000000005</v>
+      </c>
+      <c r="G7">
+        <v>0.91279999999999994</v>
+      </c>
+      <c r="H7">
+        <v>0.84130000000000005</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="T7" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="U7">
+        <f t="shared" si="0"/>
+        <v>0.79810000000000003</v>
+      </c>
+      <c r="V7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="W7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="X7">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Y7">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Z7" s="1">
+        <f t="shared" si="5"/>
+        <v>15.96</v>
+      </c>
+      <c r="AA7" s="1">
+        <f t="shared" si="6"/>
+        <v>35.69</v>
+      </c>
+      <c r="AB7" s="4" t="str">
+        <f t="shared" si="7"/>
+        <v>15,96±35,69</v>
+      </c>
+      <c r="AD7" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="AE7">
+        <f t="shared" si="8"/>
+        <v>0.65680000000000005</v>
+      </c>
+      <c r="AF7">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AG7">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AH7">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AI7">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AJ7" s="1">
+        <f t="shared" si="13"/>
+        <v>13.14</v>
+      </c>
+      <c r="AK7" s="1">
+        <f t="shared" si="14"/>
+        <v>29.37</v>
+      </c>
+      <c r="AL7" s="4" t="str">
+        <f t="shared" si="15"/>
+        <v>13,14±29,37</v>
+      </c>
+    </row>
+    <row r="8" spans="2:38" x14ac:dyDescent="0.3">
+      <c r="B8" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8">
+        <v>0.92230000000000001</v>
+      </c>
+      <c r="D8">
+        <v>0.72419999999999995</v>
+      </c>
+      <c r="E8">
+        <v>0.8679</v>
+      </c>
+      <c r="F8">
+        <v>0.77559999999999996</v>
+      </c>
+      <c r="G8">
+        <v>0.95299999999999996</v>
+      </c>
+      <c r="H8">
+        <v>0.8679</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="T8" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="U8">
+        <f t="shared" si="0"/>
+        <v>0.92230000000000001</v>
+      </c>
+      <c r="V8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="W8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="X8">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Y8">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Z8" s="1">
+        <f t="shared" si="5"/>
+        <v>18.45</v>
+      </c>
+      <c r="AA8" s="1">
+        <f t="shared" si="6"/>
+        <v>41.25</v>
+      </c>
+      <c r="AB8" s="4" t="str">
+        <f t="shared" si="7"/>
+        <v>18,45±41,25</v>
+      </c>
+      <c r="AD8" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="AE8">
+        <f t="shared" si="8"/>
+        <v>0.77559999999999996</v>
+      </c>
+      <c r="AF8">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AG8">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AH8">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AI8">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AJ8" s="1">
+        <f t="shared" si="13"/>
+        <v>15.51</v>
+      </c>
+      <c r="AK8" s="1">
+        <f t="shared" si="14"/>
+        <v>34.69</v>
+      </c>
+      <c r="AL8" s="4" t="str">
+        <f t="shared" si="15"/>
+        <v>15,51±34,69</v>
+      </c>
+    </row>
+    <row r="9" spans="2:38" x14ac:dyDescent="0.3">
+      <c r="B9" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9">
+        <v>0.7772</v>
+      </c>
+      <c r="D9">
+        <v>0.81179999999999997</v>
+      </c>
+      <c r="E9">
+        <v>0.5867</v>
+      </c>
+      <c r="F9">
+        <v>0.63070000000000004</v>
+      </c>
+      <c r="G9">
+        <v>0.96619999999999995</v>
+      </c>
+      <c r="H9">
+        <v>0.5867</v>
+      </c>
+      <c r="K9" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="T9" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="U9">
+        <f t="shared" si="0"/>
+        <v>0.7772</v>
+      </c>
+      <c r="V9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="W9">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="X9">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Y9">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Z9" s="1">
+        <f t="shared" si="5"/>
+        <v>15.54</v>
+      </c>
+      <c r="AA9" s="1">
+        <f t="shared" si="6"/>
+        <v>34.76</v>
+      </c>
+      <c r="AB9" s="4" t="str">
+        <f t="shared" si="7"/>
+        <v>15,54±34,76</v>
+      </c>
+      <c r="AD9" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE9">
+        <f t="shared" si="8"/>
+        <v>0.63070000000000004</v>
+      </c>
+      <c r="AF9">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AG9">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AH9">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AI9">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AJ9" s="1">
+        <f t="shared" si="13"/>
+        <v>12.61</v>
+      </c>
+      <c r="AK9" s="1">
+        <f t="shared" si="14"/>
+        <v>28.21</v>
+      </c>
+      <c r="AL9" s="4" t="str">
+        <f t="shared" si="15"/>
+        <v>12,61±28,21</v>
+      </c>
+    </row>
+    <row r="10" spans="2:38" x14ac:dyDescent="0.3">
+      <c r="B10" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10">
+        <v>3.1399999999999997E-2</v>
+      </c>
+      <c r="D10">
+        <v>0.45169999999999999</v>
+      </c>
+      <c r="E10">
+        <v>0.5</v>
+      </c>
+      <c r="F10">
+        <v>0.47460000000000002</v>
+      </c>
+      <c r="G10">
+        <v>0.90339999999999998</v>
+      </c>
+      <c r="H10">
+        <v>0.5</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="T10" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="U10">
+        <f t="shared" si="0"/>
+        <v>3.1399999999999997E-2</v>
+      </c>
+      <c r="V10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="W10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="X10">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Y10">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Z10" s="1">
+        <f t="shared" si="5"/>
+        <v>0.63</v>
+      </c>
+      <c r="AA10" s="1">
+        <f t="shared" si="6"/>
+        <v>1.4</v>
+      </c>
+      <c r="AB10" s="4" t="str">
+        <f t="shared" si="7"/>
+        <v>0,63±1,4</v>
+      </c>
+      <c r="AD10" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE10">
+        <f t="shared" si="8"/>
+        <v>0.47460000000000002</v>
+      </c>
+      <c r="AF10">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AG10">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AH10">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AI10">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AJ10" s="1">
+        <f t="shared" si="13"/>
+        <v>9.49</v>
+      </c>
+      <c r="AK10" s="1">
+        <f t="shared" si="14"/>
+        <v>21.22</v>
+      </c>
+      <c r="AL10" s="4" t="str">
+        <f t="shared" si="15"/>
+        <v>9,49±21,22</v>
+      </c>
+    </row>
+    <row r="11" spans="2:38" x14ac:dyDescent="0.3">
+      <c r="B11" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11">
+        <v>5.04E-2</v>
+      </c>
+      <c r="D11">
+        <v>0.47489999999999999</v>
+      </c>
+      <c r="E11">
+        <v>0.5</v>
+      </c>
+      <c r="F11">
+        <v>0.48709999999999998</v>
+      </c>
+      <c r="G11">
+        <v>0.94969999999999999</v>
+      </c>
+      <c r="H11">
+        <v>0.5</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="T11" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="U11">
+        <f t="shared" si="0"/>
+        <v>5.04E-2</v>
+      </c>
+      <c r="V11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="W11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="X11">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Y11">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Z11" s="1">
+        <f t="shared" si="5"/>
+        <v>1.01</v>
+      </c>
+      <c r="AA11" s="1">
+        <f t="shared" si="6"/>
+        <v>2.25</v>
+      </c>
+      <c r="AB11" s="4" t="str">
+        <f t="shared" si="7"/>
+        <v>1,01±2,25</v>
+      </c>
+      <c r="AD11" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="AE11">
+        <f t="shared" si="8"/>
+        <v>0.48709999999999998</v>
+      </c>
+      <c r="AF11">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AG11">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AH11">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AI11">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AJ11" s="1">
+        <f t="shared" si="13"/>
+        <v>9.74</v>
+      </c>
+      <c r="AK11" s="1">
+        <f t="shared" si="14"/>
+        <v>21.78</v>
+      </c>
+      <c r="AL11" s="4" t="str">
+        <f t="shared" si="15"/>
+        <v>9,74±21,78</v>
+      </c>
+    </row>
+    <row r="12" spans="2:38" x14ac:dyDescent="0.3">
+      <c r="B12" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C12">
+        <v>4.0599999999999997E-2</v>
+      </c>
+      <c r="D12">
+        <v>0.45789999999999997</v>
+      </c>
+      <c r="E12">
+        <v>0.5</v>
+      </c>
+      <c r="F12">
+        <v>0.47799999999999998</v>
+      </c>
+      <c r="G12">
+        <v>0.91590000000000005</v>
+      </c>
+      <c r="H12">
+        <v>0.5</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="T12" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="U12">
+        <f t="shared" si="0"/>
+        <v>4.0599999999999997E-2</v>
+      </c>
+      <c r="V12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="W12">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="X12">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Y12">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Z12" s="1">
+        <f t="shared" si="5"/>
+        <v>0.81</v>
+      </c>
+      <c r="AA12" s="1">
+        <f t="shared" si="6"/>
+        <v>1.82</v>
+      </c>
+      <c r="AB12" s="4" t="str">
+        <f t="shared" si="7"/>
+        <v>0,81±1,82</v>
+      </c>
+      <c r="AD12" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="AE12">
+        <f t="shared" si="8"/>
+        <v>0.47799999999999998</v>
+      </c>
+      <c r="AF12">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AG12">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AH12">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AI12">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AJ12" s="1">
+        <f t="shared" si="13"/>
+        <v>9.56</v>
+      </c>
+      <c r="AK12" s="1">
+        <f t="shared" si="14"/>
+        <v>21.38</v>
+      </c>
+      <c r="AL12" s="4" t="str">
+        <f t="shared" si="15"/>
+        <v>9,56±21,38</v>
+      </c>
+    </row>
+    <row r="13" spans="2:38" x14ac:dyDescent="0.3">
+      <c r="B13" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C13">
+        <v>0.82640000000000002</v>
+      </c>
+      <c r="D13">
+        <v>0.79810000000000003</v>
+      </c>
+      <c r="E13">
+        <v>0.71660000000000001</v>
+      </c>
+      <c r="F13">
+        <v>0.74970000000000003</v>
+      </c>
+      <c r="G13">
+        <v>0.94969999999999999</v>
+      </c>
+      <c r="H13">
+        <v>0.71660000000000001</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="T13" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="U13">
+        <f t="shared" si="0"/>
+        <v>0.82640000000000002</v>
+      </c>
+      <c r="V13">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="W13">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="X13">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Y13">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Z13" s="1">
+        <f t="shared" si="5"/>
+        <v>16.53</v>
+      </c>
+      <c r="AA13" s="1">
+        <f t="shared" si="6"/>
+        <v>36.96</v>
+      </c>
+      <c r="AB13" s="4" t="str">
+        <f t="shared" si="7"/>
+        <v>16,53±36,96</v>
+      </c>
+      <c r="AD13" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="AE13">
+        <f t="shared" si="8"/>
+        <v>0.74970000000000003</v>
+      </c>
+      <c r="AF13">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AG13">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AH13">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AI13">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AJ13" s="1">
+        <f t="shared" si="13"/>
+        <v>14.99</v>
+      </c>
+      <c r="AK13" s="1">
+        <f t="shared" si="14"/>
+        <v>33.53</v>
+      </c>
+      <c r="AL13" s="4" t="str">
+        <f t="shared" si="15"/>
+        <v>14,99±33,53</v>
+      </c>
+    </row>
+    <row r="14" spans="2:38" x14ac:dyDescent="0.3">
+      <c r="B14" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C14">
+        <v>0.54049999999999998</v>
+      </c>
+      <c r="D14">
+        <v>0.54239999999999999</v>
+      </c>
+      <c r="E14">
+        <v>0.61519999999999997</v>
+      </c>
+      <c r="F14">
+        <v>0.54759999999999998</v>
+      </c>
+      <c r="G14">
+        <v>0.84789999999999999</v>
+      </c>
+      <c r="H14">
+        <v>0.61519999999999997</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="T14" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="U14">
+        <f t="shared" si="0"/>
+        <v>0.54049999999999998</v>
+      </c>
+      <c r="V14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="W14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="X14">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Y14">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Z14" s="1">
+        <f t="shared" si="5"/>
+        <v>10.81</v>
+      </c>
+      <c r="AA14" s="1">
+        <f t="shared" si="6"/>
+        <v>24.17</v>
+      </c>
+      <c r="AB14" s="4" t="str">
+        <f t="shared" si="7"/>
+        <v>10,81±24,17</v>
+      </c>
+      <c r="AD14" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="AE14">
+        <f t="shared" si="8"/>
+        <v>0.54759999999999998</v>
+      </c>
+      <c r="AF14">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AG14">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AH14">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AI14">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AJ14" s="1">
+        <f t="shared" si="13"/>
+        <v>10.95</v>
+      </c>
+      <c r="AK14" s="1">
+        <f t="shared" si="14"/>
+        <v>24.49</v>
+      </c>
+      <c r="AL14" s="4" t="str">
+        <f t="shared" si="15"/>
+        <v>10,95±24,49</v>
+      </c>
+    </row>
+    <row r="17" spans="2:28" x14ac:dyDescent="0.3">
+      <c r="B17" t="s">
+        <v>35</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G17" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H17" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="K17" t="s">
+        <v>38</v>
+      </c>
+      <c r="L17" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="M17" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="N17" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="O17" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="P17" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q17" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="T17" t="s">
+        <v>11</v>
+      </c>
+      <c r="U17" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="V17" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="W17" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="X17" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y17" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z17" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA17" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB17" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="18" spans="2:28" x14ac:dyDescent="0.3">
+      <c r="B18" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="T18" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="U18">
+        <f>H4</f>
+        <v>0.90629999999999999</v>
+      </c>
+      <c r="V18">
+        <f>H18</f>
+        <v>0</v>
+      </c>
+      <c r="W18">
+        <f>H32</f>
+        <v>0</v>
+      </c>
+      <c r="X18">
+        <f>Q4</f>
+        <v>0</v>
+      </c>
+      <c r="Y18">
+        <f>Q18</f>
+        <v>0</v>
+      </c>
+      <c r="Z18" s="1">
+        <f>ROUND(AVERAGE(U18:Y18)*100,2)</f>
+        <v>18.13</v>
+      </c>
+      <c r="AA18" s="1">
+        <f>ROUND(_xlfn.STDEV.S(U18:Y18)*100,2)</f>
+        <v>40.53</v>
+      </c>
+      <c r="AB18" s="4" t="str">
+        <f>_xlfn.CONCAT(Z18,"±",AA18)</f>
+        <v>18,13±40,53</v>
+      </c>
+    </row>
+    <row r="19" spans="2:28" x14ac:dyDescent="0.3">
+      <c r="B19" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="T19" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="U19">
+        <f t="shared" ref="U19:U28" si="16">H5</f>
+        <v>0.40029999999999999</v>
+      </c>
+      <c r="V19">
+        <f t="shared" ref="V19:V28" si="17">H19</f>
+        <v>0</v>
+      </c>
+      <c r="W19">
+        <f t="shared" ref="W19:W28" si="18">H33</f>
+        <v>0</v>
+      </c>
+      <c r="X19">
+        <f t="shared" ref="X19:X28" si="19">Q5</f>
+        <v>0</v>
+      </c>
+      <c r="Y19">
+        <f t="shared" ref="Y19:Y28" si="20">Q19</f>
+        <v>0</v>
+      </c>
+      <c r="Z19" s="1">
+        <f t="shared" ref="Z19:Z28" si="21">ROUND(AVERAGE(U19:Y19)*100,2)</f>
+        <v>8.01</v>
+      </c>
+      <c r="AA19" s="1">
+        <f t="shared" ref="AA19:AA28" si="22">ROUND(_xlfn.STDEV.S(U19:Y19)*100,2)</f>
+        <v>17.899999999999999</v>
+      </c>
+      <c r="AB19" s="4" t="str">
+        <f t="shared" ref="AB19:AB28" si="23">_xlfn.CONCAT(Z19,"±",ROUND(AA19,2))</f>
+        <v>8,01±17,9</v>
+      </c>
+    </row>
+    <row r="20" spans="2:28" x14ac:dyDescent="0.3">
+      <c r="B20" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="T20" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="U20">
+        <f t="shared" si="16"/>
+        <v>0.91859999999999997</v>
+      </c>
+      <c r="V20">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="W20">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="X20">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="Y20">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="Z20" s="1">
+        <f t="shared" si="21"/>
+        <v>18.37</v>
+      </c>
+      <c r="AA20" s="1">
+        <f t="shared" si="22"/>
+        <v>41.08</v>
+      </c>
+      <c r="AB20" s="4" t="str">
+        <f t="shared" si="23"/>
+        <v>18,37±41,08</v>
+      </c>
+    </row>
+    <row r="21" spans="2:28" x14ac:dyDescent="0.3">
+      <c r="B21" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="K21" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="T21" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="U21">
+        <f t="shared" si="16"/>
+        <v>0.84130000000000005</v>
+      </c>
+      <c r="V21">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="W21">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="X21">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="Y21">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="Z21" s="1">
+        <f t="shared" si="21"/>
+        <v>16.829999999999998</v>
+      </c>
+      <c r="AA21" s="1">
+        <f t="shared" si="22"/>
+        <v>37.619999999999997</v>
+      </c>
+      <c r="AB21" s="4" t="str">
+        <f t="shared" si="23"/>
+        <v>16,83±37,62</v>
+      </c>
+    </row>
+    <row r="22" spans="2:28" x14ac:dyDescent="0.3">
+      <c r="B22" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="T22" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="U22">
+        <f t="shared" si="16"/>
+        <v>0.8679</v>
+      </c>
+      <c r="V22">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="W22">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="X22">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="Y22">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="Z22" s="1">
+        <f t="shared" si="21"/>
+        <v>17.36</v>
+      </c>
+      <c r="AA22" s="1">
+        <f t="shared" si="22"/>
+        <v>38.81</v>
+      </c>
+      <c r="AB22" s="4" t="str">
+        <f t="shared" si="23"/>
+        <v>17,36±38,81</v>
+      </c>
+    </row>
+    <row r="23" spans="2:28" x14ac:dyDescent="0.3">
+      <c r="B23" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="T23" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="U23">
+        <f t="shared" si="16"/>
+        <v>0.5867</v>
+      </c>
+      <c r="V23">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="W23">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="X23">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="Y23">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="Z23" s="1">
+        <f t="shared" si="21"/>
+        <v>11.73</v>
+      </c>
+      <c r="AA23" s="1">
+        <f t="shared" si="22"/>
+        <v>26.24</v>
+      </c>
+      <c r="AB23" s="4" t="str">
+        <f t="shared" si="23"/>
+        <v>11,73±26,24</v>
+      </c>
+    </row>
+    <row r="24" spans="2:28" x14ac:dyDescent="0.3">
+      <c r="B24" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="T24" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="U24">
+        <f t="shared" si="16"/>
+        <v>0.5</v>
+      </c>
+      <c r="V24">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="W24">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="X24">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="Y24">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="Z24" s="1">
+        <f t="shared" si="21"/>
+        <v>10</v>
+      </c>
+      <c r="AA24" s="1">
+        <f t="shared" si="22"/>
+        <v>22.36</v>
+      </c>
+      <c r="AB24" s="4" t="str">
+        <f t="shared" si="23"/>
+        <v>10±22,36</v>
+      </c>
+    </row>
+    <row r="25" spans="2:28" x14ac:dyDescent="0.3">
+      <c r="B25" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="T25" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="U25">
+        <f t="shared" si="16"/>
+        <v>0.5</v>
+      </c>
+      <c r="V25">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="W25">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="X25">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="Y25">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="Z25" s="1">
+        <f t="shared" si="21"/>
+        <v>10</v>
+      </c>
+      <c r="AA25" s="1">
+        <f t="shared" si="22"/>
+        <v>22.36</v>
+      </c>
+      <c r="AB25" s="4" t="str">
+        <f t="shared" si="23"/>
+        <v>10±22,36</v>
+      </c>
+    </row>
+    <row r="26" spans="2:28" x14ac:dyDescent="0.3">
+      <c r="B26" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="T26" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="U26">
+        <f t="shared" si="16"/>
+        <v>0.5</v>
+      </c>
+      <c r="V26">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="W26">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="X26">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="Y26">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="Z26" s="1">
+        <f t="shared" si="21"/>
+        <v>10</v>
+      </c>
+      <c r="AA26" s="1">
+        <f t="shared" si="22"/>
+        <v>22.36</v>
+      </c>
+      <c r="AB26" s="4" t="str">
+        <f t="shared" si="23"/>
+        <v>10±22,36</v>
+      </c>
+    </row>
+    <row r="27" spans="2:28" x14ac:dyDescent="0.3">
+      <c r="B27" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="T27" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="U27">
+        <f t="shared" si="16"/>
+        <v>0.71660000000000001</v>
+      </c>
+      <c r="V27">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="W27">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="X27">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="Y27">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="Z27" s="1">
+        <f t="shared" si="21"/>
+        <v>14.33</v>
+      </c>
+      <c r="AA27" s="1">
+        <f t="shared" si="22"/>
+        <v>32.049999999999997</v>
+      </c>
+      <c r="AB27" s="4" t="str">
+        <f t="shared" si="23"/>
+        <v>14,33±32,05</v>
+      </c>
+    </row>
+    <row r="28" spans="2:28" x14ac:dyDescent="0.3">
+      <c r="B28" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="T28" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="U28">
+        <f t="shared" si="16"/>
+        <v>0.61519999999999997</v>
+      </c>
+      <c r="V28">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="W28">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="X28">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="Y28">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="Z28" s="1">
+        <f t="shared" si="21"/>
+        <v>12.3</v>
+      </c>
+      <c r="AA28" s="1">
+        <f t="shared" si="22"/>
+        <v>27.51</v>
+      </c>
+      <c r="AB28" s="4" t="str">
+        <f t="shared" si="23"/>
+        <v>12,3±27,51</v>
+      </c>
+    </row>
+    <row r="31" spans="2:28" x14ac:dyDescent="0.3">
+      <c r="B31" t="s">
+        <v>36</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D31" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E31" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F31" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G31" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H31" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="T31" t="s">
+        <v>193</v>
+      </c>
+      <c r="U31" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="V31" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="W31" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="X31" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y31" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z31" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA31" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB31" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="32" spans="2:28" x14ac:dyDescent="0.3">
+      <c r="B32" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="T32" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="U32">
+        <f>E4</f>
+        <v>0.90629999999999999</v>
+      </c>
+      <c r="V32">
+        <f>E18</f>
+        <v>0</v>
+      </c>
+      <c r="W32">
+        <f>E32</f>
+        <v>0</v>
+      </c>
+      <c r="X32">
+        <f>N4</f>
+        <v>0</v>
+      </c>
+      <c r="Y32">
+        <f>N18</f>
+        <v>0</v>
+      </c>
+      <c r="Z32" s="1">
+        <f>ROUND(AVERAGE(U32:Y32)*100,2)</f>
+        <v>18.13</v>
+      </c>
+      <c r="AA32" s="1">
+        <f>ROUND(_xlfn.STDEV.S(U32:Y32)*100,2)</f>
+        <v>40.53</v>
+      </c>
+      <c r="AB32" s="4" t="str">
+        <f>_xlfn.CONCAT(Z32,"±",AA32)</f>
+        <v>18,13±40,53</v>
+      </c>
+    </row>
+    <row r="33" spans="2:28" x14ac:dyDescent="0.3">
+      <c r="B33" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="T33" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="U33">
+        <f t="shared" ref="U33:U42" si="24">E5</f>
+        <v>0.40029999999999999</v>
+      </c>
+      <c r="V33">
+        <f t="shared" ref="V33:V42" si="25">E19</f>
+        <v>0</v>
+      </c>
+      <c r="W33">
+        <f t="shared" ref="W33:W42" si="26">E33</f>
+        <v>0</v>
+      </c>
+      <c r="X33">
+        <f t="shared" ref="X33:X42" si="27">N5</f>
+        <v>0</v>
+      </c>
+      <c r="Y33">
+        <f t="shared" ref="Y33:Y42" si="28">N19</f>
+        <v>0</v>
+      </c>
+      <c r="Z33" s="1">
+        <f t="shared" ref="Z33:Z42" si="29">ROUND(AVERAGE(U33:Y33)*100,2)</f>
+        <v>8.01</v>
+      </c>
+      <c r="AA33" s="1">
+        <f t="shared" ref="AA33:AA42" si="30">ROUND(_xlfn.STDEV.S(U33:Y33)*100,2)</f>
+        <v>17.899999999999999</v>
+      </c>
+      <c r="AB33" s="4" t="str">
+        <f t="shared" ref="AB33:AB42" si="31">_xlfn.CONCAT(Z33,"±",AA33)</f>
+        <v>8,01±17,9</v>
+      </c>
+    </row>
+    <row r="34" spans="2:28" x14ac:dyDescent="0.3">
+      <c r="B34" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="T34" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="U34">
+        <f t="shared" si="24"/>
+        <v>0.91859999999999997</v>
+      </c>
+      <c r="V34">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="W34">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="X34">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="Y34">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="Z34" s="1">
+        <f t="shared" si="29"/>
+        <v>18.37</v>
+      </c>
+      <c r="AA34" s="1">
+        <f t="shared" si="30"/>
+        <v>41.08</v>
+      </c>
+      <c r="AB34" s="4" t="str">
+        <f t="shared" si="31"/>
+        <v>18,37±41,08</v>
+      </c>
+    </row>
+    <row r="35" spans="2:28" x14ac:dyDescent="0.3">
+      <c r="B35" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="T35" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="U35">
+        <f t="shared" si="24"/>
+        <v>0.84130000000000005</v>
+      </c>
+      <c r="V35">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="W35">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="X35">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="Y35">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="Z35" s="1">
+        <f t="shared" si="29"/>
+        <v>16.829999999999998</v>
+      </c>
+      <c r="AA35" s="1">
+        <f t="shared" si="30"/>
+        <v>37.619999999999997</v>
+      </c>
+      <c r="AB35" s="4" t="str">
+        <f t="shared" si="31"/>
+        <v>16,83±37,62</v>
+      </c>
+    </row>
+    <row r="36" spans="2:28" x14ac:dyDescent="0.3">
+      <c r="B36" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="T36" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="U36">
+        <f t="shared" si="24"/>
+        <v>0.8679</v>
+      </c>
+      <c r="V36">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="W36">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="X36">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="Y36">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="Z36" s="1">
+        <f t="shared" si="29"/>
+        <v>17.36</v>
+      </c>
+      <c r="AA36" s="1">
+        <f t="shared" si="30"/>
+        <v>38.81</v>
+      </c>
+      <c r="AB36" s="4" t="str">
+        <f t="shared" si="31"/>
+        <v>17,36±38,81</v>
+      </c>
+    </row>
+    <row r="37" spans="2:28" x14ac:dyDescent="0.3">
+      <c r="B37" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="T37" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="U37">
+        <f t="shared" si="24"/>
+        <v>0.5867</v>
+      </c>
+      <c r="V37">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="W37">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="X37">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="Y37">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="Z37" s="1">
+        <f t="shared" si="29"/>
+        <v>11.73</v>
+      </c>
+      <c r="AA37" s="1">
+        <f t="shared" si="30"/>
+        <v>26.24</v>
+      </c>
+      <c r="AB37" s="4" t="str">
+        <f t="shared" si="31"/>
+        <v>11,73±26,24</v>
+      </c>
+    </row>
+    <row r="38" spans="2:28" x14ac:dyDescent="0.3">
+      <c r="B38" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="T38" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="U38">
+        <f t="shared" si="24"/>
+        <v>0.5</v>
+      </c>
+      <c r="V38">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="W38">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="X38">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="Y38">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="Z38" s="1">
+        <f t="shared" si="29"/>
+        <v>10</v>
+      </c>
+      <c r="AA38" s="1">
+        <f t="shared" si="30"/>
+        <v>22.36</v>
+      </c>
+      <c r="AB38" s="4" t="str">
+        <f t="shared" si="31"/>
+        <v>10±22,36</v>
+      </c>
+    </row>
+    <row r="39" spans="2:28" x14ac:dyDescent="0.3">
+      <c r="B39" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="T39" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="U39">
+        <f t="shared" si="24"/>
+        <v>0.5</v>
+      </c>
+      <c r="V39">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="W39">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="X39">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="Y39">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="Z39" s="1">
+        <f t="shared" si="29"/>
+        <v>10</v>
+      </c>
+      <c r="AA39" s="1">
+        <f t="shared" si="30"/>
+        <v>22.36</v>
+      </c>
+      <c r="AB39" s="4" t="str">
+        <f t="shared" si="31"/>
+        <v>10±22,36</v>
+      </c>
+    </row>
+    <row r="40" spans="2:28" x14ac:dyDescent="0.3">
+      <c r="B40" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="T40" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="U40">
+        <f t="shared" si="24"/>
+        <v>0.5</v>
+      </c>
+      <c r="V40">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="W40">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="X40">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="Y40">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="Z40" s="1">
+        <f t="shared" si="29"/>
+        <v>10</v>
+      </c>
+      <c r="AA40" s="1">
+        <f t="shared" si="30"/>
+        <v>22.36</v>
+      </c>
+      <c r="AB40" s="4" t="str">
+        <f t="shared" si="31"/>
+        <v>10±22,36</v>
+      </c>
+    </row>
+    <row r="41" spans="2:28" x14ac:dyDescent="0.3">
+      <c r="B41" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="T41" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="U41">
+        <f t="shared" si="24"/>
+        <v>0.71660000000000001</v>
+      </c>
+      <c r="V41">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="W41">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="X41">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="Y41">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="Z41" s="1">
+        <f t="shared" si="29"/>
+        <v>14.33</v>
+      </c>
+      <c r="AA41" s="1">
+        <f t="shared" si="30"/>
+        <v>32.049999999999997</v>
+      </c>
+      <c r="AB41" s="4" t="str">
+        <f t="shared" si="31"/>
+        <v>14,33±32,05</v>
+      </c>
+    </row>
+    <row r="42" spans="2:28" x14ac:dyDescent="0.3">
+      <c r="B42" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="T42" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="U42">
+        <f t="shared" si="24"/>
+        <v>0.61519999999999997</v>
+      </c>
+      <c r="V42">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="W42">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="X42">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="Y42">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="Z42" s="1">
+        <f t="shared" si="29"/>
+        <v>12.3</v>
+      </c>
+      <c r="AA42" s="1">
+        <f t="shared" si="30"/>
+        <v>27.51</v>
+      </c>
+      <c r="AB42" s="4" t="str">
+        <f t="shared" si="31"/>
+        <v>12,3±27,51</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A47146AD-2BE9-484D-B90D-C91FDF3F8119}">
   <dimension ref="B3:AL42"/>
   <sheetViews>
@@ -29130,2999 +34329,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E507A6B0-20A8-4D23-8CE9-4D003BA9CAB1}">
-  <dimension ref="B3:AL42"/>
-  <sheetViews>
-    <sheetView topLeftCell="L7" zoomScale="86" workbookViewId="0">
-      <selection activeCell="AL14" sqref="AL4:AL14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="3" spans="2:38" x14ac:dyDescent="0.3">
-      <c r="B3" t="s">
-        <v>33</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="H3" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="K3" t="s">
-        <v>37</v>
-      </c>
-      <c r="L3" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="M3" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="N3" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="O3" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="P3" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q3" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="T3" t="s">
-        <v>0</v>
-      </c>
-      <c r="U3" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="V3" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="W3" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="X3" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="Y3" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z3" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="AA3" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="AB3" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="AD3" t="s">
-        <v>9</v>
-      </c>
-      <c r="AE3" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="AF3" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="AG3" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="AH3" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="AI3" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="AJ3" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="AK3" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="AL3" s="5" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="4" spans="2:38" x14ac:dyDescent="0.3">
-      <c r="B4" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C4">
-        <v>0.94520000000000004</v>
-      </c>
-      <c r="D4">
-        <v>0.59009999999999996</v>
-      </c>
-      <c r="E4">
-        <v>0.88590000000000002</v>
-      </c>
-      <c r="F4">
-        <v>0.61299999999999999</v>
-      </c>
-      <c r="G4">
-        <v>0.85640000000000005</v>
-      </c>
-      <c r="H4">
-        <v>0.88590000000000002</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="L4">
-        <v>0.95450000000000002</v>
-      </c>
-      <c r="M4">
-        <v>0.62560000000000004</v>
-      </c>
-      <c r="N4">
-        <v>0.86870000000000003</v>
-      </c>
-      <c r="O4">
-        <v>0.67279999999999995</v>
-      </c>
-      <c r="P4">
-        <v>0.91239999999999999</v>
-      </c>
-      <c r="Q4">
-        <v>0.86870000000000003</v>
-      </c>
-      <c r="T4" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="U4">
-        <f t="shared" ref="U4:U14" si="0">C4</f>
-        <v>0.94520000000000004</v>
-      </c>
-      <c r="V4">
-        <f t="shared" ref="V4:V14" si="1">C18</f>
-        <v>0.95840000000000003</v>
-      </c>
-      <c r="W4">
-        <f t="shared" ref="W4:W14" si="2">C32</f>
-        <v>0.93520000000000003</v>
-      </c>
-      <c r="X4">
-        <f t="shared" ref="X4:X14" si="3">L4</f>
-        <v>0.95450000000000002</v>
-      </c>
-      <c r="Y4">
-        <f t="shared" ref="Y4:Y14" si="4">L18</f>
-        <v>0.93820000000000003</v>
-      </c>
-      <c r="Z4" s="1">
-        <f>ROUND(AVERAGE(U4:Y4)*100,2)</f>
-        <v>94.63</v>
-      </c>
-      <c r="AA4" s="1">
-        <f>ROUND(_xlfn.STDEV.S(U4:Y4)*100,2)</f>
-        <v>1</v>
-      </c>
-      <c r="AB4" s="4" t="str">
-        <f>_xlfn.CONCAT(Z4,"±",AA4)</f>
-        <v>94,63±1</v>
-      </c>
-      <c r="AD4" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="AE4">
-        <f>F4</f>
-        <v>0.61299999999999999</v>
-      </c>
-      <c r="AF4">
-        <f>F18</f>
-        <v>0.65390000000000004</v>
-      </c>
-      <c r="AG4">
-        <f>F32</f>
-        <v>0.63800000000000001</v>
-      </c>
-      <c r="AH4">
-        <f>O4</f>
-        <v>0.67279999999999995</v>
-      </c>
-      <c r="AI4">
-        <f>O18</f>
-        <v>0.62180000000000002</v>
-      </c>
-      <c r="AJ4" s="1">
-        <f>ROUND(AVERAGE(AE4:AI4)*100,2)</f>
-        <v>63.99</v>
-      </c>
-      <c r="AK4" s="1">
-        <f>ROUND(_xlfn.STDEV.S(AE4:AI4)*100,2)</f>
-        <v>2.42</v>
-      </c>
-      <c r="AL4" s="4" t="str">
-        <f>_xlfn.CONCAT(AJ4,"±",AK4)</f>
-        <v>63,99±2,42</v>
-      </c>
-    </row>
-    <row r="5" spans="2:38" x14ac:dyDescent="0.3">
-      <c r="B5" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="C5">
-        <v>0.7833</v>
-      </c>
-      <c r="D5">
-        <v>0.50609999999999999</v>
-      </c>
-      <c r="E5">
-        <v>0.60699999999999998</v>
-      </c>
-      <c r="F5">
-        <v>0.18940000000000001</v>
-      </c>
-      <c r="G5">
-        <v>0.22289999999999999</v>
-      </c>
-      <c r="H5">
-        <v>0.60699999999999998</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="L5">
-        <v>0.87649999999999995</v>
-      </c>
-      <c r="M5">
-        <v>0.50639999999999996</v>
-      </c>
-      <c r="N5">
-        <v>0.62560000000000004</v>
-      </c>
-      <c r="O5">
-        <v>0.2165</v>
-      </c>
-      <c r="P5">
-        <v>0.26300000000000001</v>
-      </c>
-      <c r="Q5">
-        <v>0.62560000000000004</v>
-      </c>
-      <c r="T5" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="U5">
-        <f t="shared" si="0"/>
-        <v>0.7833</v>
-      </c>
-      <c r="V5">
-        <f t="shared" si="1"/>
-        <v>0.85550000000000004</v>
-      </c>
-      <c r="W5">
-        <f t="shared" si="2"/>
-        <v>0.81030000000000002</v>
-      </c>
-      <c r="X5">
-        <f t="shared" si="3"/>
-        <v>0.87649999999999995</v>
-      </c>
-      <c r="Y5">
-        <f t="shared" si="4"/>
-        <v>0.81840000000000002</v>
-      </c>
-      <c r="Z5" s="1">
-        <f t="shared" ref="Z5:Z14" si="5">ROUND(AVERAGE(U5:Y5)*100,2)</f>
-        <v>82.88</v>
-      </c>
-      <c r="AA5" s="1">
-        <f t="shared" ref="AA5:AA14" si="6">ROUND(_xlfn.STDEV.S(U5:Y5)*100,2)</f>
-        <v>3.71</v>
-      </c>
-      <c r="AB5" s="4" t="str">
-        <f t="shared" ref="AB5:AB14" si="7">_xlfn.CONCAT(Z5,"±",ROUND(AA5,2))</f>
-        <v>82,88±3,71</v>
-      </c>
-      <c r="AD5" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="AE5">
-        <f t="shared" ref="AE5:AE14" si="8">F5</f>
-        <v>0.18940000000000001</v>
-      </c>
-      <c r="AF5">
-        <f t="shared" ref="AF5:AF14" si="9">F19</f>
-        <v>0.23960000000000001</v>
-      </c>
-      <c r="AG5">
-        <f t="shared" ref="AG5:AG14" si="10">F33</f>
-        <v>0.2009</v>
-      </c>
-      <c r="AH5">
-        <f t="shared" ref="AH5:AH14" si="11">O5</f>
-        <v>0.2165</v>
-      </c>
-      <c r="AI5">
-        <f t="shared" ref="AI5:AI14" si="12">O19</f>
-        <v>0.187</v>
-      </c>
-      <c r="AJ5" s="1">
-        <f t="shared" ref="AJ5:AJ14" si="13">ROUND(AVERAGE(AE5:AI5)*100,2)</f>
-        <v>20.67</v>
-      </c>
-      <c r="AK5" s="1">
-        <f t="shared" ref="AK5:AK14" si="14">ROUND(_xlfn.STDEV.S(AE5:AI5)*100,2)</f>
-        <v>2.1800000000000002</v>
-      </c>
-      <c r="AL5" s="4" t="str">
-        <f t="shared" ref="AL5:AL14" si="15">_xlfn.CONCAT(AJ5,"±",ROUND(AK5,2))</f>
-        <v>20,67±2,18</v>
-      </c>
-    </row>
-    <row r="6" spans="2:38" x14ac:dyDescent="0.3">
-      <c r="B6" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="C6">
-        <v>0.96579999999999999</v>
-      </c>
-      <c r="D6">
-        <v>0.54749999999999999</v>
-      </c>
-      <c r="E6">
-        <v>0.79549999999999998</v>
-      </c>
-      <c r="F6">
-        <v>0.45839999999999997</v>
-      </c>
-      <c r="G6">
-        <v>0.60819999999999996</v>
-      </c>
-      <c r="H6">
-        <v>0.79549999999999998</v>
-      </c>
-      <c r="K6" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="L6">
-        <v>0.96760000000000002</v>
-      </c>
-      <c r="M6">
-        <v>0.56110000000000004</v>
-      </c>
-      <c r="N6">
-        <v>0.84430000000000005</v>
-      </c>
-      <c r="O6">
-        <v>0.51890000000000003</v>
-      </c>
-      <c r="P6">
-        <v>0.70679999999999998</v>
-      </c>
-      <c r="Q6">
-        <v>0.84430000000000005</v>
-      </c>
-      <c r="T6" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="U6">
-        <f t="shared" si="0"/>
-        <v>0.96579999999999999</v>
-      </c>
-      <c r="V6">
-        <f t="shared" si="1"/>
-        <v>0.94079999999999997</v>
-      </c>
-      <c r="W6">
-        <f t="shared" si="2"/>
-        <v>0.96330000000000005</v>
-      </c>
-      <c r="X6">
-        <f t="shared" si="3"/>
-        <v>0.96760000000000002</v>
-      </c>
-      <c r="Y6">
-        <f t="shared" si="4"/>
-        <v>0.97</v>
-      </c>
-      <c r="Z6" s="1">
-        <f t="shared" si="5"/>
-        <v>96.15</v>
-      </c>
-      <c r="AA6" s="1">
-        <f t="shared" si="6"/>
-        <v>1.18</v>
-      </c>
-      <c r="AB6" s="4" t="str">
-        <f t="shared" si="7"/>
-        <v>96,15±1,18</v>
-      </c>
-      <c r="AD6" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="AE6">
-        <f t="shared" si="8"/>
-        <v>0.45839999999999997</v>
-      </c>
-      <c r="AF6">
-        <f t="shared" si="9"/>
-        <v>0.40620000000000001</v>
-      </c>
-      <c r="AG6">
-        <f t="shared" si="10"/>
-        <v>0.5504</v>
-      </c>
-      <c r="AH6">
-        <f t="shared" si="11"/>
-        <v>0.51890000000000003</v>
-      </c>
-      <c r="AI6">
-        <f t="shared" si="12"/>
-        <v>0.51539999999999997</v>
-      </c>
-      <c r="AJ6" s="1">
-        <f t="shared" si="13"/>
-        <v>48.99</v>
-      </c>
-      <c r="AK6" s="1">
-        <f t="shared" si="14"/>
-        <v>5.73</v>
-      </c>
-      <c r="AL6" s="4" t="str">
-        <f t="shared" si="15"/>
-        <v>48,99±5,73</v>
-      </c>
-    </row>
-    <row r="7" spans="2:38" x14ac:dyDescent="0.3">
-      <c r="B7" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="C7">
-        <v>0.98219999999999996</v>
-      </c>
-      <c r="D7">
-        <v>0.56620000000000004</v>
-      </c>
-      <c r="E7">
-        <v>0.89100000000000001</v>
-      </c>
-      <c r="F7">
-        <v>0.55610000000000004</v>
-      </c>
-      <c r="G7">
-        <v>0.78979999999999995</v>
-      </c>
-      <c r="H7">
-        <v>0.89100000000000001</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="L7">
-        <v>0.98609999999999998</v>
-      </c>
-      <c r="M7">
-        <v>0.5958</v>
-      </c>
-      <c r="N7">
-        <v>0.92749999999999999</v>
-      </c>
-      <c r="O7">
-        <v>0.62350000000000005</v>
-      </c>
-      <c r="P7">
-        <v>0.86529999999999996</v>
-      </c>
-      <c r="Q7">
-        <v>0.92749999999999999</v>
-      </c>
-      <c r="T7" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="U7">
-        <f t="shared" si="0"/>
-        <v>0.98219999999999996</v>
-      </c>
-      <c r="V7">
-        <f t="shared" si="1"/>
-        <v>0.97540000000000004</v>
-      </c>
-      <c r="W7">
-        <f t="shared" si="2"/>
-        <v>0.98240000000000005</v>
-      </c>
-      <c r="X7">
-        <f t="shared" si="3"/>
-        <v>0.98609999999999998</v>
-      </c>
-      <c r="Y7">
-        <f t="shared" si="4"/>
-        <v>0.98399999999999999</v>
-      </c>
-      <c r="Z7" s="1">
-        <f t="shared" si="5"/>
-        <v>98.2</v>
-      </c>
-      <c r="AA7" s="1">
-        <f t="shared" si="6"/>
-        <v>0.4</v>
-      </c>
-      <c r="AB7" s="4" t="str">
-        <f t="shared" si="7"/>
-        <v>98,2±0,4</v>
-      </c>
-      <c r="AD7" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="AE7">
-        <f t="shared" si="8"/>
-        <v>0.55610000000000004</v>
-      </c>
-      <c r="AF7">
-        <f t="shared" si="9"/>
-        <v>0.5333</v>
-      </c>
-      <c r="AG7">
-        <f t="shared" si="10"/>
-        <v>0.64810000000000001</v>
-      </c>
-      <c r="AH7">
-        <f t="shared" si="11"/>
-        <v>0.62350000000000005</v>
-      </c>
-      <c r="AI7">
-        <f t="shared" si="12"/>
-        <v>0.60029999999999994</v>
-      </c>
-      <c r="AJ7" s="1">
-        <f t="shared" si="13"/>
-        <v>59.23</v>
-      </c>
-      <c r="AK7" s="1">
-        <f t="shared" si="14"/>
-        <v>4.7300000000000004</v>
-      </c>
-      <c r="AL7" s="4" t="str">
-        <f t="shared" si="15"/>
-        <v>59,23±4,73</v>
-      </c>
-    </row>
-    <row r="8" spans="2:38" x14ac:dyDescent="0.3">
-      <c r="B8" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="C8">
-        <v>0.94159999999999999</v>
-      </c>
-      <c r="D8">
-        <v>0.54210000000000003</v>
-      </c>
-      <c r="E8">
-        <v>0.76639999999999997</v>
-      </c>
-      <c r="F8">
-        <v>0.42659999999999998</v>
-      </c>
-      <c r="G8">
-        <v>0.55459999999999998</v>
-      </c>
-      <c r="H8">
-        <v>0.76639999999999997</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="L8">
-        <v>0.95669999999999999</v>
-      </c>
-      <c r="M8">
-        <v>0.55600000000000005</v>
-      </c>
-      <c r="N8">
-        <v>0.82699999999999996</v>
-      </c>
-      <c r="O8">
-        <v>0.50090000000000001</v>
-      </c>
-      <c r="P8">
-        <v>0.6794</v>
-      </c>
-      <c r="Q8">
-        <v>0.82699999999999996</v>
-      </c>
-      <c r="T8" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="U8">
-        <f t="shared" si="0"/>
-        <v>0.94159999999999999</v>
-      </c>
-      <c r="V8">
-        <f t="shared" si="1"/>
-        <v>0.89590000000000003</v>
-      </c>
-      <c r="W8">
-        <f t="shared" si="2"/>
-        <v>0.95399999999999996</v>
-      </c>
-      <c r="X8">
-        <f t="shared" si="3"/>
-        <v>0.95669999999999999</v>
-      </c>
-      <c r="Y8">
-        <f t="shared" si="4"/>
-        <v>0.95579999999999998</v>
-      </c>
-      <c r="Z8" s="1">
-        <f t="shared" si="5"/>
-        <v>94.08</v>
-      </c>
-      <c r="AA8" s="1">
-        <f t="shared" si="6"/>
-        <v>2.58</v>
-      </c>
-      <c r="AB8" s="4" t="str">
-        <f t="shared" si="7"/>
-        <v>94,08±2,58</v>
-      </c>
-      <c r="AD8" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="AE8">
-        <f t="shared" si="8"/>
-        <v>0.42659999999999998</v>
-      </c>
-      <c r="AF8">
-        <f t="shared" si="9"/>
-        <v>0.25490000000000002</v>
-      </c>
-      <c r="AG8">
-        <f t="shared" si="10"/>
-        <v>0.55310000000000004</v>
-      </c>
-      <c r="AH8">
-        <f t="shared" si="11"/>
-        <v>0.50090000000000001</v>
-      </c>
-      <c r="AI8">
-        <f t="shared" si="12"/>
-        <v>0.50649999999999995</v>
-      </c>
-      <c r="AJ8" s="1">
-        <f t="shared" si="13"/>
-        <v>44.84</v>
-      </c>
-      <c r="AK8" s="1">
-        <f t="shared" si="14"/>
-        <v>11.73</v>
-      </c>
-      <c r="AL8" s="4" t="str">
-        <f t="shared" si="15"/>
-        <v>44,84±11,73</v>
-      </c>
-    </row>
-    <row r="9" spans="2:38" x14ac:dyDescent="0.3">
-      <c r="B9" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="C9">
-        <v>0.97209999999999996</v>
-      </c>
-      <c r="D9">
-        <v>0.55700000000000005</v>
-      </c>
-      <c r="E9">
-        <v>0.85089999999999999</v>
-      </c>
-      <c r="F9">
-        <v>0.51519999999999999</v>
-      </c>
-      <c r="G9">
-        <v>0.71379999999999999</v>
-      </c>
-      <c r="H9">
-        <v>0.85089999999999999</v>
-      </c>
-      <c r="K9" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="L9">
-        <v>0.97060000000000002</v>
-      </c>
-      <c r="M9">
-        <v>0.58750000000000002</v>
-      </c>
-      <c r="N9">
-        <v>0.90469999999999995</v>
-      </c>
-      <c r="O9">
-        <v>0.60009999999999997</v>
-      </c>
-      <c r="P9">
-        <v>0.82840000000000003</v>
-      </c>
-      <c r="Q9">
-        <v>0.90469999999999995</v>
-      </c>
-      <c r="T9" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="U9">
-        <f t="shared" si="0"/>
-        <v>0.97209999999999996</v>
-      </c>
-      <c r="V9">
-        <f t="shared" si="1"/>
-        <v>0.94979999999999998</v>
-      </c>
-      <c r="W9">
-        <f t="shared" si="2"/>
-        <v>0.97389999999999999</v>
-      </c>
-      <c r="X9">
-        <f t="shared" si="3"/>
-        <v>0.97060000000000002</v>
-      </c>
-      <c r="Y9">
-        <f t="shared" si="4"/>
-        <v>0.9768</v>
-      </c>
-      <c r="Z9" s="1">
-        <f t="shared" si="5"/>
-        <v>96.86</v>
-      </c>
-      <c r="AA9" s="1">
-        <f t="shared" si="6"/>
-        <v>1.08</v>
-      </c>
-      <c r="AB9" s="4" t="str">
-        <f t="shared" si="7"/>
-        <v>96,86±1,08</v>
-      </c>
-      <c r="AD9" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="AE9">
-        <f t="shared" si="8"/>
-        <v>0.51519999999999999</v>
-      </c>
-      <c r="AF9">
-        <f t="shared" si="9"/>
-        <v>0.39600000000000002</v>
-      </c>
-      <c r="AG9">
-        <f t="shared" si="10"/>
-        <v>0.70730000000000004</v>
-      </c>
-      <c r="AH9">
-        <f t="shared" si="11"/>
-        <v>0.60009999999999997</v>
-      </c>
-      <c r="AI9">
-        <f t="shared" si="12"/>
-        <v>0.62629999999999997</v>
-      </c>
-      <c r="AJ9" s="1">
-        <f t="shared" si="13"/>
-        <v>56.9</v>
-      </c>
-      <c r="AK9" s="1">
-        <f t="shared" si="14"/>
-        <v>11.85</v>
-      </c>
-      <c r="AL9" s="4" t="str">
-        <f t="shared" si="15"/>
-        <v>56,9±11,85</v>
-      </c>
-    </row>
-    <row r="10" spans="2:38" x14ac:dyDescent="0.3">
-      <c r="B10" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="C10">
-        <v>0.91259999999999997</v>
-      </c>
-      <c r="D10">
-        <v>0.55869999999999997</v>
-      </c>
-      <c r="E10">
-        <v>0.61560000000000004</v>
-      </c>
-      <c r="F10">
-        <v>0.30430000000000001</v>
-      </c>
-      <c r="G10">
-        <v>0.315</v>
-      </c>
-      <c r="H10">
-        <v>0.61560000000000004</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="L10">
-        <v>0.91610000000000003</v>
-      </c>
-      <c r="M10">
-        <v>0.58740000000000003</v>
-      </c>
-      <c r="N10">
-        <v>0.75029999999999997</v>
-      </c>
-      <c r="O10">
-        <v>0.50460000000000005</v>
-      </c>
-      <c r="P10">
-        <v>0.58309999999999995</v>
-      </c>
-      <c r="Q10">
-        <v>0.75029999999999997</v>
-      </c>
-      <c r="T10" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="U10">
-        <f t="shared" si="0"/>
-        <v>0.91259999999999997</v>
-      </c>
-      <c r="V10">
-        <f t="shared" si="1"/>
-        <v>0.88460000000000005</v>
-      </c>
-      <c r="W10">
-        <f t="shared" si="2"/>
-        <v>0.91779999999999995</v>
-      </c>
-      <c r="X10">
-        <f t="shared" si="3"/>
-        <v>0.91610000000000003</v>
-      </c>
-      <c r="Y10">
-        <f t="shared" si="4"/>
-        <v>0.92120000000000002</v>
-      </c>
-      <c r="Z10" s="1">
-        <f t="shared" si="5"/>
-        <v>91.05</v>
-      </c>
-      <c r="AA10" s="1">
-        <f t="shared" si="6"/>
-        <v>1.48</v>
-      </c>
-      <c r="AB10" s="4" t="str">
-        <f t="shared" si="7"/>
-        <v>91,05±1,48</v>
-      </c>
-      <c r="AD10" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="AE10">
-        <f t="shared" si="8"/>
-        <v>0.30430000000000001</v>
-      </c>
-      <c r="AF10">
-        <f t="shared" si="9"/>
-        <v>8.8200000000000001E-2</v>
-      </c>
-      <c r="AG10">
-        <f t="shared" si="10"/>
-        <v>0.67249999999999999</v>
-      </c>
-      <c r="AH10">
-        <f t="shared" si="11"/>
-        <v>0.50460000000000005</v>
-      </c>
-      <c r="AI10">
-        <f t="shared" si="12"/>
-        <v>0.77510000000000001</v>
-      </c>
-      <c r="AJ10" s="1">
-        <f t="shared" si="13"/>
-        <v>46.89</v>
-      </c>
-      <c r="AK10" s="1">
-        <f t="shared" si="14"/>
-        <v>27.77</v>
-      </c>
-      <c r="AL10" s="4" t="str">
-        <f t="shared" si="15"/>
-        <v>46,89±27,77</v>
-      </c>
-    </row>
-    <row r="11" spans="2:38" x14ac:dyDescent="0.3">
-      <c r="B11" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="C11">
-        <v>0.97819999999999996</v>
-      </c>
-      <c r="D11">
-        <v>0.53620000000000001</v>
-      </c>
-      <c r="E11">
-        <v>0.66390000000000005</v>
-      </c>
-      <c r="F11">
-        <v>0.31809999999999999</v>
-      </c>
-      <c r="G11">
-        <v>0.36649999999999999</v>
-      </c>
-      <c r="H11">
-        <v>0.66390000000000005</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L11">
-        <v>0.97389999999999999</v>
-      </c>
-      <c r="M11">
-        <v>0.57579999999999998</v>
-      </c>
-      <c r="N11">
-        <v>0.84909999999999997</v>
-      </c>
-      <c r="O11">
-        <v>0.54649999999999999</v>
-      </c>
-      <c r="P11">
-        <v>0.72240000000000004</v>
-      </c>
-      <c r="Q11">
-        <v>0.84909999999999997</v>
-      </c>
-      <c r="T11" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="U11">
-        <f t="shared" si="0"/>
-        <v>0.97819999999999996</v>
-      </c>
-      <c r="V11">
-        <f t="shared" si="1"/>
-        <v>0.95130000000000003</v>
-      </c>
-      <c r="W11">
-        <f t="shared" si="2"/>
-        <v>0.97360000000000002</v>
-      </c>
-      <c r="X11">
-        <f t="shared" si="3"/>
-        <v>0.97389999999999999</v>
-      </c>
-      <c r="Y11">
-        <f t="shared" si="4"/>
-        <v>0.98229999999999995</v>
-      </c>
-      <c r="Z11" s="1">
-        <f t="shared" si="5"/>
-        <v>97.19</v>
-      </c>
-      <c r="AA11" s="1">
-        <f t="shared" si="6"/>
-        <v>1.2</v>
-      </c>
-      <c r="AB11" s="4" t="str">
-        <f t="shared" si="7"/>
-        <v>97,19±1,2</v>
-      </c>
-      <c r="AD11" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="AE11">
-        <f t="shared" si="8"/>
-        <v>0.31809999999999999</v>
-      </c>
-      <c r="AF11">
-        <f t="shared" si="9"/>
-        <v>4.7899999999999998E-2</v>
-      </c>
-      <c r="AG11">
-        <f t="shared" si="10"/>
-        <v>0.70899999999999996</v>
-      </c>
-      <c r="AH11">
-        <f t="shared" si="11"/>
-        <v>0.54649999999999999</v>
-      </c>
-      <c r="AI11">
-        <f t="shared" si="12"/>
-        <v>0.81599999999999995</v>
-      </c>
-      <c r="AJ11" s="1">
-        <f t="shared" si="13"/>
-        <v>48.75</v>
-      </c>
-      <c r="AK11" s="1">
-        <f t="shared" si="14"/>
-        <v>30.92</v>
-      </c>
-      <c r="AL11" s="4" t="str">
-        <f t="shared" si="15"/>
-        <v>48,75±30,92</v>
-      </c>
-    </row>
-    <row r="12" spans="2:38" x14ac:dyDescent="0.3">
-      <c r="B12" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="C12">
-        <v>0.85719999999999996</v>
-      </c>
-      <c r="D12">
-        <v>0.55740000000000001</v>
-      </c>
-      <c r="E12">
-        <v>0.67369999999999997</v>
-      </c>
-      <c r="F12">
-        <v>0.39650000000000002</v>
-      </c>
-      <c r="G12">
-        <v>0.44600000000000001</v>
-      </c>
-      <c r="H12">
-        <v>0.67369999999999997</v>
-      </c>
-      <c r="K12" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="L12">
-        <v>0.84989999999999999</v>
-      </c>
-      <c r="M12">
-        <v>0.62319999999999998</v>
-      </c>
-      <c r="N12">
-        <v>0.76900000000000002</v>
-      </c>
-      <c r="O12">
-        <v>0.64670000000000005</v>
-      </c>
-      <c r="P12">
-        <v>0.82069999999999999</v>
-      </c>
-      <c r="Q12">
-        <v>0.76900000000000002</v>
-      </c>
-      <c r="T12" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="U12">
-        <f t="shared" si="0"/>
-        <v>0.85719999999999996</v>
-      </c>
-      <c r="V12">
-        <f t="shared" si="1"/>
-        <v>0.83189999999999997</v>
-      </c>
-      <c r="W12">
-        <f t="shared" si="2"/>
-        <v>0.84930000000000005</v>
-      </c>
-      <c r="X12">
-        <f t="shared" si="3"/>
-        <v>0.84989999999999999</v>
-      </c>
-      <c r="Y12">
-        <f t="shared" si="4"/>
-        <v>0.85719999999999996</v>
-      </c>
-      <c r="Z12" s="1">
-        <f t="shared" si="5"/>
-        <v>84.91</v>
-      </c>
-      <c r="AA12" s="1">
-        <f t="shared" si="6"/>
-        <v>1.03</v>
-      </c>
-      <c r="AB12" s="4" t="str">
-        <f t="shared" si="7"/>
-        <v>84,91±1,03</v>
-      </c>
-      <c r="AD12" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="AE12">
-        <f t="shared" si="8"/>
-        <v>0.39650000000000002</v>
-      </c>
-      <c r="AF12">
-        <f t="shared" si="9"/>
-        <v>7.7899999999999997E-2</v>
-      </c>
-      <c r="AG12">
-        <f t="shared" si="10"/>
-        <v>0.50800000000000001</v>
-      </c>
-      <c r="AH12">
-        <f t="shared" si="11"/>
-        <v>0.64670000000000005</v>
-      </c>
-      <c r="AI12">
-        <f t="shared" si="12"/>
-        <v>0.55189999999999995</v>
-      </c>
-      <c r="AJ12" s="1">
-        <f t="shared" si="13"/>
-        <v>43.62</v>
-      </c>
-      <c r="AK12" s="1">
-        <f t="shared" si="14"/>
-        <v>21.95</v>
-      </c>
-      <c r="AL12" s="4" t="str">
-        <f t="shared" si="15"/>
-        <v>43,62±21,95</v>
-      </c>
-    </row>
-    <row r="13" spans="2:38" x14ac:dyDescent="0.3">
-      <c r="B13" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="C13">
-        <v>0.98019999999999996</v>
-      </c>
-      <c r="D13">
-        <v>0.85719999999999996</v>
-      </c>
-      <c r="E13">
-        <v>0.79859999999999998</v>
-      </c>
-      <c r="F13">
-        <v>0.82489999999999997</v>
-      </c>
-      <c r="G13">
-        <v>0.96260000000000001</v>
-      </c>
-      <c r="H13">
-        <v>0.79859999999999998</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="L13">
-        <v>0.97599999999999998</v>
-      </c>
-      <c r="M13">
-        <v>0.87050000000000005</v>
-      </c>
-      <c r="N13">
-        <v>0.7248</v>
-      </c>
-      <c r="O13">
-        <v>0.77710000000000001</v>
-      </c>
-      <c r="P13">
-        <v>0.95820000000000005</v>
-      </c>
-      <c r="Q13">
-        <v>0.7248</v>
-      </c>
-      <c r="T13" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="U13">
-        <f t="shared" si="0"/>
-        <v>0.98019999999999996</v>
-      </c>
-      <c r="V13">
-        <f t="shared" si="1"/>
-        <v>0.97260000000000002</v>
-      </c>
-      <c r="W13">
-        <f t="shared" si="2"/>
-        <v>0.97560000000000002</v>
-      </c>
-      <c r="X13">
-        <f t="shared" si="3"/>
-        <v>0.97599999999999998</v>
-      </c>
-      <c r="Y13">
-        <f t="shared" si="4"/>
-        <v>0.98170000000000002</v>
-      </c>
-      <c r="Z13" s="1">
-        <f t="shared" si="5"/>
-        <v>97.72</v>
-      </c>
-      <c r="AA13" s="1">
-        <f t="shared" si="6"/>
-        <v>0.37</v>
-      </c>
-      <c r="AB13" s="4" t="str">
-        <f t="shared" si="7"/>
-        <v>97,72±0,37</v>
-      </c>
-      <c r="AD13" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="AE13">
-        <f t="shared" si="8"/>
-        <v>0.82489999999999997</v>
-      </c>
-      <c r="AF13">
-        <f t="shared" si="9"/>
-        <v>0.74960000000000004</v>
-      </c>
-      <c r="AG13">
-        <f t="shared" si="10"/>
-        <v>0.77669999999999995</v>
-      </c>
-      <c r="AH13">
-        <f t="shared" si="11"/>
-        <v>0.77710000000000001</v>
-      </c>
-      <c r="AI13">
-        <f t="shared" si="12"/>
-        <v>0.8377</v>
-      </c>
-      <c r="AJ13" s="1">
-        <f t="shared" si="13"/>
-        <v>79.319999999999993</v>
-      </c>
-      <c r="AK13" s="1">
-        <f t="shared" si="14"/>
-        <v>3.68</v>
-      </c>
-      <c r="AL13" s="4" t="str">
-        <f t="shared" si="15"/>
-        <v>79,32±3,68</v>
-      </c>
-    </row>
-    <row r="14" spans="2:38" x14ac:dyDescent="0.3">
-      <c r="B14" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="C14">
-        <v>0.81759999999999999</v>
-      </c>
-      <c r="D14">
-        <v>0.54420000000000002</v>
-      </c>
-      <c r="E14">
-        <v>0.75</v>
-      </c>
-      <c r="F14">
-        <v>0.44040000000000001</v>
-      </c>
-      <c r="G14">
-        <v>0.57150000000000001</v>
-      </c>
-      <c r="H14">
-        <v>0.75</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="L14">
-        <v>0.83260000000000001</v>
-      </c>
-      <c r="M14">
-        <v>0.55959999999999999</v>
-      </c>
-      <c r="N14">
-        <v>0.7944</v>
-      </c>
-      <c r="O14">
-        <v>0.52400000000000002</v>
-      </c>
-      <c r="P14">
-        <v>0.71519999999999995</v>
-      </c>
-      <c r="Q14">
-        <v>0.7944</v>
-      </c>
-      <c r="T14" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="U14">
-        <f t="shared" si="0"/>
-        <v>0.81759999999999999</v>
-      </c>
-      <c r="V14">
-        <f t="shared" si="1"/>
-        <v>0.81799999999999995</v>
-      </c>
-      <c r="W14">
-        <f t="shared" si="2"/>
-        <v>0.81479999999999997</v>
-      </c>
-      <c r="X14">
-        <f t="shared" si="3"/>
-        <v>0.83260000000000001</v>
-      </c>
-      <c r="Y14">
-        <f t="shared" si="4"/>
-        <v>0.81859999999999999</v>
-      </c>
-      <c r="Z14" s="1">
-        <f t="shared" si="5"/>
-        <v>82.03</v>
-      </c>
-      <c r="AA14" s="1">
-        <f t="shared" si="6"/>
-        <v>0.7</v>
-      </c>
-      <c r="AB14" s="4" t="str">
-        <f t="shared" si="7"/>
-        <v>82,03±0,7</v>
-      </c>
-      <c r="AD14" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="AE14">
-        <f t="shared" si="8"/>
-        <v>0.44040000000000001</v>
-      </c>
-      <c r="AF14">
-        <f t="shared" si="9"/>
-        <v>0.35420000000000001</v>
-      </c>
-      <c r="AG14">
-        <f t="shared" si="10"/>
-        <v>0.54720000000000002</v>
-      </c>
-      <c r="AH14">
-        <f t="shared" si="11"/>
-        <v>0.52400000000000002</v>
-      </c>
-      <c r="AI14">
-        <f t="shared" si="12"/>
-        <v>0.53949999999999998</v>
-      </c>
-      <c r="AJ14" s="1">
-        <f t="shared" si="13"/>
-        <v>48.11</v>
-      </c>
-      <c r="AK14" s="1">
-        <f t="shared" si="14"/>
-        <v>8.27</v>
-      </c>
-      <c r="AL14" s="4" t="str">
-        <f t="shared" si="15"/>
-        <v>48,11±8,27</v>
-      </c>
-    </row>
-    <row r="17" spans="2:28" x14ac:dyDescent="0.3">
-      <c r="B17" t="s">
-        <v>35</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="D17" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E17" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F17" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="G17" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="H17" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="K17" t="s">
-        <v>38</v>
-      </c>
-      <c r="L17" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="M17" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="N17" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="O17" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="P17" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q17" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="T17" t="s">
-        <v>11</v>
-      </c>
-      <c r="U17" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="V17" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="W17" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="X17" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="Y17" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z17" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="AA17" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="AB17" s="5" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="18" spans="2:28" x14ac:dyDescent="0.3">
-      <c r="B18" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C18">
-        <v>0.95840000000000003</v>
-      </c>
-      <c r="D18">
-        <v>0.61309999999999998</v>
-      </c>
-      <c r="E18">
-        <v>0.89780000000000004</v>
-      </c>
-      <c r="F18">
-        <v>0.65390000000000004</v>
-      </c>
-      <c r="G18">
-        <v>0.89229999999999998</v>
-      </c>
-      <c r="H18">
-        <v>0.89780000000000004</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="L18">
-        <v>0.93820000000000003</v>
-      </c>
-      <c r="M18">
-        <v>0.59279999999999999</v>
-      </c>
-      <c r="N18">
-        <v>0.84850000000000003</v>
-      </c>
-      <c r="O18">
-        <v>0.62180000000000002</v>
-      </c>
-      <c r="P18">
-        <v>0.87539999999999996</v>
-      </c>
-      <c r="Q18">
-        <v>0.84850000000000003</v>
-      </c>
-      <c r="T18" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="U18">
-        <f>H4</f>
-        <v>0.88590000000000002</v>
-      </c>
-      <c r="V18">
-        <f>H18</f>
-        <v>0.89780000000000004</v>
-      </c>
-      <c r="W18">
-        <f>H32</f>
-        <v>0.82140000000000002</v>
-      </c>
-      <c r="X18">
-        <f>Q4</f>
-        <v>0.86870000000000003</v>
-      </c>
-      <c r="Y18">
-        <f>Q18</f>
-        <v>0.84850000000000003</v>
-      </c>
-      <c r="Z18" s="1">
-        <f>ROUND(AVERAGE(U18:Y18)*100,2)</f>
-        <v>86.45</v>
-      </c>
-      <c r="AA18" s="1">
-        <f>ROUND(_xlfn.STDEV.S(U18:Y18)*100,2)</f>
-        <v>3.04</v>
-      </c>
-      <c r="AB18" s="4" t="str">
-        <f>_xlfn.CONCAT(Z18,"±",AA18)</f>
-        <v>86,45±3,04</v>
-      </c>
-    </row>
-    <row r="19" spans="2:28" x14ac:dyDescent="0.3">
-      <c r="B19" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="C19">
-        <v>0.85550000000000004</v>
-      </c>
-      <c r="D19">
-        <v>0.50680000000000003</v>
-      </c>
-      <c r="E19">
-        <v>0.64539999999999997</v>
-      </c>
-      <c r="F19">
-        <v>0.23960000000000001</v>
-      </c>
-      <c r="G19">
-        <v>0.29899999999999999</v>
-      </c>
-      <c r="H19">
-        <v>0.64539999999999997</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="L19">
-        <v>0.81840000000000002</v>
-      </c>
-      <c r="M19">
-        <v>0.50609999999999999</v>
-      </c>
-      <c r="N19">
-        <v>0.60470000000000002</v>
-      </c>
-      <c r="O19">
-        <v>0.187</v>
-      </c>
-      <c r="P19">
-        <v>0.21959999999999999</v>
-      </c>
-      <c r="Q19">
-        <v>0.60470000000000002</v>
-      </c>
-      <c r="T19" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="U19">
-        <f t="shared" ref="U19:U28" si="16">H5</f>
-        <v>0.60699999999999998</v>
-      </c>
-      <c r="V19">
-        <f t="shared" ref="V19:V28" si="17">H19</f>
-        <v>0.64539999999999997</v>
-      </c>
-      <c r="W19">
-        <f t="shared" ref="W19:W28" si="18">H33</f>
-        <v>0.61199999999999999</v>
-      </c>
-      <c r="X19">
-        <f t="shared" ref="X19:X28" si="19">Q5</f>
-        <v>0.62560000000000004</v>
-      </c>
-      <c r="Y19">
-        <f t="shared" ref="Y19:Y28" si="20">Q19</f>
-        <v>0.60470000000000002</v>
-      </c>
-      <c r="Z19" s="1">
-        <f t="shared" ref="Z19:Z28" si="21">ROUND(AVERAGE(U19:Y19)*100,2)</f>
-        <v>61.89</v>
-      </c>
-      <c r="AA19" s="1">
-        <f t="shared" ref="AA19:AA28" si="22">ROUND(_xlfn.STDEV.S(U19:Y19)*100,2)</f>
-        <v>1.69</v>
-      </c>
-      <c r="AB19" s="4" t="str">
-        <f t="shared" ref="AB19:AB28" si="23">_xlfn.CONCAT(Z19,"±",ROUND(AA19,2))</f>
-        <v>61,89±1,69</v>
-      </c>
-    </row>
-    <row r="20" spans="2:28" x14ac:dyDescent="0.3">
-      <c r="B20" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="C20">
-        <v>0.94079999999999997</v>
-      </c>
-      <c r="D20">
-        <v>0.5393</v>
-      </c>
-      <c r="E20">
-        <v>0.74850000000000005</v>
-      </c>
-      <c r="F20">
-        <v>0.40620000000000001</v>
-      </c>
-      <c r="G20">
-        <v>0.52010000000000001</v>
-      </c>
-      <c r="H20">
-        <v>0.74850000000000005</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="L20">
-        <v>0.97</v>
-      </c>
-      <c r="M20">
-        <v>0.56040000000000001</v>
-      </c>
-      <c r="N20">
-        <v>0.84370000000000001</v>
-      </c>
-      <c r="O20">
-        <v>0.51539999999999997</v>
-      </c>
-      <c r="P20">
-        <v>0.70079999999999998</v>
-      </c>
-      <c r="Q20">
-        <v>0.84370000000000001</v>
-      </c>
-      <c r="T20" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="U20">
-        <f t="shared" si="16"/>
-        <v>0.79549999999999998</v>
-      </c>
-      <c r="V20">
-        <f t="shared" si="17"/>
-        <v>0.74850000000000005</v>
-      </c>
-      <c r="W20">
-        <f t="shared" si="18"/>
-        <v>0.86619999999999997</v>
-      </c>
-      <c r="X20">
-        <f t="shared" si="19"/>
-        <v>0.84430000000000005</v>
-      </c>
-      <c r="Y20">
-        <f t="shared" si="20"/>
-        <v>0.84370000000000001</v>
-      </c>
-      <c r="Z20" s="1">
-        <f t="shared" si="21"/>
-        <v>81.96</v>
-      </c>
-      <c r="AA20" s="1">
-        <f t="shared" si="22"/>
-        <v>4.74</v>
-      </c>
-      <c r="AB20" s="4" t="str">
-        <f t="shared" si="23"/>
-        <v>81,96±4,74</v>
-      </c>
-    </row>
-    <row r="21" spans="2:28" x14ac:dyDescent="0.3">
-      <c r="B21" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="C21">
-        <v>0.97540000000000004</v>
-      </c>
-      <c r="D21">
-        <v>0.5585</v>
-      </c>
-      <c r="E21">
-        <v>0.87390000000000001</v>
-      </c>
-      <c r="F21">
-        <v>0.5333</v>
-      </c>
-      <c r="G21">
-        <v>0.75790000000000002</v>
-      </c>
-      <c r="H21">
-        <v>0.87390000000000001</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="L21">
-        <v>0.98399999999999999</v>
-      </c>
-      <c r="M21">
-        <v>0.58450000000000002</v>
-      </c>
-      <c r="N21">
-        <v>0.91800000000000004</v>
-      </c>
-      <c r="O21">
-        <v>0.60029999999999994</v>
-      </c>
-      <c r="P21">
-        <v>0.84219999999999995</v>
-      </c>
-      <c r="Q21">
-        <v>0.91800000000000004</v>
-      </c>
-      <c r="T21" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="U21">
-        <f t="shared" si="16"/>
-        <v>0.89100000000000001</v>
-      </c>
-      <c r="V21">
-        <f t="shared" si="17"/>
-        <v>0.87390000000000001</v>
-      </c>
-      <c r="W21">
-        <f t="shared" si="18"/>
-        <v>0.9365</v>
-      </c>
-      <c r="X21">
-        <f t="shared" si="19"/>
-        <v>0.92749999999999999</v>
-      </c>
-      <c r="Y21">
-        <f t="shared" si="20"/>
-        <v>0.91800000000000004</v>
-      </c>
-      <c r="Z21" s="1">
-        <f t="shared" si="21"/>
-        <v>90.94</v>
-      </c>
-      <c r="AA21" s="1">
-        <f t="shared" si="22"/>
-        <v>2.61</v>
-      </c>
-      <c r="AB21" s="4" t="str">
-        <f t="shared" si="23"/>
-        <v>90,94±2,61</v>
-      </c>
-    </row>
-    <row r="22" spans="2:28" x14ac:dyDescent="0.3">
-      <c r="B22" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="C22">
-        <v>0.89590000000000003</v>
-      </c>
-      <c r="D22">
-        <v>0.52690000000000003</v>
-      </c>
-      <c r="E22">
-        <v>0.626</v>
-      </c>
-      <c r="F22">
-        <v>0.25490000000000002</v>
-      </c>
-      <c r="G22">
-        <v>0.2858</v>
-      </c>
-      <c r="H22">
-        <v>0.626</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="L22">
-        <v>0.95579999999999998</v>
-      </c>
-      <c r="M22">
-        <v>0.55769999999999997</v>
-      </c>
-      <c r="N22">
-        <v>0.83399999999999996</v>
-      </c>
-      <c r="O22">
-        <v>0.50649999999999995</v>
-      </c>
-      <c r="P22">
-        <v>0.68769999999999998</v>
-      </c>
-      <c r="Q22">
-        <v>0.83399999999999996</v>
-      </c>
-      <c r="T22" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="U22">
-        <f t="shared" si="16"/>
-        <v>0.76639999999999997</v>
-      </c>
-      <c r="V22">
-        <f t="shared" si="17"/>
-        <v>0.626</v>
-      </c>
-      <c r="W22">
-        <f t="shared" si="18"/>
-        <v>0.86260000000000003</v>
-      </c>
-      <c r="X22">
-        <f t="shared" si="19"/>
-        <v>0.82699999999999996</v>
-      </c>
-      <c r="Y22">
-        <f t="shared" si="20"/>
-        <v>0.83399999999999996</v>
-      </c>
-      <c r="Z22" s="1">
-        <f t="shared" si="21"/>
-        <v>78.319999999999993</v>
-      </c>
-      <c r="AA22" s="1">
-        <f t="shared" si="22"/>
-        <v>9.4600000000000009</v>
-      </c>
-      <c r="AB22" s="4" t="str">
-        <f t="shared" si="23"/>
-        <v>78,32±9,46</v>
-      </c>
-    </row>
-    <row r="23" spans="2:28" x14ac:dyDescent="0.3">
-      <c r="B23" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="C23">
-        <v>0.94979999999999998</v>
-      </c>
-      <c r="D23">
-        <v>0.53510000000000002</v>
-      </c>
-      <c r="E23">
-        <v>0.74639999999999995</v>
-      </c>
-      <c r="F23">
-        <v>0.39600000000000002</v>
-      </c>
-      <c r="G23">
-        <v>0.51190000000000002</v>
-      </c>
-      <c r="H23">
-        <v>0.74639999999999995</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="L23">
-        <v>0.9768</v>
-      </c>
-      <c r="M23">
-        <v>0.60040000000000004</v>
-      </c>
-      <c r="N23">
-        <v>0.92030000000000001</v>
-      </c>
-      <c r="O23">
-        <v>0.62629999999999997</v>
-      </c>
-      <c r="P23">
-        <v>0.85429999999999995</v>
-      </c>
-      <c r="Q23">
-        <v>0.92030000000000001</v>
-      </c>
-      <c r="T23" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="U23">
-        <f t="shared" si="16"/>
-        <v>0.85089999999999999</v>
-      </c>
-      <c r="V23">
-        <f t="shared" si="17"/>
-        <v>0.74639999999999995</v>
-      </c>
-      <c r="W23">
-        <f t="shared" si="18"/>
-        <v>0.9284</v>
-      </c>
-      <c r="X23">
-        <f t="shared" si="19"/>
-        <v>0.90469999999999995</v>
-      </c>
-      <c r="Y23">
-        <f t="shared" si="20"/>
-        <v>0.92030000000000001</v>
-      </c>
-      <c r="Z23" s="1">
-        <f t="shared" si="21"/>
-        <v>87.01</v>
-      </c>
-      <c r="AA23" s="1">
-        <f t="shared" si="22"/>
-        <v>7.55</v>
-      </c>
-      <c r="AB23" s="4" t="str">
-        <f t="shared" si="23"/>
-        <v>87,01±7,55</v>
-      </c>
-    </row>
-    <row r="24" spans="2:28" x14ac:dyDescent="0.3">
-      <c r="B24" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="C24">
-        <v>0.88460000000000005</v>
-      </c>
-      <c r="D24">
-        <v>0.54830000000000001</v>
-      </c>
-      <c r="E24">
-        <v>0.5</v>
-      </c>
-      <c r="F24">
-        <v>8.8200000000000001E-2</v>
-      </c>
-      <c r="G24">
-        <v>9.6699999999999994E-2</v>
-      </c>
-      <c r="H24">
-        <v>0.5</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="L24">
-        <v>0.92120000000000002</v>
-      </c>
-      <c r="M24">
-        <v>0.90149999999999997</v>
-      </c>
-      <c r="N24">
-        <v>0.71679999999999999</v>
-      </c>
-      <c r="O24">
-        <v>0.77510000000000001</v>
-      </c>
-      <c r="P24">
-        <v>0.93910000000000005</v>
-      </c>
-      <c r="Q24">
-        <v>0.71679999999999999</v>
-      </c>
-      <c r="T24" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="U24">
-        <f t="shared" si="16"/>
-        <v>0.61560000000000004</v>
-      </c>
-      <c r="V24">
-        <f t="shared" si="17"/>
-        <v>0.5</v>
-      </c>
-      <c r="W24">
-        <f t="shared" si="18"/>
-        <v>0.62029999999999996</v>
-      </c>
-      <c r="X24">
-        <f t="shared" si="19"/>
-        <v>0.75029999999999997</v>
-      </c>
-      <c r="Y24">
-        <f t="shared" si="20"/>
-        <v>0.71679999999999999</v>
-      </c>
-      <c r="Z24" s="1">
-        <f t="shared" si="21"/>
-        <v>64.06</v>
-      </c>
-      <c r="AA24" s="1">
-        <f t="shared" si="22"/>
-        <v>9.83</v>
-      </c>
-      <c r="AB24" s="4" t="str">
-        <f t="shared" si="23"/>
-        <v>64,06±9,83</v>
-      </c>
-    </row>
-    <row r="25" spans="2:28" x14ac:dyDescent="0.3">
-      <c r="B25" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="C25">
-        <v>0.95130000000000003</v>
-      </c>
-      <c r="D25">
-        <v>0.52510000000000001</v>
-      </c>
-      <c r="E25">
-        <v>0.5</v>
-      </c>
-      <c r="F25">
-        <v>4.7899999999999998E-2</v>
-      </c>
-      <c r="G25">
-        <v>5.0299999999999997E-2</v>
-      </c>
-      <c r="H25">
-        <v>0.5</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L25">
-        <v>0.98229999999999995</v>
-      </c>
-      <c r="M25">
-        <v>0.90480000000000005</v>
-      </c>
-      <c r="N25">
-        <v>0.76149999999999995</v>
-      </c>
-      <c r="O25">
-        <v>0.81599999999999995</v>
-      </c>
-      <c r="P25">
-        <v>0.97099999999999997</v>
-      </c>
-      <c r="Q25">
-        <v>0.76149999999999995</v>
-      </c>
-      <c r="T25" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="U25">
-        <f t="shared" si="16"/>
-        <v>0.66390000000000005</v>
-      </c>
-      <c r="V25">
-        <f t="shared" si="17"/>
-        <v>0.5</v>
-      </c>
-      <c r="W25">
-        <f t="shared" si="18"/>
-        <v>0.64429999999999998</v>
-      </c>
-      <c r="X25">
-        <f t="shared" si="19"/>
-        <v>0.84909999999999997</v>
-      </c>
-      <c r="Y25">
-        <f t="shared" si="20"/>
-        <v>0.76149999999999995</v>
-      </c>
-      <c r="Z25" s="1">
-        <f t="shared" si="21"/>
-        <v>68.38</v>
-      </c>
-      <c r="AA25" s="1">
-        <f t="shared" si="22"/>
-        <v>13.14</v>
-      </c>
-      <c r="AB25" s="4" t="str">
-        <f t="shared" si="23"/>
-        <v>68,38±13,14</v>
-      </c>
-    </row>
-    <row r="26" spans="2:28" x14ac:dyDescent="0.3">
-      <c r="B26" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="C26">
-        <v>0.83189999999999997</v>
-      </c>
-      <c r="D26">
-        <v>0.52429999999999999</v>
-      </c>
-      <c r="E26">
-        <v>0.50009999999999999</v>
-      </c>
-      <c r="F26">
-        <v>7.7899999999999997E-2</v>
-      </c>
-      <c r="G26">
-        <v>8.43E-2</v>
-      </c>
-      <c r="H26">
-        <v>0.50009999999999999</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="L26">
-        <v>0.85719999999999996</v>
-      </c>
-      <c r="M26">
-        <v>0.78039999999999998</v>
-      </c>
-      <c r="N26">
-        <v>0.53920000000000001</v>
-      </c>
-      <c r="O26">
-        <v>0.55189999999999995</v>
-      </c>
-      <c r="P26">
-        <v>0.91890000000000005</v>
-      </c>
-      <c r="Q26">
-        <v>0.53920000000000001</v>
-      </c>
-      <c r="T26" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="U26">
-        <f t="shared" si="16"/>
-        <v>0.67369999999999997</v>
-      </c>
-      <c r="V26">
-        <f t="shared" si="17"/>
-        <v>0.50009999999999999</v>
-      </c>
-      <c r="W26">
-        <f t="shared" si="18"/>
-        <v>0.51439999999999997</v>
-      </c>
-      <c r="X26">
-        <f t="shared" si="19"/>
-        <v>0.76900000000000002</v>
-      </c>
-      <c r="Y26">
-        <f t="shared" si="20"/>
-        <v>0.53920000000000001</v>
-      </c>
-      <c r="Z26" s="1">
-        <f t="shared" si="21"/>
-        <v>59.93</v>
-      </c>
-      <c r="AA26" s="1">
-        <f t="shared" si="22"/>
-        <v>11.73</v>
-      </c>
-      <c r="AB26" s="4" t="str">
-        <f t="shared" si="23"/>
-        <v>59,93±11,73</v>
-      </c>
-    </row>
-    <row r="27" spans="2:28" x14ac:dyDescent="0.3">
-      <c r="B27" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="C27">
-        <v>0.97260000000000002</v>
-      </c>
-      <c r="D27">
-        <v>0.87749999999999995</v>
-      </c>
-      <c r="E27">
-        <v>0.69130000000000003</v>
-      </c>
-      <c r="F27">
-        <v>0.74960000000000004</v>
-      </c>
-      <c r="G27">
-        <v>0.95589999999999997</v>
-      </c>
-      <c r="H27">
-        <v>0.69130000000000003</v>
-      </c>
-      <c r="K27" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="L27">
-        <v>0.98170000000000002</v>
-      </c>
-      <c r="M27">
-        <v>0.86009999999999998</v>
-      </c>
-      <c r="N27">
-        <v>0.81820000000000004</v>
-      </c>
-      <c r="O27">
-        <v>0.8377</v>
-      </c>
-      <c r="P27">
-        <v>0.96440000000000003</v>
-      </c>
-      <c r="Q27">
-        <v>0.81820000000000004</v>
-      </c>
-      <c r="T27" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="U27">
-        <f t="shared" si="16"/>
-        <v>0.79859999999999998</v>
-      </c>
-      <c r="V27">
-        <f t="shared" si="17"/>
-        <v>0.69130000000000003</v>
-      </c>
-      <c r="W27">
-        <f t="shared" si="18"/>
-        <v>0.72640000000000005</v>
-      </c>
-      <c r="X27">
-        <f t="shared" si="19"/>
-        <v>0.7248</v>
-      </c>
-      <c r="Y27">
-        <f t="shared" si="20"/>
-        <v>0.81820000000000004</v>
-      </c>
-      <c r="Z27" s="1">
-        <f t="shared" si="21"/>
-        <v>75.19</v>
-      </c>
-      <c r="AA27" s="1">
-        <f t="shared" si="22"/>
-        <v>5.39</v>
-      </c>
-      <c r="AB27" s="4" t="str">
-        <f t="shared" si="23"/>
-        <v>75,19±5,39</v>
-      </c>
-    </row>
-    <row r="28" spans="2:28" x14ac:dyDescent="0.3">
-      <c r="B28" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="C28">
-        <v>0.81799999999999995</v>
-      </c>
-      <c r="D28">
-        <v>0.53159999999999996</v>
-      </c>
-      <c r="E28">
-        <v>0.67049999999999998</v>
-      </c>
-      <c r="F28">
-        <v>0.35420000000000001</v>
-      </c>
-      <c r="G28">
-        <v>0.43090000000000001</v>
-      </c>
-      <c r="H28">
-        <v>0.67049999999999998</v>
-      </c>
-      <c r="K28" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="L28">
-        <v>0.81859999999999999</v>
-      </c>
-      <c r="M28">
-        <v>0.55310000000000004</v>
-      </c>
-      <c r="N28">
-        <v>0.72260000000000002</v>
-      </c>
-      <c r="O28">
-        <v>0.53949999999999998</v>
-      </c>
-      <c r="P28">
-        <v>0.77139999999999997</v>
-      </c>
-      <c r="Q28">
-        <v>0.72260000000000002</v>
-      </c>
-      <c r="T28" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="U28">
-        <f t="shared" si="16"/>
-        <v>0.75</v>
-      </c>
-      <c r="V28">
-        <f t="shared" si="17"/>
-        <v>0.67049999999999998</v>
-      </c>
-      <c r="W28">
-        <f t="shared" si="18"/>
-        <v>0.69</v>
-      </c>
-      <c r="X28">
-        <f t="shared" si="19"/>
-        <v>0.7944</v>
-      </c>
-      <c r="Y28">
-        <f t="shared" si="20"/>
-        <v>0.72260000000000002</v>
-      </c>
-      <c r="Z28" s="1">
-        <f t="shared" si="21"/>
-        <v>72.55</v>
-      </c>
-      <c r="AA28" s="1">
-        <f t="shared" si="22"/>
-        <v>4.91</v>
-      </c>
-      <c r="AB28" s="4" t="str">
-        <f t="shared" si="23"/>
-        <v>72,55±4,91</v>
-      </c>
-    </row>
-    <row r="31" spans="2:28" x14ac:dyDescent="0.3">
-      <c r="B31" t="s">
-        <v>36</v>
-      </c>
-      <c r="C31" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="D31" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E31" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F31" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="G31" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="H31" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="T31" t="s">
-        <v>193</v>
-      </c>
-      <c r="U31" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="V31" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="W31" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="X31" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="Y31" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z31" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="AA31" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="AB31" s="5" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="32" spans="2:28" x14ac:dyDescent="0.3">
-      <c r="B32" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C32">
-        <v>0.93520000000000003</v>
-      </c>
-      <c r="D32">
-        <v>0.6018</v>
-      </c>
-      <c r="E32">
-        <v>0.82140000000000002</v>
-      </c>
-      <c r="F32">
-        <v>0.63800000000000001</v>
-      </c>
-      <c r="G32">
-        <v>0.89710000000000001</v>
-      </c>
-      <c r="H32">
-        <v>0.82140000000000002</v>
-      </c>
-      <c r="T32" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="U32">
-        <f>E4</f>
-        <v>0.88590000000000002</v>
-      </c>
-      <c r="V32">
-        <f>E18</f>
-        <v>0.89780000000000004</v>
-      </c>
-      <c r="W32">
-        <f>E32</f>
-        <v>0.82140000000000002</v>
-      </c>
-      <c r="X32">
-        <f>N4</f>
-        <v>0.86870000000000003</v>
-      </c>
-      <c r="Y32">
-        <f>N18</f>
-        <v>0.84850000000000003</v>
-      </c>
-      <c r="Z32" s="1">
-        <f>ROUND(AVERAGE(U32:Y32)*100,2)</f>
-        <v>86.45</v>
-      </c>
-      <c r="AA32" s="1">
-        <f>ROUND(_xlfn.STDEV.S(U32:Y32)*100,2)</f>
-        <v>3.04</v>
-      </c>
-      <c r="AB32" s="4" t="str">
-        <f>_xlfn.CONCAT(Z32,"±",AA32)</f>
-        <v>86,45±3,04</v>
-      </c>
-    </row>
-    <row r="33" spans="2:28" x14ac:dyDescent="0.3">
-      <c r="B33" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="C33">
-        <v>0.81030000000000002</v>
-      </c>
-      <c r="D33">
-        <v>0.50609999999999999</v>
-      </c>
-      <c r="E33">
-        <v>0.61199999999999999</v>
-      </c>
-      <c r="F33">
-        <v>0.2009</v>
-      </c>
-      <c r="G33">
-        <v>0.23980000000000001</v>
-      </c>
-      <c r="H33">
-        <v>0.61199999999999999</v>
-      </c>
-      <c r="T33" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="U33">
-        <f t="shared" ref="U33:U42" si="24">E5</f>
-        <v>0.60699999999999998</v>
-      </c>
-      <c r="V33">
-        <f t="shared" ref="V33:V42" si="25">E19</f>
-        <v>0.64539999999999997</v>
-      </c>
-      <c r="W33">
-        <f t="shared" ref="W33:W42" si="26">E33</f>
-        <v>0.61199999999999999</v>
-      </c>
-      <c r="X33">
-        <f t="shared" ref="X33:X42" si="27">N5</f>
-        <v>0.62560000000000004</v>
-      </c>
-      <c r="Y33">
-        <f t="shared" ref="Y33:Y42" si="28">N19</f>
-        <v>0.60470000000000002</v>
-      </c>
-      <c r="Z33" s="1">
-        <f t="shared" ref="Z33:Z42" si="29">ROUND(AVERAGE(U33:Y33)*100,2)</f>
-        <v>61.89</v>
-      </c>
-      <c r="AA33" s="1">
-        <f t="shared" ref="AA33:AA42" si="30">ROUND(_xlfn.STDEV.S(U33:Y33)*100,2)</f>
-        <v>1.69</v>
-      </c>
-      <c r="AB33" s="4" t="str">
-        <f t="shared" ref="AB33:AB42" si="31">_xlfn.CONCAT(Z33,"±",AA33)</f>
-        <v>61,89±1,69</v>
-      </c>
-    </row>
-    <row r="34" spans="2:28" x14ac:dyDescent="0.3">
-      <c r="B34" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="C34">
-        <v>0.96330000000000005</v>
-      </c>
-      <c r="D34">
-        <v>0.57069999999999999</v>
-      </c>
-      <c r="E34">
-        <v>0.86619999999999997</v>
-      </c>
-      <c r="F34">
-        <v>0.5504</v>
-      </c>
-      <c r="G34">
-        <v>0.75339999999999996</v>
-      </c>
-      <c r="H34">
-        <v>0.86619999999999997</v>
-      </c>
-      <c r="T34" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="U34">
-        <f t="shared" si="24"/>
-        <v>0.79549999999999998</v>
-      </c>
-      <c r="V34">
-        <f t="shared" si="25"/>
-        <v>0.74850000000000005</v>
-      </c>
-      <c r="W34">
-        <f t="shared" si="26"/>
-        <v>0.86619999999999997</v>
-      </c>
-      <c r="X34">
-        <f t="shared" si="27"/>
-        <v>0.84430000000000005</v>
-      </c>
-      <c r="Y34">
-        <f t="shared" si="28"/>
-        <v>0.84370000000000001</v>
-      </c>
-      <c r="Z34" s="1">
-        <f t="shared" si="29"/>
-        <v>81.96</v>
-      </c>
-      <c r="AA34" s="1">
-        <f t="shared" si="30"/>
-        <v>4.74</v>
-      </c>
-      <c r="AB34" s="4" t="str">
-        <f t="shared" si="31"/>
-        <v>81,96±4,74</v>
-      </c>
-    </row>
-    <row r="35" spans="2:28" x14ac:dyDescent="0.3">
-      <c r="B35" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="C35">
-        <v>0.98240000000000005</v>
-      </c>
-      <c r="D35">
-        <v>0.60929999999999995</v>
-      </c>
-      <c r="E35">
-        <v>0.9365</v>
-      </c>
-      <c r="F35">
-        <v>0.64810000000000001</v>
-      </c>
-      <c r="G35">
-        <v>0.8861</v>
-      </c>
-      <c r="H35">
-        <v>0.9365</v>
-      </c>
-      <c r="T35" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="U35">
-        <f t="shared" si="24"/>
-        <v>0.89100000000000001</v>
-      </c>
-      <c r="V35">
-        <f t="shared" si="25"/>
-        <v>0.87390000000000001</v>
-      </c>
-      <c r="W35">
-        <f t="shared" si="26"/>
-        <v>0.9365</v>
-      </c>
-      <c r="X35">
-        <f t="shared" si="27"/>
-        <v>0.92749999999999999</v>
-      </c>
-      <c r="Y35">
-        <f t="shared" si="28"/>
-        <v>0.91800000000000004</v>
-      </c>
-      <c r="Z35" s="1">
-        <f t="shared" si="29"/>
-        <v>90.94</v>
-      </c>
-      <c r="AA35" s="1">
-        <f t="shared" si="30"/>
-        <v>2.61</v>
-      </c>
-      <c r="AB35" s="4" t="str">
-        <f t="shared" si="31"/>
-        <v>90,94±2,61</v>
-      </c>
-    </row>
-    <row r="36" spans="2:28" x14ac:dyDescent="0.3">
-      <c r="B36" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="C36">
-        <v>0.95399999999999996</v>
-      </c>
-      <c r="D36">
-        <v>0.57099999999999995</v>
-      </c>
-      <c r="E36">
-        <v>0.86260000000000003</v>
-      </c>
-      <c r="F36">
-        <v>0.55310000000000004</v>
-      </c>
-      <c r="G36">
-        <v>0.75880000000000003</v>
-      </c>
-      <c r="H36">
-        <v>0.86260000000000003</v>
-      </c>
-      <c r="T36" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="U36">
-        <f t="shared" si="24"/>
-        <v>0.76639999999999997</v>
-      </c>
-      <c r="V36">
-        <f t="shared" si="25"/>
-        <v>0.626</v>
-      </c>
-      <c r="W36">
-        <f t="shared" si="26"/>
-        <v>0.86260000000000003</v>
-      </c>
-      <c r="X36">
-        <f t="shared" si="27"/>
-        <v>0.82699999999999996</v>
-      </c>
-      <c r="Y36">
-        <f t="shared" si="28"/>
-        <v>0.83399999999999996</v>
-      </c>
-      <c r="Z36" s="1">
-        <f t="shared" si="29"/>
-        <v>78.319999999999993</v>
-      </c>
-      <c r="AA36" s="1">
-        <f t="shared" si="30"/>
-        <v>9.4600000000000009</v>
-      </c>
-      <c r="AB36" s="4" t="str">
-        <f t="shared" si="31"/>
-        <v>78,32±9,46</v>
-      </c>
-    </row>
-    <row r="37" spans="2:28" x14ac:dyDescent="0.3">
-      <c r="B37" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="C37">
-        <v>0.97389999999999999</v>
-      </c>
-      <c r="D37">
-        <v>0.65049999999999997</v>
-      </c>
-      <c r="E37">
-        <v>0.9284</v>
-      </c>
-      <c r="F37">
-        <v>0.70730000000000004</v>
-      </c>
-      <c r="G37">
-        <v>0.91820000000000002</v>
-      </c>
-      <c r="H37">
-        <v>0.9284</v>
-      </c>
-      <c r="T37" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="U37">
-        <f t="shared" si="24"/>
-        <v>0.85089999999999999</v>
-      </c>
-      <c r="V37">
-        <f t="shared" si="25"/>
-        <v>0.74639999999999995</v>
-      </c>
-      <c r="W37">
-        <f t="shared" si="26"/>
-        <v>0.9284</v>
-      </c>
-      <c r="X37">
-        <f t="shared" si="27"/>
-        <v>0.90469999999999995</v>
-      </c>
-      <c r="Y37">
-        <f t="shared" si="28"/>
-        <v>0.92030000000000001</v>
-      </c>
-      <c r="Z37" s="1">
-        <f t="shared" si="29"/>
-        <v>87.01</v>
-      </c>
-      <c r="AA37" s="1">
-        <f t="shared" si="30"/>
-        <v>7.55</v>
-      </c>
-      <c r="AB37" s="4" t="str">
-        <f t="shared" si="31"/>
-        <v>87,01±7,55</v>
-      </c>
-    </row>
-    <row r="38" spans="2:28" x14ac:dyDescent="0.3">
-      <c r="B38" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="C38">
-        <v>0.91779999999999995</v>
-      </c>
-      <c r="D38">
-        <v>0.92859999999999998</v>
-      </c>
-      <c r="E38">
-        <v>0.62029999999999996</v>
-      </c>
-      <c r="F38">
-        <v>0.67249999999999999</v>
-      </c>
-      <c r="G38">
-        <v>0.92510000000000003</v>
-      </c>
-      <c r="H38">
-        <v>0.62029999999999996</v>
-      </c>
-      <c r="T38" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="U38">
-        <f t="shared" si="24"/>
-        <v>0.61560000000000004</v>
-      </c>
-      <c r="V38">
-        <f t="shared" si="25"/>
-        <v>0.5</v>
-      </c>
-      <c r="W38">
-        <f t="shared" si="26"/>
-        <v>0.62029999999999996</v>
-      </c>
-      <c r="X38">
-        <f t="shared" si="27"/>
-        <v>0.75029999999999997</v>
-      </c>
-      <c r="Y38">
-        <f t="shared" si="28"/>
-        <v>0.71679999999999999</v>
-      </c>
-      <c r="Z38" s="1">
-        <f t="shared" si="29"/>
-        <v>64.06</v>
-      </c>
-      <c r="AA38" s="1">
-        <f t="shared" si="30"/>
-        <v>9.83</v>
-      </c>
-      <c r="AB38" s="4" t="str">
-        <f t="shared" si="31"/>
-        <v>64,06±9,83</v>
-      </c>
-    </row>
-    <row r="39" spans="2:28" x14ac:dyDescent="0.3">
-      <c r="B39" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="C39">
-        <v>0.97360000000000002</v>
-      </c>
-      <c r="D39">
-        <v>0.92379999999999995</v>
-      </c>
-      <c r="E39">
-        <v>0.64429999999999998</v>
-      </c>
-      <c r="F39">
-        <v>0.70899999999999996</v>
-      </c>
-      <c r="G39">
-        <v>0.96240000000000003</v>
-      </c>
-      <c r="H39">
-        <v>0.64429999999999998</v>
-      </c>
-      <c r="T39" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="U39">
-        <f t="shared" si="24"/>
-        <v>0.66390000000000005</v>
-      </c>
-      <c r="V39">
-        <f t="shared" si="25"/>
-        <v>0.5</v>
-      </c>
-      <c r="W39">
-        <f t="shared" si="26"/>
-        <v>0.64429999999999998</v>
-      </c>
-      <c r="X39">
-        <f t="shared" si="27"/>
-        <v>0.84909999999999997</v>
-      </c>
-      <c r="Y39">
-        <f t="shared" si="28"/>
-        <v>0.76149999999999995</v>
-      </c>
-      <c r="Z39" s="1">
-        <f t="shared" si="29"/>
-        <v>68.38</v>
-      </c>
-      <c r="AA39" s="1">
-        <f t="shared" si="30"/>
-        <v>13.14</v>
-      </c>
-      <c r="AB39" s="4" t="str">
-        <f t="shared" si="31"/>
-        <v>68,38±13,14</v>
-      </c>
-    </row>
-    <row r="40" spans="2:28" x14ac:dyDescent="0.3">
-      <c r="B40" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="C40">
-        <v>0.84930000000000005</v>
-      </c>
-      <c r="D40">
-        <v>0.69</v>
-      </c>
-      <c r="E40">
-        <v>0.51439999999999997</v>
-      </c>
-      <c r="F40">
-        <v>0.50800000000000001</v>
-      </c>
-      <c r="G40">
-        <v>0.91539999999999999</v>
-      </c>
-      <c r="H40">
-        <v>0.51439999999999997</v>
-      </c>
-      <c r="T40" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="U40">
-        <f t="shared" si="24"/>
-        <v>0.67369999999999997</v>
-      </c>
-      <c r="V40">
-        <f t="shared" si="25"/>
-        <v>0.50009999999999999</v>
-      </c>
-      <c r="W40">
-        <f t="shared" si="26"/>
-        <v>0.51439999999999997</v>
-      </c>
-      <c r="X40">
-        <f t="shared" si="27"/>
-        <v>0.76900000000000002</v>
-      </c>
-      <c r="Y40">
-        <f t="shared" si="28"/>
-        <v>0.53920000000000001</v>
-      </c>
-      <c r="Z40" s="1">
-        <f t="shared" si="29"/>
-        <v>59.93</v>
-      </c>
-      <c r="AA40" s="1">
-        <f t="shared" si="30"/>
-        <v>11.73</v>
-      </c>
-      <c r="AB40" s="4" t="str">
-        <f t="shared" si="31"/>
-        <v>59,93±11,73</v>
-      </c>
-    </row>
-    <row r="41" spans="2:28" x14ac:dyDescent="0.3">
-      <c r="B41" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="C41">
-        <v>0.97560000000000002</v>
-      </c>
-      <c r="D41">
-        <v>0.86399999999999999</v>
-      </c>
-      <c r="E41">
-        <v>0.72640000000000005</v>
-      </c>
-      <c r="F41">
-        <v>0.77669999999999995</v>
-      </c>
-      <c r="G41">
-        <v>0.95779999999999998</v>
-      </c>
-      <c r="H41">
-        <v>0.72640000000000005</v>
-      </c>
-      <c r="T41" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="U41">
-        <f t="shared" si="24"/>
-        <v>0.79859999999999998</v>
-      </c>
-      <c r="V41">
-        <f t="shared" si="25"/>
-        <v>0.69130000000000003</v>
-      </c>
-      <c r="W41">
-        <f t="shared" si="26"/>
-        <v>0.72640000000000005</v>
-      </c>
-      <c r="X41">
-        <f t="shared" si="27"/>
-        <v>0.7248</v>
-      </c>
-      <c r="Y41">
-        <f t="shared" si="28"/>
-        <v>0.81820000000000004</v>
-      </c>
-      <c r="Z41" s="1">
-        <f t="shared" si="29"/>
-        <v>75.19</v>
-      </c>
-      <c r="AA41" s="1">
-        <f t="shared" si="30"/>
-        <v>5.39</v>
-      </c>
-      <c r="AB41" s="4" t="str">
-        <f t="shared" si="31"/>
-        <v>75,19±5,39</v>
-      </c>
-    </row>
-    <row r="42" spans="2:28" x14ac:dyDescent="0.3">
-      <c r="B42" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="C42">
-        <v>0.81479999999999997</v>
-      </c>
-      <c r="D42">
-        <v>0.55130000000000001</v>
-      </c>
-      <c r="E42">
-        <v>0.69</v>
-      </c>
-      <c r="F42">
-        <v>0.54720000000000002</v>
-      </c>
-      <c r="G42">
-        <v>0.80079999999999996</v>
-      </c>
-      <c r="H42">
-        <v>0.69</v>
-      </c>
-      <c r="T42" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="U42">
-        <f t="shared" si="24"/>
-        <v>0.75</v>
-      </c>
-      <c r="V42">
-        <f t="shared" si="25"/>
-        <v>0.67049999999999998</v>
-      </c>
-      <c r="W42">
-        <f t="shared" si="26"/>
-        <v>0.69</v>
-      </c>
-      <c r="X42">
-        <f t="shared" si="27"/>
-        <v>0.7944</v>
-      </c>
-      <c r="Y42">
-        <f t="shared" si="28"/>
-        <v>0.72260000000000002</v>
-      </c>
-      <c r="Z42" s="1">
-        <f t="shared" si="29"/>
-        <v>72.55</v>
-      </c>
-      <c r="AA42" s="1">
-        <f t="shared" si="30"/>
-        <v>4.91</v>
-      </c>
-      <c r="AB42" s="4" t="str">
-        <f t="shared" si="31"/>
-        <v>72,55±4,91</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>